--- a/brinson_result_test/161810.OF_res.xlsx
+++ b/brinson_result_test/161810.OF_res.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1408332351824682</v>
+        <v>0.1408332351824681</v>
       </c>
       <c r="F2">
         <v>0.001042856684956497</v>
@@ -544,7 +544,7 @@
         <v>-0</v>
       </c>
       <c r="H2">
-        <v>-0.004530650482324824</v>
+        <v>-0.004530650482324823</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.082266761489441</v>
+        <v>-0.08226676148944098</v>
       </c>
       <c r="F3">
-        <v>0.008227720928383168</v>
+        <v>0.008227720928383166</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>0.05089050890508905</v>
       </c>
       <c r="D5">
-        <v>0.08168014046944201</v>
+        <v>0.081680140469442</v>
       </c>
       <c r="E5">
         <v>0.206915402782865</v>
       </c>
       <c r="F5">
-        <v>0.002091381184650768</v>
+        <v>0.00209138118465077</v>
       </c>
       <c r="G5">
         <v>-0.01415321432951497</v>
       </c>
       <c r="H5">
-        <v>-0.001299111370143697</v>
+        <v>-0.001299111370143699</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -639,7 +639,7 @@
         <v>-0.181038961</v>
       </c>
       <c r="E6">
-        <v>0.07778024638095239</v>
+        <v>0.07778024638095238</v>
       </c>
       <c r="F6">
         <v>0.00122578670236912</v>
@@ -685,7 +685,7 @@
         <v>0.05835835835835836</v>
       </c>
       <c r="C8">
-        <v>0.02310023100231002</v>
+        <v>0.02310023100231003</v>
       </c>
       <c r="D8">
         <v>0.04978148575814751</v>
@@ -694,13 +694,13 @@
         <v>0.1628564961904762</v>
       </c>
       <c r="F8">
-        <v>-0.0003664543106999332</v>
+        <v>-0.0003664543106999313</v>
       </c>
       <c r="G8">
-        <v>-0.006598871980184945</v>
+        <v>-0.006598871980184946</v>
       </c>
       <c r="H8">
-        <v>-0.0008568568967413362</v>
+        <v>-0.0008568568967413375</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -711,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04768047680476806</v>
+        <v>0.04768047680476805</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5646672683684983</v>
+        <v>0.5646672683684982</v>
       </c>
       <c r="F9">
-        <v>-0.01866296356804575</v>
+        <v>-0.01866296356804574</v>
       </c>
       <c r="G9">
         <v>-0</v>
       </c>
       <c r="H9">
-        <v>-0.02692360459185593</v>
+        <v>-0.02692360459185592</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -737,7 +737,7 @@
         <v>0.01781781781781782</v>
       </c>
       <c r="C10">
-        <v>0.004370043700437005</v>
+        <v>0.004370043700437006</v>
       </c>
       <c r="D10">
         <v>0.173674589</v>
@@ -752,7 +752,7 @@
         <v>-0.003547227635835836</v>
       </c>
       <c r="H10">
-        <v>0.001465534494249465</v>
+        <v>0.001465534494249464</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -763,19 +763,19 @@
         <v>0.1264264264264264</v>
       </c>
       <c r="C11">
-        <v>0.04562045620456203</v>
+        <v>0.04562045620456205</v>
       </c>
       <c r="D11">
         <v>0.1992262039049882</v>
       </c>
       <c r="E11">
-        <v>0.06904683561047788</v>
+        <v>0.06904683561047785</v>
       </c>
       <c r="F11">
-        <v>-0.008420235116562673</v>
+        <v>-0.008420235116562671</v>
       </c>
       <c r="G11">
-        <v>0.01645811232792457</v>
+        <v>0.01645811232792458</v>
       </c>
       <c r="H11">
         <v>0.02203750887017881</v>
@@ -798,7 +798,7 @@
         <v>0.1686297052212562</v>
       </c>
       <c r="F12">
-        <v>0.0002604005470278453</v>
+        <v>0.0002604005470278437</v>
       </c>
       <c r="G12">
         <v>-0</v>
@@ -821,13 +821,13 @@
         <v>0.0280216647427568</v>
       </c>
       <c r="E13">
-        <v>0.08603578244018341</v>
+        <v>0.08603578244018339</v>
       </c>
       <c r="F13">
-        <v>-0.007851350032846675</v>
+        <v>-0.007851350032846673</v>
       </c>
       <c r="G13">
-        <v>-0.006614422428165056</v>
+        <v>-0.006614422428165054</v>
       </c>
       <c r="H13">
         <v>0.001130843415746067</v>
@@ -844,19 +844,19 @@
         <v>0.02547025470254703</v>
       </c>
       <c r="D14">
-        <v>0.7895179627142859</v>
+        <v>0.7895179627142858</v>
       </c>
       <c r="E14">
-        <v>0.05230462518138986</v>
+        <v>0.05230462518138987</v>
       </c>
       <c r="F14">
-        <v>0.002826269199440873</v>
+        <v>0.002826269199440872</v>
       </c>
       <c r="G14">
         <v>0.001549697706525607</v>
       </c>
       <c r="H14">
-        <v>0.0003274352435778142</v>
+        <v>0.000327435243577814</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -876,7 +876,7 @@
         <v>0.26967472591174</v>
       </c>
       <c r="F15">
-        <v>-0.003209782993835092</v>
+        <v>-0.003209782993835093</v>
       </c>
       <c r="G15">
         <v>0.003504599296308132</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2732551130279721</v>
+        <v>0.273255113027972</v>
       </c>
       <c r="F16">
-        <v>-0.0004290263675478509</v>
+        <v>-0.0004290263675478505</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.001172276157651577</v>
+        <v>-0.001172276157651576</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -919,22 +919,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009760097600976009</v>
+        <v>0.009760097600976011</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2516347722622951</v>
+        <v>0.251634772262295</v>
       </c>
       <c r="F17">
-        <v>-0.0007650433516685629</v>
+        <v>-0.0007650433516685628</v>
       </c>
       <c r="G17">
         <v>-0</v>
       </c>
       <c r="H17">
-        <v>-0.002455979937079371</v>
+        <v>-0.00245597993707937</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -960,7 +960,7 @@
         <v>-0</v>
       </c>
       <c r="H18">
-        <v>-0.005263457473054732</v>
+        <v>-0.00526345747305473</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -977,13 +977,13 @@
         <v>0.1156022915043384</v>
       </c>
       <c r="E19">
-        <v>0.04029329596593491</v>
+        <v>0.04029329596593489</v>
       </c>
       <c r="F19">
         <v>-0.0105145007419813</v>
       </c>
       <c r="G19">
-        <v>0.006950439828469271</v>
+        <v>0.006950439828469272</v>
       </c>
       <c r="H19">
         <v>0.01013692071466955</v>
@@ -1012,7 +1012,7 @@
         <v>-0.03278256002096289</v>
       </c>
       <c r="H20">
-        <v>-0.007038593864742961</v>
+        <v>-0.007038593864742964</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1029,7 +1029,7 @@
         <v>-0.155364018</v>
       </c>
       <c r="E21">
-        <v>0.006043006896600563</v>
+        <v>0.006043006896600582</v>
       </c>
       <c r="F21">
         <v>0.002109924382437874</v>
@@ -1038,7 +1038,7 @@
         <v>-0.000242352890235136</v>
       </c>
       <c r="H21">
-        <v>-0.0003186074169674128</v>
+        <v>-0.0003186074169674131</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1058,13 +1058,13 @@
         <v>0.017382495471875</v>
       </c>
       <c r="F22">
-        <v>0.0004987808960841915</v>
+        <v>0.0004987808960841914</v>
       </c>
       <c r="G22">
         <v>-0</v>
       </c>
       <c r="H22">
-        <v>-5.562454175541757e-05</v>
+        <v>-5.562454175541755E-05</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006370063700637006</v>
+        <v>0.006370063700637005</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         <v>0.1254370819795919</v>
       </c>
       <c r="F23">
-        <v>0.0003045711220674454</v>
+        <v>0.000304571122067445</v>
       </c>
       <c r="G23">
         <v>-0</v>
       </c>
       <c r="H23">
-        <v>-0.0007990422026320264</v>
+        <v>-0.0007990422026320265</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1127,7 +1127,7 @@
         <v>0.003003003003003003</v>
       </c>
       <c r="C25">
-        <v>0.0003200032000320003</v>
+        <v>0.0003200032000320004</v>
       </c>
       <c r="D25">
         <v>0.310176298</v>
@@ -1159,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.1539101228610392</v>
+        <v>0.1539101228610393</v>
       </c>
       <c r="F26">
-        <v>0.0004931709523540806</v>
+        <v>0.0004931709523540778</v>
       </c>
       <c r="G26">
         <v>-0</v>
       </c>
       <c r="H26">
-        <v>-0.003924747380430305</v>
+        <v>-0.003924747380430306</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1188,7 +1188,7 @@
         <v>0.1175327676628521</v>
       </c>
       <c r="F27">
-        <v>0.0006329537118246872</v>
+        <v>0.0006329537118246867</v>
       </c>
       <c r="G27">
         <v>-0</v>
@@ -1214,10 +1214,10 @@
         <v>0.1012866366311018</v>
       </c>
       <c r="F28">
-        <v>0.01237637015600347</v>
+        <v>0.01237637015600348</v>
       </c>
       <c r="G28">
-        <v>-1.201275131442461e-05</v>
+        <v>-1.20127513144246E-05</v>
       </c>
       <c r="H28">
         <v>-0.01743145267611612</v>
@@ -1240,7 +1240,7 @@
         <v>0.1332537763412025</v>
       </c>
       <c r="F29">
-        <v>-0.0002998818235260082</v>
+        <v>-0.0002998818235260069</v>
       </c>
       <c r="G29">
         <v>-0.01500944479767528</v>
@@ -1257,13 +1257,13 @@
         <v>0.1113113113113113</v>
       </c>
       <c r="C30">
-        <v>0.05623056230562305</v>
+        <v>0.05623056230562306</v>
       </c>
       <c r="D30">
-        <v>0.1449187744784173</v>
+        <v>0.1449187744784172</v>
       </c>
       <c r="E30">
-        <v>0.4093781089379336</v>
+        <v>0.4093781089379335</v>
       </c>
       <c r="F30">
         <v>0.01300611492984471</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0.004491324665362749</v>
@@ -1292,7 +1292,7 @@
         <v>-0.08918748095863269</v>
       </c>
       <c r="H31">
-        <v>-0.08469615629326997</v>
+        <v>-0.08469615629326996</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0334110023300699</v>
+        <v>0.03341100233006991</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0.127252648536965</v>
       </c>
       <c r="F2">
-        <v>0.001018997977338259</v>
+        <v>0.001018997977338261</v>
       </c>
       <c r="G2">
         <v>-0</v>
       </c>
       <c r="H2">
-        <v>-0.004251638536776103</v>
+        <v>-0.004251638536776105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1368,22 +1368,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02499074972249167</v>
+        <v>0.02499074972249168</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04472417987795119</v>
+        <v>0.04472417987795122</v>
       </c>
       <c r="F3">
-        <v>0.002824638052429863</v>
+        <v>0.002824638052429864</v>
       </c>
       <c r="G3">
         <v>-0</v>
       </c>
       <c r="H3">
-        <v>-0.001117690785873576</v>
+        <v>-0.001117690785873577</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1394,7 +1394,7 @@
         <v>0.0928092809280928</v>
       </c>
       <c r="C4">
-        <v>0.004710141304239127</v>
+        <v>0.004710141304239128</v>
       </c>
       <c r="D4">
         <v>-0.02082805359267241</v>
@@ -1426,16 +1426,16 @@
         <v>0.05072624585714286</v>
       </c>
       <c r="E5">
-        <v>0.1638702741233004</v>
+        <v>0.1638702741233005</v>
       </c>
       <c r="F5">
-        <v>-0.000319958477156297</v>
+        <v>-0.0003199584771562984</v>
       </c>
       <c r="G5">
-        <v>-0.0001584174813207527</v>
+        <v>-0.0001584174813207528</v>
       </c>
       <c r="H5">
-        <v>-0.008727435124864485</v>
+        <v>-0.008727435124864491</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1269521015891545</v>
+        <v>0.1269521015891544</v>
       </c>
       <c r="F6">
-        <v>0.0003351077619568077</v>
+        <v>0.0003351077619568093</v>
       </c>
       <c r="G6">
         <v>-0</v>
@@ -1481,13 +1481,13 @@
         <v>-0.05976910255055402</v>
       </c>
       <c r="F7">
-        <v>0.003141092070720929</v>
+        <v>0.003141092070720931</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0008630917335820073</v>
+        <v>0.0008630917335820076</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1504,10 +1504,10 @@
         <v>0.1431274195366795</v>
       </c>
       <c r="E8">
-        <v>0.08972521673455683</v>
+        <v>0.08972521673455684</v>
       </c>
       <c r="F8">
-        <v>-0.0002423042646960677</v>
+        <v>-0.0002423042646960679</v>
       </c>
       <c r="G8">
         <v>0.001383255378112789</v>
@@ -1527,16 +1527,16 @@
         <v>0.05073152194565837</v>
       </c>
       <c r="D9">
-        <v>0.0879979165</v>
+        <v>0.08799791650000001</v>
       </c>
       <c r="E9">
         <v>0.198318952668835</v>
       </c>
       <c r="F9">
-        <v>-0.002049933133632071</v>
+        <v>-0.002049933133632069</v>
       </c>
       <c r="G9">
-        <v>-2.206641387515452e-05</v>
+        <v>-2.206641387515452E-05</v>
       </c>
       <c r="H9">
         <v>-0.01004342095612464</v>
@@ -1550,7 +1550,7 @@
         <v>0.04830483048304831</v>
       </c>
       <c r="C10">
-        <v>0.005000150004500134</v>
+        <v>0.005000150004500136</v>
       </c>
       <c r="D10">
         <v>0.290109034</v>
@@ -1559,10 +1559,10 @@
         <v>0.290365156</v>
       </c>
       <c r="F10">
-        <v>0.005742790989143342</v>
+        <v>0.00574279098914334</v>
       </c>
       <c r="G10">
-        <v>-1.237192979298052e-05</v>
+        <v>-1.237192979298052E-05</v>
       </c>
       <c r="H10">
         <v>0.01256179837289082</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.03563286298452094</v>
+        <v>-0.03563286298452096</v>
       </c>
       <c r="F11">
-        <v>0.007246330345747606</v>
+        <v>0.007246330345747607</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05031150934528034</v>
+        <v>0.05031150934528036</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>0.1566460418246869</v>
       </c>
       <c r="F12">
-        <v>5.561844393436622e-05</v>
+        <v>5.561844393436903E-05</v>
       </c>
       <c r="G12">
         <v>-0</v>
       </c>
       <c r="H12">
-        <v>-0.007881098797163913</v>
+        <v>-0.007881098797163914</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1628,19 +1628,19 @@
         <v>0.5138513851385138</v>
       </c>
       <c r="C13">
-        <v>0.0335410062301869</v>
+        <v>0.03354100623018691</v>
       </c>
       <c r="D13">
         <v>0.3322144132296614</v>
       </c>
       <c r="E13">
-        <v>0.2946988356979725</v>
+        <v>0.2946988356979726</v>
       </c>
       <c r="F13">
         <v>0.06577721548583486</v>
       </c>
       <c r="G13">
-        <v>0.01927743147892964</v>
+        <v>0.01927743147892961</v>
       </c>
       <c r="H13">
         <v>0.1608243409168656</v>
@@ -1654,7 +1654,7 @@
         <v>0.0003000300030003001</v>
       </c>
       <c r="C14">
-        <v>0.02207066211986359</v>
+        <v>0.0220706621198636</v>
       </c>
       <c r="D14">
         <v>0.1649205296666667</v>
@@ -1663,13 +1663,13 @@
         <v>0.1158965186311735</v>
       </c>
       <c r="F14">
-        <v>0.0009112099099150141</v>
+        <v>0.0009112099099150153</v>
       </c>
       <c r="G14">
-        <v>1.470867417806575e-05</v>
+        <v>1.470867417806575E-05</v>
       </c>
       <c r="H14">
-        <v>-0.002508431796566405</v>
+        <v>-0.002508431796566407</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1680,22 +1680,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03534106023180695</v>
+        <v>0.03534106023180696</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1202594440537634</v>
+        <v>0.1202594440537635</v>
       </c>
       <c r="F15">
-        <v>0.001325009832513374</v>
+        <v>0.001325009832513376</v>
       </c>
       <c r="G15">
         <v>-0</v>
       </c>
       <c r="H15">
-        <v>-0.004250096255747671</v>
+        <v>-0.004250096255747673</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004760142804284128</v>
+        <v>0.004760142804284129</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1715,13 +1715,13 @@
         <v>0.3078220471932773</v>
       </c>
       <c r="F16">
-        <v>-0.0007143571242226237</v>
+        <v>-0.0007143571242226236</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.001465276902947088</v>
+        <v>-0.001465276902947089</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1741,7 +1741,7 @@
         <v>0.1118189550713087</v>
       </c>
       <c r="F17">
-        <v>0.0005475326398238893</v>
+        <v>0.0005475326398238904</v>
       </c>
       <c r="G17">
         <v>-0</v>
@@ -1767,7 +1767,7 @@
         <v>-0.03522001545678607</v>
       </c>
       <c r="F18">
-        <v>0.004830149570205905</v>
+        <v>0.004830149570205907</v>
       </c>
       <c r="G18">
         <v>0.002189186283695015</v>
@@ -1793,7 +1793,7 @@
         <v>0.3776797872819059</v>
       </c>
       <c r="F19">
-        <v>0.005272479156051577</v>
+        <v>0.005272479156051575</v>
       </c>
       <c r="G19">
         <v>-0.01939828037656494</v>
@@ -1819,7 +1819,7 @@
         <v>0.2155516662829348</v>
       </c>
       <c r="F20">
-        <v>0.002818816487333992</v>
+        <v>0.002818816487333989</v>
       </c>
       <c r="G20">
         <v>-0.01889151317307321</v>
@@ -1842,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04978191737774168</v>
+        <v>0.04978191737774169</v>
       </c>
       <c r="F21">
-        <v>0.001329145723851689</v>
+        <v>0.00132914572385169</v>
       </c>
       <c r="G21">
         <v>-0</v>
       </c>
       <c r="H21">
-        <v>-0.000612833787933638</v>
+        <v>-0.0006128337879336383</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.002720081602448073</v>
+        <v>0.002720081602448074</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>-0.1318392107058823</v>
       </c>
       <c r="F22">
-        <v>0.0007877104279363253</v>
+        <v>0.0007877104279363256</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0003586134115223455</v>
+        <v>0.0003586134115223456</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1888,16 +1888,16 @@
         <v>0.04690469046904691</v>
       </c>
       <c r="C23">
-        <v>0.003780113403402102</v>
+        <v>0.003780113403402101</v>
       </c>
       <c r="D23">
         <v>0.392318244</v>
       </c>
       <c r="E23">
-        <v>-0.08370185025925926</v>
+        <v>-0.08370185025925928</v>
       </c>
       <c r="F23">
-        <v>-0.01041257461783746</v>
+        <v>-0.01041257461783747</v>
       </c>
       <c r="G23">
         <v>0.02232757517827709</v>
@@ -1923,13 +1923,13 @@
         <v>0.1349425418055199</v>
       </c>
       <c r="F24">
-        <v>0.0003553745936520503</v>
+        <v>0.0003553745936520508</v>
       </c>
       <c r="G24">
         <v>-0</v>
       </c>
       <c r="H24">
-        <v>-0.00210246787536626</v>
+        <v>-0.002102467875366261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1946,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.08414308545569621</v>
+        <v>-0.0841430854556962</v>
       </c>
       <c r="F25">
-        <v>0.0005733074220847453</v>
+        <v>0.0005733074220847455</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0.1789227502894632</v>
       </c>
       <c r="F26">
-        <v>-0.000475304302228208</v>
+        <v>-0.0004753043022282062</v>
       </c>
       <c r="G26">
-        <v>8.101175349379869e-05</v>
+        <v>8.101175349379877E-05</v>
       </c>
       <c r="H26">
         <v>-0.003935890677795807</v>
@@ -2001,7 +2001,7 @@
         <v>0.169332502647619</v>
       </c>
       <c r="F27">
-        <v>0.0005235228314071657</v>
+        <v>0.0005235228314071631</v>
       </c>
       <c r="G27">
         <v>0.007418822760443667</v>
@@ -2027,10 +2027,10 @@
         <v>0.1004135725492816</v>
       </c>
       <c r="F28">
-        <v>0.009634209913685092</v>
+        <v>0.009634209913685103</v>
       </c>
       <c r="G28">
-        <v>4.861823240352772e-05</v>
+        <v>4.861823240352771E-05</v>
       </c>
       <c r="H28">
         <v>-0.01682337357521977</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.1723151694550836</v>
+        <v>0.1723151694550837</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0.1640107053395044</v>
       </c>
       <c r="F29">
-        <v>-0.001078552005710937</v>
+        <v>-0.001078552005710927</v>
       </c>
       <c r="G29">
         <v>-0</v>
       </c>
       <c r="H29">
-        <v>-0.02826153248302448</v>
+        <v>-0.02826153248302449</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2070,22 +2070,22 @@
         <v>0.06430643064306431</v>
       </c>
       <c r="C30">
-        <v>0.07173215196455893</v>
+        <v>0.07173215196455894</v>
       </c>
       <c r="D30">
         <v>0.2022266755147745</v>
       </c>
       <c r="E30">
-        <v>0.4487996443642827</v>
+        <v>0.4487996443642828</v>
       </c>
       <c r="F30">
-        <v>-0.002161242237819945</v>
+        <v>-0.002161242237819949</v>
       </c>
       <c r="G30">
-        <v>-0.01585622751977536</v>
+        <v>-0.01585622751977537</v>
       </c>
       <c r="H30">
-        <v>-0.01918888860801041</v>
+        <v>-0.01918888860801043</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2096,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.1107699700633341</v>
+        <v>0.1107699700633342</v>
       </c>
       <c r="G31">
-        <v>-0.03205037854741825</v>
+        <v>-0.0320503785474183</v>
       </c>
       <c r="H31">
-        <v>0.07871959151591593</v>
+        <v>0.07871959151591587</v>
       </c>
     </row>
   </sheetData>
@@ -2204,25 +2204,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2033219931959175</v>
+        <v>0.2033219931959176</v>
       </c>
       <c r="C4">
-        <v>0.004769952300476994</v>
+        <v>0.004769952300476995</v>
       </c>
       <c r="D4">
-        <v>-0.03687220603051182</v>
+        <v>-0.03687220603051181</v>
       </c>
       <c r="E4">
-        <v>-0.2511282206666667</v>
+        <v>-0.2511282206666666</v>
       </c>
       <c r="F4">
-        <v>-0.03456080464919913</v>
+        <v>-0.03456080464919912</v>
       </c>
       <c r="G4">
         <v>0.04356295995003669</v>
       </c>
       <c r="H4">
-        <v>-0.006299060789770532</v>
+        <v>-0.006299060789770534</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2236,16 +2236,16 @@
         <v>0.07234927650723494</v>
       </c>
       <c r="D5">
-        <v>-0.01712960041829555</v>
+        <v>-0.01712960041829554</v>
       </c>
       <c r="E5">
         <v>0.2280984713002073</v>
       </c>
       <c r="F5">
-        <v>0.01697542874230965</v>
+        <v>0.01697542874230966</v>
       </c>
       <c r="G5">
-        <v>-0.03138350047308035</v>
+        <v>-0.03138350047308036</v>
       </c>
       <c r="H5">
         <v>-0.01869495057920122</v>
@@ -2265,16 +2265,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.06531687001988072</v>
+        <v>-0.06531687001988069</v>
       </c>
       <c r="F6">
-        <v>-0.0001181750274760895</v>
+        <v>-0.0001181750274760897</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0006570811415885842</v>
+        <v>0.0006570811415885839</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2308,25 +2308,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.09065439263558132</v>
+        <v>0.09065439263558135</v>
       </c>
       <c r="C8">
-        <v>0.02130978690213098</v>
+        <v>0.02130978690213097</v>
       </c>
       <c r="D8">
         <v>-0.176281080714128</v>
       </c>
       <c r="E8">
-        <v>-0.01623198824683248</v>
+        <v>-0.01623198824683243</v>
       </c>
       <c r="F8">
-        <v>0.004218372433654871</v>
+        <v>0.004218372433654876</v>
       </c>
       <c r="G8">
-        <v>-0.01450915326949867</v>
+        <v>-0.01450915326949868</v>
       </c>
       <c r="H8">
-        <v>-0.01563475409474527</v>
+        <v>-0.01563475409474528</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2337,22 +2337,22 @@
         <v>0.000100060036021613</v>
       </c>
       <c r="C9">
-        <v>0.05616943830561695</v>
+        <v>0.05616943830561696</v>
       </c>
       <c r="D9">
         <v>0.073926091</v>
       </c>
       <c r="E9">
-        <v>0.0003130034427630372</v>
+        <v>0.000313003442763044</v>
       </c>
       <c r="F9">
-        <v>-0.004338480930344345</v>
+        <v>-0.004338480930344346</v>
       </c>
       <c r="G9">
-        <v>7.365728192639278e-06</v>
+        <v>7.365728192639281E-06</v>
       </c>
       <c r="H9">
-        <v>-1.018418023932709e-05</v>
+        <v>-1.018418023932747E-05</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2360,7 +2360,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.08845307184310586</v>
+        <v>0.08845307184310587</v>
       </c>
       <c r="C10">
         <v>0.01218987810121899</v>
@@ -2369,16 +2369,16 @@
         <v>-0.1916698985429864</v>
       </c>
       <c r="E10">
-        <v>0.01501498052994256</v>
+        <v>0.01501498052994257</v>
       </c>
       <c r="F10">
-        <v>0.007022237750506385</v>
+        <v>0.007022237750506388</v>
       </c>
       <c r="G10">
-        <v>-0.01828191245752143</v>
+        <v>-0.01828191245752144</v>
       </c>
       <c r="H10">
-        <v>-0.01713682208833576</v>
+        <v>-0.01713682208833577</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.1269274414507709</v>
+        <v>-0.126927441450771</v>
       </c>
       <c r="F12">
-        <v>0.002351037371457265</v>
+        <v>0.002351037371457266</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.005984569018713663</v>
+        <v>0.005984569018713664</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2450,10 +2450,10 @@
         <v>-0.1695934072835366</v>
       </c>
       <c r="F13">
-        <v>-0.02818267430255441</v>
+        <v>-0.02818267430255442</v>
       </c>
       <c r="G13">
-        <v>0.04332079108282256</v>
+        <v>0.04332079108282257</v>
       </c>
       <c r="H13">
         <v>-0.008334097030873441</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.09553679617573571</v>
+        <v>-0.0955367961757357</v>
       </c>
       <c r="F15">
-        <v>0.0006653831721537022</v>
+        <v>0.0006653831721537016</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007479925200747992</v>
+        <v>0.007479925200747993</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>0.4468882648770053</v>
       </c>
       <c r="F16">
-        <v>-0.003919123810734258</v>
+        <v>-0.003919123810734259</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.003342690794372056</v>
+        <v>-0.003342690794372057</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2554,7 +2554,7 @@
         <v>-0.1400031726628821</v>
       </c>
       <c r="F17">
-        <v>0.0007206462276229652</v>
+        <v>0.0007206462276229653</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0002001200720432259</v>
+        <v>0.000200120072043226</v>
       </c>
       <c r="C18">
         <v>0.03029969700302997</v>
@@ -2577,16 +2577,16 @@
         <v>0.292112779</v>
       </c>
       <c r="E18">
-        <v>-0.06946762854521452</v>
+        <v>-0.06946762854521453</v>
       </c>
       <c r="F18">
-        <v>-0.0002286478112262112</v>
+        <v>-0.0002286478112262108</v>
       </c>
       <c r="G18">
-        <v>7.235949720736731e-05</v>
+        <v>7.235949720736734E-05</v>
       </c>
       <c r="H18">
-        <v>0.002163305726817262</v>
+        <v>0.002163305726817263</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01536984630153698</v>
+        <v>0.01536984630153699</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.003573641574854251</v>
+        <v>0.003573641574854252</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2623,22 +2623,22 @@
         <v>0.1117670602361417</v>
       </c>
       <c r="C20">
-        <v>0.04827951720482795</v>
+        <v>0.04827951720482797</v>
       </c>
       <c r="D20">
-        <v>0.02748590383348254</v>
+        <v>0.02748590383348256</v>
       </c>
       <c r="E20">
         <v>-0.1291780875300331</v>
       </c>
       <c r="F20">
-        <v>-0.003308594859465706</v>
+        <v>-0.003308594859465705</v>
       </c>
       <c r="G20">
-        <v>0.01750987375956043</v>
+        <v>0.01750987375956044</v>
       </c>
       <c r="H20">
-        <v>0.009308674368794647</v>
+        <v>0.00930867436879465</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01946296918785579</v>
+        <v>0.01946296918785578</v>
       </c>
       <c r="F21">
         <v>-0.001526076250379089</v>
@@ -2664,7 +2664,7 @@
         <v>-0</v>
       </c>
       <c r="H21">
-        <v>-0.0003077064657953422</v>
+        <v>-0.000307706465795342</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2684,13 +2684,13 @@
         <v>0.1804363723428571</v>
       </c>
       <c r="F22">
-        <v>-0.0007209938553405139</v>
+        <v>-0.0007209938553405142</v>
       </c>
       <c r="G22">
         <v>-0</v>
       </c>
       <c r="H22">
-        <v>-0.0005052167903920958</v>
+        <v>-0.0005052167903920961</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0271820190307186</v>
+        <v>0.02718201903071859</v>
       </c>
       <c r="F24">
         <v>-0.001900386070986648</v>
@@ -2742,7 +2742,7 @@
         <v>-0</v>
       </c>
       <c r="H24">
-        <v>-0.0004955232516974832</v>
+        <v>-0.0004955232516974829</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.003459965400345996</v>
+        <v>0.003459965400345997</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9.9554091199088e-05</v>
+        <v>9.955409119908802E-05</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2776,7 +2776,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00610366219731839</v>
+        <v>0.006103662197318392</v>
       </c>
       <c r="C26">
         <v>0.01858981410185898</v>
@@ -2785,16 +2785,16 @@
         <v>-0.486454784</v>
       </c>
       <c r="E26">
-        <v>-0.3074669339107047</v>
+        <v>-0.3074669339107046</v>
       </c>
       <c r="F26">
         <v>0.002876845930748839</v>
       </c>
       <c r="G26">
-        <v>-0.001092481374369323</v>
+        <v>-0.001092481374369324</v>
       </c>
       <c r="H26">
-        <v>0.002746597468063078</v>
+        <v>0.002746597468063077</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2814,7 +2814,7 @@
         <v>-0.1425820823835861</v>
       </c>
       <c r="F27">
-        <v>0.0007344502680599097</v>
+        <v>0.0007344502680599094</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.1668183318166818</v>
+        <v>0.1668183318166819</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>-0.1155223599559405</v>
       </c>
       <c r="F28">
-        <v>0.006415558098699421</v>
+        <v>0.006415558098699422</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03732239343606163</v>
+        <v>0.03732239343606164</v>
       </c>
       <c r="C30">
-        <v>0.0852191478085219</v>
+        <v>0.08521914780852193</v>
       </c>
       <c r="D30">
         <v>0.33441911</v>
@@ -2892,13 +2892,13 @@
         <v>0.03571739605761558</v>
       </c>
       <c r="F30">
-        <v>-0.005401863213386772</v>
+        <v>-0.005401863213386774</v>
       </c>
       <c r="G30">
         <v>0.01114826288778361</v>
       </c>
       <c r="H30">
-        <v>0.009437515541988115</v>
+        <v>0.009437515541988116</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2906,16 +2906,16 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-0.01660452954347659</v>
+        <v>-0.01660452954347656</v>
       </c>
       <c r="G31">
-        <v>0.05035456533113353</v>
+        <v>0.05035456533113351</v>
       </c>
       <c r="H31">
         <v>0.03375003578765694</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03317000000000001</v>
+        <v>0.03316999999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>-0.159787996059994</v>
       </c>
       <c r="F2">
-        <v>0.001969078093113402</v>
+        <v>0.001969078093113403</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005300167829310001</v>
+        <v>0.00530016782931</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3003,13 +3003,13 @@
         <v>-0.1875310775129871</v>
       </c>
       <c r="F3">
-        <v>0.001475580790387746</v>
+        <v>0.001475580790387747</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003176776453070001</v>
+        <v>0.00317677645307</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3020,7 +3020,7 @@
         <v>0.2722727727227278</v>
       </c>
       <c r="C4">
-        <v>0.007200000000000001</v>
+        <v>0.0072</v>
       </c>
       <c r="D4">
         <v>0.009109680315828129</v>
@@ -3029,7 +3029,7 @@
         <v>0.1622904051055556</v>
       </c>
       <c r="F4">
-        <v>0.06963864082294097</v>
+        <v>0.06963864082294095</v>
       </c>
       <c r="G4">
         <v>-0.04170694066617617</v>
@@ -3043,10 +3043,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.01569843015698431</v>
+        <v>0.0156984301569843</v>
       </c>
       <c r="C5">
-        <v>0.06672</v>
+        <v>0.06671999999999999</v>
       </c>
       <c r="D5">
         <v>-0.3444210275095541</v>
@@ -3055,10 +3055,10 @@
         <v>-0.2923862644856116</v>
       </c>
       <c r="F5">
-        <v>0.009794176620719897</v>
+        <v>0.009794176620719899</v>
       </c>
       <c r="G5">
-        <v>-0.00081686409306659</v>
+        <v>-0.0008168640930665906</v>
       </c>
       <c r="H5">
         <v>0.0141011421215245</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008490000000000003</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3081,13 +3081,13 @@
         <v>-0.1570119258162544</v>
       </c>
       <c r="F6">
-        <v>0.0004804249233693543</v>
+        <v>0.0004804249233693544</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001333031250180001</v>
+        <v>0.00133303125018</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3104,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.01965528767011642</v>
+        <v>-0.01965528767011646</v>
       </c>
       <c r="F7">
-        <v>-0.001248696250557878</v>
+        <v>-0.001248696250557877</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0003038707473799999</v>
+        <v>0.0003038707473800004</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3136,7 +3136,7 @@
         <v>0.002370601021182181</v>
       </c>
       <c r="G8">
-        <v>0.0006084907977876911</v>
+        <v>0.0006084907977876912</v>
       </c>
       <c r="H8">
         <v>0.004037613113888255</v>
@@ -3150,16 +3150,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04808</v>
+        <v>0.04807999999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.260654433610857</v>
+        <v>-0.2606544336108569</v>
       </c>
       <c r="F9">
-        <v>0.007703842059287288</v>
+        <v>0.007703842059287287</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>-0.1655586962018779</v>
       </c>
       <c r="F10">
-        <v>-0.003452972044572058</v>
+        <v>-0.00345297204457206</v>
       </c>
       <c r="G10">
         <v>-0.006088364195696864</v>
@@ -3202,22 +3202,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03930000000000001</v>
+        <v>0.0393</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.002063344310941475</v>
+        <v>0.002063344310941478</v>
       </c>
       <c r="F11">
-        <v>-0.004027783029024051</v>
+        <v>-0.004027783029024049</v>
       </c>
       <c r="G11">
         <v>-0</v>
       </c>
       <c r="H11">
-        <v>-8.108943141999999e-05</v>
+        <v>-8.108943142000008E-05</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04781</v>
+        <v>0.04780999999999999</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.04985624039866138</v>
+        <v>-0.04985624039866136</v>
       </c>
       <c r="F12">
-        <v>-0.002417681566424214</v>
+        <v>-0.002417681566424212</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0.001914880913326874</v>
       </c>
       <c r="G13">
-        <v>-6.314472291266285e-05</v>
+        <v>-6.314472291266287E-05</v>
       </c>
       <c r="H13">
-        <v>0.004568228321232758</v>
+        <v>0.004568228321232757</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3286,10 +3286,10 @@
         <v>0.258263712</v>
       </c>
       <c r="E14">
-        <v>-0.008187446495044822</v>
+        <v>-0.008187446495044833</v>
       </c>
       <c r="F14">
-        <v>0.002361766316452952</v>
+        <v>0.002361766316452951</v>
       </c>
       <c r="G14">
         <v>0.01246866735083301</v>
@@ -3306,7 +3306,7 @@
         <v>0.08509149085091491</v>
       </c>
       <c r="C15">
-        <v>0.03272000000000001</v>
+        <v>0.03271999999999999</v>
       </c>
       <c r="D15">
         <v>0.07318572700000001</v>
@@ -3315,7 +3315,7 @@
         <v>-0.1434707250155868</v>
       </c>
       <c r="F15">
-        <v>-0.002254380657228061</v>
+        <v>-0.002254380657228066</v>
       </c>
       <c r="G15">
         <v>0.01843562050447599</v>
@@ -3332,22 +3332,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007910000000000002</v>
+        <v>0.00791</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-0.07081249415423514</v>
+        <v>-0.07081249415423516</v>
       </c>
       <c r="F16">
-        <v>-0.0002342331294346066</v>
+        <v>-0.0002342331294346061</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0005601268287600002</v>
+        <v>0.0005601268287600001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-0.1053272519180952</v>
+        <v>-0.1053272519180953</v>
       </c>
       <c r="F17">
-        <v>5.147602364273485e-05</v>
+        <v>5.147602364273556E-05</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3384,22 +3384,22 @@
         <v>0.0020997900209979</v>
       </c>
       <c r="C18">
-        <v>0.03306000000000001</v>
+        <v>0.03305999999999999</v>
       </c>
       <c r="D18">
         <v>0.1522443704285714</v>
       </c>
       <c r="E18">
-        <v>0.009417544568965514</v>
+        <v>0.009417544568965515</v>
       </c>
       <c r="F18">
-        <v>-0.003400741231250298</v>
+        <v>-0.003400741231250295</v>
       </c>
       <c r="G18">
-        <v>0.0002999063436708054</v>
+        <v>0.0002999063436708053</v>
       </c>
       <c r="H18">
-        <v>8.337186329022224e-06</v>
+        <v>8.337186329022224E-06</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3419,7 +3419,7 @@
         <v>0.009662638171220405</v>
       </c>
       <c r="F19">
-        <v>-0.001813139669828568</v>
+        <v>-0.001813139669828567</v>
       </c>
       <c r="G19">
         <v>-0</v>
@@ -3436,7 +3436,7 @@
         <v>0.3058694130586941</v>
       </c>
       <c r="C20">
-        <v>0.03930000000000002</v>
+        <v>0.03930000000000001</v>
       </c>
       <c r="D20">
         <v>-0.1656472878211834</v>
@@ -3445,7 +3445,7 @@
         <v>-0.3137276449735368</v>
       </c>
       <c r="F20">
-        <v>-0.0568600212588511</v>
+        <v>-0.05686002125885112</v>
       </c>
       <c r="G20">
         <v>0.04529325192771214</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.1234694173303965</v>
+        <v>-0.1234694173303964</v>
       </c>
       <c r="F21">
-        <v>0.0004708020739467496</v>
+        <v>0.0004708020739467497</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.003060000000000001</v>
+        <v>0.00306</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3523,13 +3523,13 @@
         <v>-0.08984490620261437</v>
       </c>
       <c r="F23">
-        <v>-3.237439385634591e-05</v>
+        <v>-3.237439385634578E-05</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0002749254129800001</v>
+        <v>0.00027492541298</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3549,13 +3549,13 @@
         <v>-0.1129641487076503</v>
       </c>
       <c r="F24">
-        <v>1.005344189786046e-05</v>
+        <v>1.005344189786044E-05</v>
       </c>
       <c r="G24">
         <v>-0.0005932049699191279</v>
       </c>
       <c r="H24">
-        <v>-0.0005026359834595191</v>
+        <v>-0.0005026359834595195</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3575,7 +3575,7 @@
         <v>-0.4264995896396397</v>
       </c>
       <c r="F25">
-        <v>-0.007753211418621966</v>
+        <v>-0.007753211418621967</v>
       </c>
       <c r="G25">
         <v>0.006326558932737359</v>
@@ -3592,22 +3592,22 @@
         <v>0.1573842615738426</v>
       </c>
       <c r="C26">
-        <v>0.02124000000000001</v>
+        <v>0.02124</v>
       </c>
       <c r="D26">
-        <v>0.3055454022039389</v>
+        <v>0.3055454022039391</v>
       </c>
       <c r="E26">
-        <v>0.04751023908945384</v>
+        <v>0.04751023908945388</v>
       </c>
       <c r="F26">
         <v>0.02014050304663132</v>
       </c>
       <c r="G26">
-        <v>0.04061067360685927</v>
+        <v>0.04061067360685928</v>
       </c>
       <c r="H26">
-        <v>0.04707892002488968</v>
+        <v>0.0470789200248897</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3627,7 +3627,7 @@
         <v>-0.1117532613213389</v>
       </c>
       <c r="F27">
-        <v>0.0001353754297526363</v>
+        <v>0.0001353754297526368</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>9.999000099990002e-05</v>
+        <v>9.999000099990002E-05</v>
       </c>
       <c r="C28">
         <v>0.18481</v>
@@ -3650,13 +3650,13 @@
         <v>0.020288248</v>
       </c>
       <c r="E28">
-        <v>0.01624338496634381</v>
+        <v>0.01624338496634382</v>
       </c>
       <c r="F28">
-        <v>-0.02154977671243733</v>
+        <v>-0.02154977671243732</v>
       </c>
       <c r="G28">
-        <v>4.044458587797408e-07</v>
+        <v>4.044458587797402E-07</v>
       </c>
       <c r="H28">
         <v>-0.002999911353692195</v>
@@ -3679,7 +3679,7 @@
         <v>-0.04665811275592065</v>
       </c>
       <c r="F29">
-        <v>-0.008672562374137511</v>
+        <v>-0.008672562374137504</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0.0007999200079992001</v>
       </c>
       <c r="C30">
-        <v>0.07578000000000001</v>
+        <v>0.07578</v>
       </c>
       <c r="D30">
         <v>-0.422070297</v>
@@ -3705,13 +3705,13 @@
         <v>-0.2097950915678279</v>
       </c>
       <c r="F30">
-        <v>0.008200595199281079</v>
+        <v>0.008200595199281078</v>
       </c>
       <c r="G30">
         <v>-0.000169803184027335</v>
       </c>
       <c r="H30">
-        <v>0.01556064956365754</v>
+        <v>0.01556064956365753</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3725,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.01337923035439805</v>
+        <v>0.01337923035439803</v>
       </c>
       <c r="G31">
-        <v>0.07460525207813631</v>
+        <v>0.07460525207813633</v>
       </c>
       <c r="H31">
         <v>0.08798448243253434</v>
@@ -3781,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03169031690316903</v>
+        <v>0.03169031690316904</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3339815072391922</v>
+        <v>0.3339815072391921</v>
       </c>
       <c r="F2">
-        <v>0.0006086239509243396</v>
+        <v>0.0006086239509243415</v>
       </c>
       <c r="G2">
         <v>-0</v>
@@ -3816,13 +3816,13 @@
         <v>0.1117360142850656</v>
       </c>
       <c r="F3">
-        <v>0.00478560376551919</v>
+        <v>0.004785603765519191</v>
       </c>
       <c r="G3">
         <v>-0</v>
       </c>
       <c r="H3">
-        <v>-0.002214629949429495</v>
+        <v>-0.002214629949429494</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3830,22 +3830,22 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.3995399539953995</v>
+        <v>0.3995399539953996</v>
       </c>
       <c r="C4">
         <v>0.01964019640196402</v>
       </c>
       <c r="D4">
-        <v>0.9466220115979977</v>
+        <v>0.9466220115979976</v>
       </c>
       <c r="E4">
-        <v>0.6664495342861506</v>
+        <v>0.6664495342861508</v>
       </c>
       <c r="F4">
-        <v>0.1190084111988701</v>
+        <v>0.1190084111988702</v>
       </c>
       <c r="G4">
-        <v>0.1119400986959525</v>
+        <v>0.1119400986959524</v>
       </c>
       <c r="H4">
         <v>0.3651241152195191</v>
@@ -3856,10 +3856,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.0018001800180018</v>
+        <v>0.001800180018001801</v>
       </c>
       <c r="C5">
-        <v>0.06231062310623106</v>
+        <v>0.06231062310623105</v>
       </c>
       <c r="D5">
         <v>0.2111109105555556</v>
@@ -3868,10 +3868,10 @@
         <v>0.3209212646353716</v>
       </c>
       <c r="F5">
-        <v>0.001952405922066473</v>
+        <v>0.001952405922066469</v>
       </c>
       <c r="G5">
-        <v>-0.0001976784051841872</v>
+        <v>-0.0001976784051841873</v>
       </c>
       <c r="H5">
         <v>-0.0196167663247054</v>
@@ -3911,16 +3911,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01389013890138901</v>
+        <v>0.01389013890138902</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1983588393729302</v>
+        <v>0.1983588393729301</v>
       </c>
       <c r="F7">
-        <v>0.00215058281564523</v>
+        <v>0.002150582815645232</v>
       </c>
       <c r="G7">
         <v>-0</v>
@@ -3934,10 +3934,10 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0009000900090009001</v>
+        <v>0.0009000900090009003</v>
       </c>
       <c r="C8">
-        <v>0.01334013340133401</v>
+        <v>0.01334013340133402</v>
       </c>
       <c r="D8">
         <v>0.117266851</v>
@@ -3946,13 +3946,13 @@
         <v>0.43041454738006</v>
       </c>
       <c r="F8">
-        <v>-0.0009607156895744807</v>
+        <v>-0.0009607156895744816</v>
       </c>
       <c r="G8">
-        <v>-0.0002818611128533393</v>
+        <v>-0.0002818611128533394</v>
       </c>
       <c r="H8">
-        <v>-0.005636236758952702</v>
+        <v>-0.005636236758952703</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4659604700601551</v>
+        <v>0.465960470060155</v>
       </c>
       <c r="F9">
-        <v>-0.005530472777342072</v>
+        <v>-0.005530472777342068</v>
       </c>
       <c r="G9">
         <v>-0</v>
@@ -3998,13 +3998,13 @@
         <v>0.3971183164859375</v>
       </c>
       <c r="F10">
-        <v>-0.0005491474183117209</v>
+        <v>-0.0005491474183117216</v>
       </c>
       <c r="G10">
         <v>-0.0001268177487206533</v>
       </c>
       <c r="H10">
-        <v>-0.00509083562170673</v>
+        <v>-0.005090835621706731</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03034030340303403</v>
+        <v>0.03034030340303404</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0.02635345057251154</v>
       </c>
       <c r="F11">
-        <v>0.009916225029934484</v>
+        <v>0.009916225029934488</v>
       </c>
       <c r="G11">
         <v>-0</v>
       </c>
       <c r="H11">
-        <v>-0.000799571686086861</v>
+        <v>-0.0007995716860868609</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4050,7 +4050,7 @@
         <v>0.2340765406024831</v>
       </c>
       <c r="F12">
-        <v>0.005468409789094176</v>
+        <v>0.005468409789094174</v>
       </c>
       <c r="G12">
         <v>-0</v>
@@ -4070,7 +4070,7 @@
         <v>0.02273022730227302</v>
       </c>
       <c r="D13">
-        <v>0.9390681000000001</v>
+        <v>0.9390681</v>
       </c>
       <c r="E13">
         <v>0.1682145040536736</v>
@@ -4079,10 +4079,10 @@
         <v>0.004185964778106337</v>
       </c>
       <c r="G13">
-        <v>7.709306890152281e-05</v>
+        <v>7.709306890152281E-05</v>
       </c>
       <c r="H13">
-        <v>-0.003729637711058965</v>
+        <v>-0.003729637711058966</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4090,7 +4090,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.008200820082008202</v>
+        <v>0.008200820082008203</v>
       </c>
       <c r="C14">
         <v>0.01990019900199002</v>
@@ -4102,10 +4102,10 @@
         <v>0.2868672366492462</v>
       </c>
       <c r="F14">
-        <v>0.0007758984904252413</v>
+        <v>0.0007758984904252412</v>
       </c>
       <c r="G14">
-        <v>0.002335842300406221</v>
+        <v>0.002335842300406222</v>
       </c>
       <c r="H14">
         <v>-0.001020326200881405</v>
@@ -4131,10 +4131,10 @@
         <v>0.005506478236879591</v>
       </c>
       <c r="G15">
-        <v>-2.142417462160529e-05</v>
+        <v>-2.142417462160529E-05</v>
       </c>
       <c r="H15">
-        <v>-0.003856828821293397</v>
+        <v>-0.003856828821293398</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4151,16 +4151,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4181992818800959</v>
+        <v>0.418199281880096</v>
       </c>
       <c r="F16">
-        <v>-0.000542208958540715</v>
+        <v>-0.000542208958540716</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.00348781688904889</v>
+        <v>-0.003487816889048891</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4194,10 +4194,10 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0002000200020002</v>
+        <v>0.0002000200020002001</v>
       </c>
       <c r="C18">
-        <v>0.02388023880238802</v>
+        <v>0.02388023880238803</v>
       </c>
       <c r="D18">
         <v>0.3876992535</v>
@@ -4206,10 +4206,10 @@
         <v>0.03873520808123952</v>
       </c>
       <c r="F18">
-        <v>0.007446284095701606</v>
+        <v>0.007446284095701607</v>
       </c>
       <c r="G18">
-        <v>6.979978906265837e-05</v>
+        <v>6.979978906265837E-05</v>
       </c>
       <c r="H18">
         <v>-0.0008474584135796441</v>
@@ -4220,7 +4220,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007700770077007701</v>
+        <v>0.007700770077007702</v>
       </c>
       <c r="C19">
         <v>0.01778017780177802</v>
@@ -4246,25 +4246,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.2781278127812782</v>
+        <v>0.2781278127812781</v>
       </c>
       <c r="C20">
         <v>0.04033040330403304</v>
       </c>
       <c r="D20">
-        <v>0.4564255934893923</v>
+        <v>0.4564255934893924</v>
       </c>
       <c r="E20">
         <v>0.277578640852963</v>
       </c>
       <c r="F20">
-        <v>-0.01797944041697489</v>
+        <v>-0.01797944041697488</v>
       </c>
       <c r="G20">
-        <v>0.04974231175936692</v>
+        <v>0.04974231175936696</v>
       </c>
       <c r="H20">
-        <v>0.1157497934804161</v>
+        <v>0.1157497934804162</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1082906784219585</v>
+        <v>0.1082906784219584</v>
       </c>
       <c r="F21">
-        <v>0.00412654205033262</v>
+        <v>0.004126542050332621</v>
       </c>
       <c r="G21">
         <v>-0</v>
@@ -4327,22 +4327,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.001760017600176002</v>
+        <v>0.001760017600176001</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1437919333181818</v>
+        <v>0.1437919333181819</v>
       </c>
       <c r="F23">
-        <v>0.0003685387694377197</v>
+        <v>0.0003685387694377194</v>
       </c>
       <c r="G23">
         <v>-0</v>
       </c>
       <c r="H23">
-        <v>-0.000253076333403334</v>
+        <v>-0.0002530763334033339</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4356,7 +4356,7 @@
         <v>0.02257022570225702</v>
       </c>
       <c r="D24">
-        <v>0.7689667304201737</v>
+        <v>0.7689667304201738</v>
       </c>
       <c r="E24">
         <v>0.4687862628741692</v>
@@ -4365,10 +4365,10 @@
         <v>0.01469785574683676</v>
       </c>
       <c r="G24">
-        <v>0.04494151014265113</v>
+        <v>0.04494151014265116</v>
       </c>
       <c r="H24">
-        <v>0.1045452203679251</v>
+        <v>0.1045452203679252</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4388,13 +4388,13 @@
         <v>0.359072895</v>
       </c>
       <c r="F25">
-        <v>-6.41583420145135e-06</v>
+        <v>-6.415834201451351E-06</v>
       </c>
       <c r="G25">
         <v>-0</v>
       </c>
       <c r="H25">
-        <v>-0.0003913933694836948</v>
+        <v>-0.0003913933694836949</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4408,19 +4408,19 @@
         <v>0.02046020460204602</v>
       </c>
       <c r="D26">
-        <v>0.4941209422991396</v>
+        <v>0.4941209422991397</v>
       </c>
       <c r="E26">
-        <v>0.300242450334311</v>
+        <v>0.3002424503343109</v>
       </c>
       <c r="F26">
-        <v>-0.006917447887975876</v>
+        <v>-0.006917447887975883</v>
       </c>
       <c r="G26">
-        <v>0.0292979699328789</v>
+        <v>0.02929796993287892</v>
       </c>
       <c r="H26">
-        <v>0.06852611933146992</v>
+        <v>0.06852611933146993</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4437,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.09173822373511906</v>
+        <v>0.09173822373511904</v>
       </c>
       <c r="F27">
-        <v>0.002635428682806972</v>
+        <v>0.002635428682806973</v>
       </c>
       <c r="G27">
         <v>-0</v>
       </c>
       <c r="H27">
-        <v>-0.0009247305425554256</v>
+        <v>-0.0009247305425554255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4463,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.2192055672857816</v>
+        <v>0.2192055672857815</v>
       </c>
       <c r="F28">
-        <v>0.02277570896988276</v>
+        <v>0.02277570896988277</v>
       </c>
       <c r="G28">
         <v>-0</v>
       </c>
       <c r="H28">
-        <v>-0.03726312701418016</v>
+        <v>-0.03726312701418014</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4489,13 +4489,13 @@
         <v>0.4849759730909091</v>
       </c>
       <c r="E29">
-        <v>0.4901297068274341</v>
+        <v>0.4901297068274342</v>
       </c>
       <c r="F29">
-        <v>-0.02453763622085408</v>
+        <v>-0.0245376362208541</v>
       </c>
       <c r="G29">
-        <v>-1.133934815517052e-05</v>
+        <v>-1.133934815517077E-05</v>
       </c>
       <c r="H29">
         <v>-0.08783356138432769</v>
@@ -4509,22 +4509,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.09842098420984209</v>
+        <v>0.09842098420984211</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.7569694182089008</v>
+        <v>0.7569694182089006</v>
       </c>
       <c r="F30">
-        <v>-0.03974067605368039</v>
+        <v>-0.03974067605368038</v>
       </c>
       <c r="G30">
         <v>-0</v>
       </c>
       <c r="H30">
-        <v>-0.07450167515687159</v>
+        <v>-0.07450167515687157</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4538,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.1129400216590481</v>
+        <v>0.1129400216590482</v>
       </c>
       <c r="G31">
-        <v>0.2362780832386712</v>
+        <v>0.2362780832386711</v>
       </c>
       <c r="H31">
         <v>0.3492181048977194</v>

--- a/brinson_result_test/161810.OF_res.xlsx
+++ b/brinson_result_test/161810.OF_res.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-30" sheetId="1" r:id="rId1"/>
-    <sheet name="2017-12-29" sheetId="2" r:id="rId2"/>
-    <sheet name="2018-06-29" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-06-29" sheetId="1" r:id="rId1"/>
+    <sheet name="2019-06-28" sheetId="2" r:id="rId2"/>
+    <sheet name="2017-06-30" sheetId="3" r:id="rId3"/>
     <sheet name="2018-12-28" sheetId="4" r:id="rId4"/>
-    <sheet name="2019-06-28" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-12-29" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03217032170321703</v>
+        <v>0.03338966610333897</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1408332351824681</v>
+        <v>-0.09690783383018869</v>
       </c>
       <c r="F2">
-        <v>0.001042856684956497</v>
+        <v>0.0006625787148779707</v>
       </c>
       <c r="G2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.004530650482324823</v>
+        <v>0.003235720214387857</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -555,22 +555,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03220032200322003</v>
+        <v>0.02385976140238598</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.08226676148944098</v>
+        <v>-0.08414098868734282</v>
       </c>
       <c r="F3">
-        <v>0.008227720928383166</v>
+        <v>0.0001688550679304087</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002649016210122101</v>
+        <v>0.002007583914240857</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -578,25 +578,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08878878878878878</v>
+        <v>0.2033219931959176</v>
       </c>
       <c r="C4">
-        <v>0.006230062300623006</v>
+        <v>0.004769952300476995</v>
       </c>
       <c r="D4">
-        <v>-0.1881255230045096</v>
+        <v>-0.03687220603051181</v>
       </c>
       <c r="E4">
-        <v>-0.0780077400128411</v>
+        <v>-0.2511282206666666</v>
       </c>
       <c r="F4">
-        <v>-0.02074351629545603</v>
+        <v>-0.03456080464919911</v>
       </c>
       <c r="G4">
-        <v>-0.009777224575936929</v>
+        <v>0.04356295995003669</v>
       </c>
       <c r="H4">
-        <v>-0.01621744424761702</v>
+        <v>-0.006299060789770532</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -604,25 +604,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.113013013013013</v>
+        <v>0.127976786071643</v>
       </c>
       <c r="C5">
-        <v>0.05089050890508905</v>
+        <v>0.07234927650723494</v>
       </c>
       <c r="D5">
-        <v>0.081680140469442</v>
+        <v>-0.01712960041829555</v>
       </c>
       <c r="E5">
-        <v>0.206915402782865</v>
+        <v>0.2280984713002073</v>
       </c>
       <c r="F5">
-        <v>0.00209138118465077</v>
+        <v>0.01697542874230966</v>
       </c>
       <c r="G5">
-        <v>-0.01415321432951497</v>
+        <v>-0.03138350047308035</v>
       </c>
       <c r="H5">
-        <v>-0.001299111370143699</v>
+        <v>-0.01869495057920122</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -630,25 +630,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0006006006006006006</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01344013440134401</v>
+        <v>0.01005989940100599</v>
       </c>
       <c r="D6">
-        <v>-0.181038961</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07778024638095238</v>
+        <v>-0.06531687001988069</v>
       </c>
       <c r="F6">
-        <v>0.00122578670236912</v>
+        <v>-0.0001181750274760897</v>
       </c>
       <c r="G6">
-        <v>-0.0001554469713999714</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.00115410907383836</v>
+        <v>0.0006570811415885839</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01768017680176802</v>
+        <v>0.01159988400115999</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.1178597473421946</v>
+        <v>-0.2116247230120689</v>
       </c>
       <c r="F7">
-        <v>0.005146871214885549</v>
+        <v>0.001560888683931309</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.002083781170821708</v>
+        <v>0.002454822238717613</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -682,25 +682,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05835835835835836</v>
+        <v>0.09065439263558134</v>
       </c>
       <c r="C8">
-        <v>0.02310023100231003</v>
+        <v>0.02130978690213097</v>
       </c>
       <c r="D8">
-        <v>0.04978148575814751</v>
+        <v>-0.176281080714128</v>
       </c>
       <c r="E8">
-        <v>0.1628564961904762</v>
+        <v>-0.01623198824683243</v>
       </c>
       <c r="F8">
-        <v>-0.0003664543106999313</v>
+        <v>0.004218372433654875</v>
       </c>
       <c r="G8">
-        <v>-0.006598871980184946</v>
+        <v>-0.01450915326949868</v>
       </c>
       <c r="H8">
-        <v>-0.0008568568967413375</v>
+        <v>-0.01563475409474527</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -708,25 +708,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.000100060036021613</v>
       </c>
       <c r="C9">
-        <v>0.04768047680476805</v>
+        <v>0.05616943830561696</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.073926091</v>
       </c>
       <c r="E9">
-        <v>0.5646672683684982</v>
+        <v>0.000313003442763044</v>
       </c>
       <c r="F9">
-        <v>-0.01866296356804574</v>
+        <v>-0.004338480930344346</v>
       </c>
       <c r="G9">
-        <v>-0</v>
+        <v>7.36572819263928E-06</v>
       </c>
       <c r="H9">
-        <v>-0.02692360459185592</v>
+        <v>-1.018418023932747E-05</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -734,25 +734,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01781781781781782</v>
+        <v>0.08845307184310587</v>
       </c>
       <c r="C10">
-        <v>0.004370043700437006</v>
+        <v>0.01218987810121899</v>
       </c>
       <c r="D10">
-        <v>0.173674589</v>
+        <v>-0.1916698985429864</v>
       </c>
       <c r="E10">
-        <v>0.372757758</v>
+        <v>0.01501498052994257</v>
       </c>
       <c r="F10">
-        <v>0.002682935710609145</v>
+        <v>0.007022237750506388</v>
       </c>
       <c r="G10">
-        <v>-0.003547227635835836</v>
+        <v>-0.01828191245752144</v>
       </c>
       <c r="H10">
-        <v>0.001465534494249464</v>
+        <v>-0.01713682208833577</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -760,25 +760,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.1264264264264264</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04562045620456205</v>
+        <v>0.03332966670333297</v>
       </c>
       <c r="D11">
-        <v>0.1992262039049882</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06904683561047785</v>
+        <v>-0.1702583589783978</v>
       </c>
       <c r="F11">
-        <v>-0.008420235116562671</v>
+        <v>0.003106136652945427</v>
       </c>
       <c r="G11">
-        <v>0.01645811232792458</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02203750887017881</v>
+        <v>0.005674654358206418</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05636056360563606</v>
+        <v>0.04714952850471496</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1686297052212562</v>
+        <v>-0.126927441450771</v>
       </c>
       <c r="F12">
-        <v>0.0002604005470278437</v>
+        <v>0.002351037371457266</v>
       </c>
       <c r="G12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.00950406522692227</v>
+        <v>0.005984569018713664</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -812,25 +812,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.114014014014014</v>
+        <v>0.3341004602761657</v>
       </c>
       <c r="C13">
-        <v>0.02399023990239902</v>
+        <v>0.02951970480295197</v>
       </c>
       <c r="D13">
-        <v>0.0280216647427568</v>
+        <v>-0.0399294402030548</v>
       </c>
       <c r="E13">
-        <v>0.08603578244018339</v>
+        <v>-0.1695934072835366</v>
       </c>
       <c r="F13">
-        <v>-0.007851350032846673</v>
+        <v>-0.02818267430255441</v>
       </c>
       <c r="G13">
-        <v>-0.006614422428165054</v>
+        <v>0.04332079108282256</v>
       </c>
       <c r="H13">
-        <v>0.001130843415746067</v>
+        <v>-0.008334097030873438</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -838,25 +838,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.002102102102102102</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02547025470254703</v>
+        <v>0.01737982620173798</v>
       </c>
       <c r="D14">
-        <v>0.7895179627142858</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05230462518138987</v>
+        <v>-0.1103793954125432</v>
       </c>
       <c r="F14">
-        <v>0.002826269199440872</v>
+        <v>0.000579015641093091</v>
       </c>
       <c r="G14">
-        <v>0.001549697706525607</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.000327435243577814</v>
+        <v>0.001918374708522915</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -864,25 +864,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002402402402402402</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03569035690356903</v>
+        <v>0.03601963980360197</v>
       </c>
       <c r="D15">
-        <v>1.728464183</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.26967472591174</v>
+        <v>-0.0955367961757357</v>
       </c>
       <c r="F15">
-        <v>-0.003209782993835093</v>
+        <v>0.0006653831721537016</v>
       </c>
       <c r="G15">
-        <v>0.003504599296308132</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0.005472320709956452</v>
+        <v>0.003441200986240138</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -893,22 +893,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004290042900429004</v>
+        <v>0.007479925200747993</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.273255113027972</v>
+        <v>0.4468882648770053</v>
       </c>
       <c r="F16">
-        <v>-0.0004290263675478505</v>
+        <v>-0.003919123810734259</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.001172276157651576</v>
+        <v>-0.003342690794372057</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -919,22 +919,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009760097600976011</v>
+        <v>0.01144988550114499</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.251634772262295</v>
+        <v>-0.1400031726628821</v>
       </c>
       <c r="F17">
-        <v>-0.0007650433516685628</v>
+        <v>0.0007206462276229653</v>
       </c>
       <c r="G17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-0.00245597993707937</v>
+        <v>0.001603020296787032</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -942,25 +942,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0002001200720432259</v>
       </c>
       <c r="C18">
-        <v>0.03225032250322503</v>
+        <v>0.03029969700302997</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.292112779</v>
       </c>
       <c r="E18">
-        <v>0.1632063515807752</v>
+        <v>-0.06946762854521453</v>
       </c>
       <c r="F18">
-        <v>0.0003239098301725787</v>
+        <v>-0.0002286478112262108</v>
       </c>
       <c r="G18">
-        <v>-0</v>
+        <v>7.235949720736732E-05</v>
       </c>
       <c r="H18">
-        <v>-0.00526345747305473</v>
+        <v>0.002163305726817263</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.09229229229229227</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01321013210132101</v>
+        <v>0.01536984630153699</v>
       </c>
       <c r="D19">
-        <v>0.1156022915043384</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04029329596593489</v>
+        <v>-0.2325099096467144</v>
       </c>
       <c r="F19">
-        <v>-0.0105145007419813</v>
+        <v>0.002389179614762399</v>
       </c>
       <c r="G19">
-        <v>0.006950439828469272</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.01013692071466955</v>
+        <v>0.003573641574854252</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -994,25 +994,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.08878878878878878</v>
+        <v>0.1117670602361417</v>
       </c>
       <c r="C20">
-        <v>0.04510045100451004</v>
+        <v>0.04827951720482797</v>
       </c>
       <c r="D20">
-        <v>0.2200444458184893</v>
+        <v>0.02748590383348256</v>
       </c>
       <c r="E20">
-        <v>0.589264033878714</v>
+        <v>-0.1291780875300331</v>
       </c>
       <c r="F20">
-        <v>0.01817496308520198</v>
+        <v>-0.003308594859465704</v>
       </c>
       <c r="G20">
-        <v>-0.03278256002096289</v>
+        <v>0.01750987375956044</v>
       </c>
       <c r="H20">
-        <v>-0.007038593864742964</v>
+        <v>0.00930867436879465</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1020,25 +1020,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.001501501501501501</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01412014120141201</v>
+        <v>0.01580984190158099</v>
       </c>
       <c r="D21">
-        <v>-0.155364018</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.006043006896600582</v>
+        <v>0.01946296918785578</v>
       </c>
       <c r="F21">
-        <v>0.002109924382437874</v>
+        <v>-0.001526076250379089</v>
       </c>
       <c r="G21">
-        <v>-0.000242352890235136</v>
+        <v>-0</v>
       </c>
       <c r="H21">
-        <v>-0.0003186074169674131</v>
+        <v>-0.000307706465795342</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1049,22 +1049,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.003200032000320003</v>
+        <v>0.002799972000279997</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.017382495471875</v>
+        <v>0.1804363723428571</v>
       </c>
       <c r="F22">
-        <v>0.0004987808960841914</v>
+        <v>-0.0007209938553405142</v>
       </c>
       <c r="G22">
         <v>-0</v>
       </c>
       <c r="H22">
-        <v>-5.562454175541755E-05</v>
+        <v>-0.0005052167903920961</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1075,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006370063700637005</v>
+        <v>0.003069969300306997</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1254370819795919</v>
+        <v>-0.3881693468273616</v>
       </c>
       <c r="F23">
-        <v>0.000304571122067445</v>
+        <v>0.0009550838390117751</v>
       </c>
       <c r="G23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-0.0007990422026320265</v>
+        <v>0.001191667978080219</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01933019330193302</v>
+        <v>0.01822981770182298</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-0.06311869636937403</v>
+        <v>0.02718201903071859</v>
       </c>
       <c r="F24">
-        <v>0.004569051949735906</v>
+        <v>-0.001900386070986648</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H24">
-        <v>0.001220096601786018</v>
+        <v>-0.0004955232516974829</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1124,25 +1124,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.003003003003003003</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0003200032000320004</v>
+        <v>0.003459965400345997</v>
       </c>
       <c r="D25">
-        <v>0.310176298</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.083815029</v>
+        <v>-0.0287731464566474</v>
       </c>
       <c r="F25">
-        <v>-0.0002399539205172782</v>
+        <v>-0.0001670847104871715</v>
       </c>
       <c r="G25">
-        <v>0.0006797635705705706</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0009046392768635794</v>
+        <v>9.955409119908802E-05</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1150,25 +1150,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.006103662197318391</v>
       </c>
       <c r="C26">
-        <v>0.02550025500255003</v>
+        <v>0.01858981410185898</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-0.486454784</v>
       </c>
       <c r="E26">
-        <v>0.1539101228610393</v>
+        <v>-0.3074669339107046</v>
       </c>
       <c r="F26">
-        <v>0.0004931709523540778</v>
+        <v>0.002876845930748839</v>
       </c>
       <c r="G26">
-        <v>-0</v>
+        <v>-0.001092481374369323</v>
       </c>
       <c r="H26">
-        <v>-0.003924747380430306</v>
+        <v>0.002746597468063077</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1179,22 +1179,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.01136011360113601</v>
+        <v>0.01120988790112099</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.1175327676628521</v>
+        <v>-0.1425820823835861</v>
       </c>
       <c r="F27">
-        <v>0.0006329537118246867</v>
+        <v>0.0007344502680599094</v>
       </c>
       <c r="G27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>-0.001335185592505925</v>
+        <v>0.001598329160228398</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1202,25 +1202,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0001001001001001001</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.1720817208172082</v>
+        <v>0.1668183318166819</v>
       </c>
       <c r="D28">
-        <v>-0.018720749</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.1012866366311018</v>
+        <v>-0.1155223599559405</v>
       </c>
       <c r="F28">
-        <v>0.01237637015600348</v>
+        <v>0.006415558098699422</v>
       </c>
       <c r="G28">
-        <v>-1.20127513144246E-05</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-0.01743145267611612</v>
+        <v>0.01927124737537625</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1228,25 +1228,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.1794794794794795</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.1719817198171982</v>
+        <v>0.1528184718152818</v>
       </c>
       <c r="D29">
-        <v>0.04962613912493029</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.1332537763412025</v>
+        <v>-0.1841628263649392</v>
       </c>
       <c r="F29">
-        <v>-0.0002998818235260069</v>
+        <v>0.01636667773833837</v>
       </c>
       <c r="G29">
-        <v>-0.01500944479767528</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-0.01401034000857756</v>
+        <v>0.0281434816902731</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1254,25 +1254,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1113113113113113</v>
+        <v>0.03732239343606164</v>
       </c>
       <c r="C30">
-        <v>0.05623056230562306</v>
+        <v>0.08521914780852193</v>
       </c>
       <c r="D30">
-        <v>0.1449187744784172</v>
+        <v>0.33441911</v>
       </c>
       <c r="E30">
-        <v>0.4093781089379335</v>
+        <v>0.03571739605761558</v>
       </c>
       <c r="F30">
-        <v>0.01300611492984471</v>
+        <v>-0.005401863213386774</v>
       </c>
       <c r="G30">
-        <v>-0.02943731530720542</v>
+        <v>0.01114826288778361</v>
       </c>
       <c r="H30">
-        <v>-0.006888462440371796</v>
+        <v>0.009437515541988116</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1286,13 +1286,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.004491324665362749</v>
+        <v>-0.01660452954347655</v>
       </c>
       <c r="G31">
-        <v>-0.08918748095863269</v>
+        <v>0.0503545653311335</v>
       </c>
       <c r="H31">
-        <v>-0.08469615629326996</v>
+        <v>0.03375003578765695</v>
       </c>
     </row>
   </sheetData>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03341100233006991</v>
+        <v>0.03169031690316904</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.127252648536965</v>
+        <v>0.3339815072391921</v>
       </c>
       <c r="F2">
-        <v>0.001018997977338261</v>
+        <v>0.0006086239509243415</v>
       </c>
       <c r="G2">
         <v>-0</v>
       </c>
       <c r="H2">
-        <v>-0.004251638536776105</v>
+        <v>-0.01058397980420804</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1368,22 +1368,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02499074972249168</v>
+        <v>0.01982019820198202</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04472417987795122</v>
+        <v>0.1117360142850656</v>
       </c>
       <c r="F3">
-        <v>0.002824638052429864</v>
+        <v>0.004785603765519191</v>
       </c>
       <c r="G3">
         <v>-0</v>
       </c>
       <c r="H3">
-        <v>-0.001117690785873577</v>
+        <v>-0.002214629949429494</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1391,25 +1391,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0928092809280928</v>
+        <v>0.3995399539953995</v>
       </c>
       <c r="C4">
-        <v>0.004710141304239128</v>
+        <v>0.01964019640196402</v>
       </c>
       <c r="D4">
-        <v>-0.02082805359267241</v>
+        <v>0.9466220115979976</v>
       </c>
       <c r="E4">
-        <v>0.3072868837070064</v>
+        <v>0.6664495342861508</v>
       </c>
       <c r="F4">
-        <v>0.0131739365910709</v>
+        <v>0.1190084111988701</v>
       </c>
       <c r="G4">
-        <v>-0.03045211139254945</v>
+        <v>0.1119400986959524</v>
       </c>
       <c r="H4">
-        <v>-0.003380401320267002</v>
+        <v>0.365124115219519</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1417,25 +1417,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.0014001400140014</v>
+        <v>0.0018001800180018</v>
       </c>
       <c r="C5">
-        <v>0.05369161074832245</v>
+        <v>0.06231062310623105</v>
       </c>
       <c r="D5">
-        <v>0.05072624585714286</v>
+        <v>0.2111109105555556</v>
       </c>
       <c r="E5">
-        <v>0.1638702741233005</v>
+        <v>0.3209212646353716</v>
       </c>
       <c r="F5">
-        <v>-0.0003199584771562984</v>
+        <v>0.001952405922066469</v>
       </c>
       <c r="G5">
-        <v>-0.0001584174813207528</v>
+        <v>-0.0001976784051841873</v>
       </c>
       <c r="H5">
-        <v>-0.008727435124864491</v>
+        <v>-0.0196167663247054</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1446,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01088032640979229</v>
+        <v>0.007890078900789008</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1269521015891544</v>
+        <v>0.2305038758479087</v>
       </c>
       <c r="F6">
-        <v>0.0003351077619568093</v>
+        <v>0.0009679784834268226</v>
       </c>
       <c r="G6">
         <v>-0</v>
       </c>
       <c r="H6">
-        <v>-0.001381280303699111</v>
+        <v>-0.001818693767377674</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1472,22 +1472,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01444043321299639</v>
+        <v>0.01389013890138902</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.05976910255055402</v>
+        <v>0.1983588393729301</v>
       </c>
       <c r="F7">
-        <v>0.003141092070720931</v>
+        <v>0.002150582815645232</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0.0008630917335820076</v>
+        <v>-0.002755231831208312</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1495,25 +1495,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0259025902590259</v>
+        <v>0.0009000900090008999</v>
       </c>
       <c r="C8">
-        <v>0.0223406702201066</v>
+        <v>0.01334013340133402</v>
       </c>
       <c r="D8">
-        <v>0.1431274195366795</v>
+        <v>0.117266851</v>
       </c>
       <c r="E8">
-        <v>0.08972521673455684</v>
+        <v>0.43041454738006</v>
       </c>
       <c r="F8">
-        <v>-0.0002423042646960679</v>
+        <v>-0.0009607156895744816</v>
       </c>
       <c r="G8">
-        <v>0.001383255378112789</v>
+        <v>-0.0002818611128533393</v>
       </c>
       <c r="H8">
-        <v>0.001702849425595984</v>
+        <v>-0.005636236758952703</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1521,25 +1521,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0002000200020002</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05073152194565837</v>
+        <v>0.04904049040490405</v>
       </c>
       <c r="D9">
-        <v>0.08799791650000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.198318952668835</v>
+        <v>0.465960470060155</v>
       </c>
       <c r="F9">
-        <v>-0.002049933133632069</v>
+        <v>-0.005530472777342068</v>
       </c>
       <c r="G9">
-        <v>-2.206641387515452E-05</v>
+        <v>-0</v>
       </c>
       <c r="H9">
-        <v>-0.01004342095612464</v>
+        <v>-0.02285092996104961</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1547,25 +1547,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.04830483048304831</v>
+        <v>0.0003000300030003</v>
       </c>
       <c r="C10">
-        <v>0.005000150004500136</v>
+        <v>0.01280012800128001</v>
       </c>
       <c r="D10">
-        <v>0.290109034</v>
+        <v>-0.02556524</v>
       </c>
       <c r="E10">
-        <v>0.290365156</v>
+        <v>0.3971183164859375</v>
       </c>
       <c r="F10">
-        <v>0.00574279098914334</v>
+        <v>-0.0005491474183117216</v>
       </c>
       <c r="G10">
-        <v>-1.237192979298052E-05</v>
+        <v>-0.0001268177487206533</v>
       </c>
       <c r="H10">
-        <v>0.01256179837289082</v>
+        <v>-0.005090835621706731</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03747112413372401</v>
+        <v>0.03034030340303404</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.03563286298452096</v>
+        <v>0.02635345057251154</v>
       </c>
       <c r="F11">
-        <v>0.007246330345747607</v>
+        <v>0.009916225029934488</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11">
-        <v>0.001335203432132964</v>
+        <v>-0.0007995716860868609</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1602,22 +1602,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05031150934528036</v>
+        <v>0.04591045910459104</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1566460418246869</v>
+        <v>0.2340765406024831</v>
       </c>
       <c r="F12">
-        <v>5.561844393436903E-05</v>
+        <v>0.005468409789094174</v>
       </c>
       <c r="G12">
         <v>-0</v>
       </c>
       <c r="H12">
-        <v>-0.007881098797163914</v>
+        <v>-0.01074656144467445</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1625,25 +1625,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.5138513851385138</v>
+        <v>0.0001000100010001</v>
       </c>
       <c r="C13">
-        <v>0.03354100623018691</v>
+        <v>0.02273022730227302</v>
       </c>
       <c r="D13">
-        <v>0.3322144132296614</v>
+        <v>0.9390681</v>
       </c>
       <c r="E13">
-        <v>0.2946988356979726</v>
+        <v>0.1682145040536736</v>
       </c>
       <c r="F13">
-        <v>0.06577721548583486</v>
+        <v>0.004185964778106337</v>
       </c>
       <c r="G13">
-        <v>0.01927743147892961</v>
+        <v>7.709306890152278E-05</v>
       </c>
       <c r="H13">
-        <v>0.1608243409168656</v>
+        <v>-0.003729637711058966</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1651,25 +1651,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0003000300030003001</v>
+        <v>0.0082008200820082</v>
       </c>
       <c r="C14">
-        <v>0.0220706621198636</v>
+        <v>0.01990019900199002</v>
       </c>
       <c r="D14">
-        <v>0.1649205296666667</v>
+        <v>0.5716975678902438</v>
       </c>
       <c r="E14">
-        <v>0.1158965186311735</v>
+        <v>0.2868672366492462</v>
       </c>
       <c r="F14">
-        <v>0.0009112099099150153</v>
+        <v>0.0007758984904252415</v>
       </c>
       <c r="G14">
-        <v>1.470867417806575E-05</v>
+        <v>0.002335842300406221</v>
       </c>
       <c r="H14">
-        <v>-0.002508431796566407</v>
+        <v>-0.001020326200881406</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1677,25 +1677,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001000100010001</v>
       </c>
       <c r="C15">
-        <v>0.03534106023180696</v>
+        <v>0.02655026550265503</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-0.069215876</v>
       </c>
       <c r="E15">
-        <v>0.1202594440537635</v>
+        <v>0.1450044460414313</v>
       </c>
       <c r="F15">
-        <v>0.001325009832513376</v>
+        <v>0.005506478236879591</v>
       </c>
       <c r="G15">
-        <v>-0</v>
+        <v>-2.142417462160529E-05</v>
       </c>
       <c r="H15">
-        <v>-0.004250096255747673</v>
+        <v>-0.003856828821293398</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1706,22 +1706,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004760142804284129</v>
+        <v>0.008340083400834008</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3078220471932773</v>
+        <v>0.418199281880096</v>
       </c>
       <c r="F16">
-        <v>-0.0007143571242226236</v>
+        <v>-0.000542208958540716</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.001465276902947089</v>
+        <v>-0.003487816889048891</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01192035761072832</v>
+        <v>0.009890098900989011</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1118189550713087</v>
+        <v>0.1730059254327604</v>
       </c>
       <c r="F17">
-        <v>0.0005475326398238904</v>
+        <v>0.001782007336500382</v>
       </c>
       <c r="G17">
         <v>-0</v>
       </c>
       <c r="H17">
-        <v>-0.001332921932107963</v>
+        <v>-0.00171104571298713</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1755,25 +1755,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.005400540054005401</v>
+        <v>0.0002000200020002</v>
       </c>
       <c r="C18">
-        <v>0.03043091292738782</v>
+        <v>0.02388023880238803</v>
       </c>
       <c r="D18">
-        <v>0.3701443114074074</v>
+        <v>0.3876992535</v>
       </c>
       <c r="E18">
-        <v>-0.03522001545678607</v>
+        <v>0.03873520808123952</v>
       </c>
       <c r="F18">
-        <v>0.004830149570205907</v>
+        <v>0.007446284095701607</v>
       </c>
       <c r="G18">
-        <v>0.002189186283695015</v>
+        <v>6.979978906265835E-05</v>
       </c>
       <c r="H18">
-        <v>0.003070756403184662</v>
+        <v>-0.0008474584135796441</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1781,25 +1781,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.04160416041604161</v>
+        <v>0.007700770077007701</v>
       </c>
       <c r="C19">
-        <v>0.01763052891586748</v>
+        <v>0.01778017780177802</v>
       </c>
       <c r="D19">
-        <v>-0.08857839898076925</v>
+        <v>0.1368862631688312</v>
       </c>
       <c r="E19">
-        <v>0.3776797872819059</v>
+        <v>0.330038590291901</v>
       </c>
       <c r="F19">
-        <v>0.005272479156051575</v>
+        <v>0.00023332092347662</v>
       </c>
       <c r="G19">
-        <v>-0.01939828037656494</v>
+        <v>-0.001487421661013739</v>
       </c>
       <c r="H19">
-        <v>-0.01034392433120438</v>
+        <v>-0.004814015177474233</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1807,25 +1807,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.09810981098109813</v>
+        <v>0.2781278127812782</v>
       </c>
       <c r="C20">
-        <v>0.04934148024440733</v>
+        <v>0.04033040330403304</v>
       </c>
       <c r="D20">
-        <v>0.02299688522528032</v>
+        <v>0.4564255934893922</v>
       </c>
       <c r="E20">
-        <v>0.2155516662829348</v>
+        <v>0.277578640852963</v>
       </c>
       <c r="F20">
-        <v>0.002818816487333989</v>
+        <v>-0.01797944041697489</v>
       </c>
       <c r="G20">
-        <v>-0.01889151317307321</v>
+        <v>0.04974231175936691</v>
       </c>
       <c r="H20">
-        <v>-0.008379418220942248</v>
+        <v>0.1157497934804161</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1836,22 +1836,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01231036931107933</v>
+        <v>0.01685016850168502</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04978191737774169</v>
+        <v>0.1082906784219584</v>
       </c>
       <c r="F21">
-        <v>0.00132914572385169</v>
+        <v>0.004126542050332621</v>
       </c>
       <c r="G21">
         <v>-0</v>
       </c>
       <c r="H21">
-        <v>-0.0006128337879336383</v>
+        <v>-0.001824716178571785</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1862,22 +1862,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.002720081602448074</v>
+        <v>0.001320013200132001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.1318392107058823</v>
+        <v>0.116890836</v>
       </c>
       <c r="F22">
-        <v>0.0007877104279363256</v>
+        <v>0.0003119138806363253</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H22">
-        <v>0.0003586134115223456</v>
+        <v>-0.000154297446494465</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1885,25 +1885,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.04690469046904691</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.003780113403402101</v>
+        <v>0.001760017600176001</v>
       </c>
       <c r="D23">
-        <v>0.392318244</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.08370185025925928</v>
+        <v>0.1437919333181819</v>
       </c>
       <c r="F23">
-        <v>-0.01041257461783747</v>
+        <v>0.0003685387694377194</v>
       </c>
       <c r="G23">
-        <v>0.02232757517827709</v>
+        <v>-0</v>
       </c>
       <c r="H23">
-        <v>0.0187179682862346</v>
+        <v>-0.0002530763334033339</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1911,25 +1911,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.1497149714971497</v>
       </c>
       <c r="C24">
-        <v>0.01558046741402242</v>
+        <v>0.02257022570225702</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.7689667304201736</v>
       </c>
       <c r="E24">
-        <v>0.1349425418055199</v>
+        <v>0.4687862628741692</v>
       </c>
       <c r="F24">
-        <v>0.0003553745936520508</v>
+        <v>0.01469785574683676</v>
       </c>
       <c r="G24">
-        <v>-0</v>
+        <v>0.04494151014265112</v>
       </c>
       <c r="H24">
-        <v>-0.002102467875366261</v>
+        <v>0.1045452203679251</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1940,22 +1940,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.002370071102133064</v>
+        <v>0.001090010900109001</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.0841430854556962</v>
+        <v>0.359072895</v>
       </c>
       <c r="F25">
-        <v>0.0005733074220847455</v>
+        <v>-6.415834201451351E-06</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H25">
-        <v>0.0001994250952828585</v>
+        <v>-0.0003913933694836949</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1963,25 +1963,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.002700270027002701</v>
+        <v>0.1511151115111511</v>
       </c>
       <c r="C26">
-        <v>0.02515075452263568</v>
+        <v>0.02046020460204602</v>
       </c>
       <c r="D26">
-        <v>0.208924103</v>
+        <v>0.4941209422991396</v>
       </c>
       <c r="E26">
-        <v>0.1789227502894632</v>
+        <v>0.3002424503343109</v>
       </c>
       <c r="F26">
-        <v>-0.0004753043022282062</v>
+        <v>-0.006917447887975881</v>
       </c>
       <c r="G26">
-        <v>8.101175349379877E-05</v>
+        <v>0.0292979699328789</v>
       </c>
       <c r="H26">
-        <v>-0.003935890677795807</v>
+        <v>0.0685261193314699</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1989,25 +1989,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0578057805780578</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.01260037801134034</v>
+        <v>0.01008010080100801</v>
       </c>
       <c r="D27">
-        <v>0.2976730022698962</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.169332502647619</v>
+        <v>0.09173822373511904</v>
       </c>
       <c r="F27">
-        <v>0.0005235228314071631</v>
+        <v>0.002635428682806973</v>
       </c>
       <c r="G27">
-        <v>0.007418822760443667</v>
+        <v>-0</v>
       </c>
       <c r="H27">
-        <v>0.01507356671025904</v>
+        <v>-0.0009247305425554255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2015,25 +2015,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0004000400040004001</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.1684250527515825</v>
+        <v>0.1699916999169992</v>
       </c>
       <c r="D28">
-        <v>0.221946999</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.1004135725492816</v>
+        <v>0.2192055672857815</v>
       </c>
       <c r="F28">
-        <v>0.009634209913685103</v>
+        <v>0.02277570896988277</v>
       </c>
       <c r="G28">
-        <v>4.861823240352771E-05</v>
+        <v>-0</v>
       </c>
       <c r="H28">
-        <v>-0.01682337357521977</v>
+        <v>-0.03726312701418014</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2041,25 +2041,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.0022002200220022</v>
       </c>
       <c r="C29">
-        <v>0.1723151694550837</v>
+        <v>0.1813818138181382</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.4849759730909091</v>
       </c>
       <c r="E29">
-        <v>0.1640107053395044</v>
+        <v>0.4901297068274342</v>
       </c>
       <c r="F29">
-        <v>-0.001078552005710927</v>
+        <v>-0.0245376362208541</v>
       </c>
       <c r="G29">
-        <v>-0</v>
+        <v>-1.133934815517076E-05</v>
       </c>
       <c r="H29">
-        <v>-0.02826153248302449</v>
+        <v>-0.08783356138432769</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2067,25 +2067,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.06430643064306431</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.07173215196455894</v>
+        <v>0.09842098420984211</v>
       </c>
       <c r="D30">
-        <v>0.2022266755147745</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.4487996443642828</v>
+        <v>0.7569694182089006</v>
       </c>
       <c r="F30">
-        <v>-0.002161242237819949</v>
+        <v>-0.03974067605368038</v>
       </c>
       <c r="G30">
-        <v>-0.01585622751977537</v>
+        <v>-0</v>
       </c>
       <c r="H30">
-        <v>-0.01918888860801043</v>
+        <v>-0.07450167515687157</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2099,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.1107699700633342</v>
+        <v>0.1129400216590481</v>
       </c>
       <c r="G31">
-        <v>-0.0320503785474183</v>
+        <v>0.236278083238671</v>
       </c>
       <c r="H31">
-        <v>0.07871959151591587</v>
+        <v>0.3492181048977193</v>
       </c>
     </row>
   </sheetData>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03338966610333897</v>
+        <v>0.03217032170321703</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.09690783383018869</v>
+        <v>0.1408332351824681</v>
       </c>
       <c r="F2">
-        <v>0.0006625787148779707</v>
+        <v>0.001042856684956497</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2">
-        <v>0.003235720214387857</v>
+        <v>-0.004530650482324823</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2181,22 +2181,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02385976140238598</v>
+        <v>0.03220032200322003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.08414098868734282</v>
+        <v>-0.08226676148944098</v>
       </c>
       <c r="F3">
-        <v>0.0001688550679304087</v>
+        <v>0.008227720928383166</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002007583914240857</v>
+        <v>0.002649016210122101</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2204,25 +2204,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2033219931959176</v>
+        <v>0.08878878878878879</v>
       </c>
       <c r="C4">
-        <v>0.004769952300476995</v>
+        <v>0.006230062300623006</v>
       </c>
       <c r="D4">
-        <v>-0.03687220603051181</v>
+        <v>-0.1881255230045096</v>
       </c>
       <c r="E4">
-        <v>-0.2511282206666666</v>
+        <v>-0.0780077400128411</v>
       </c>
       <c r="F4">
-        <v>-0.03456080464919912</v>
+        <v>-0.02074351629545604</v>
       </c>
       <c r="G4">
-        <v>0.04356295995003669</v>
+        <v>-0.009777224575936931</v>
       </c>
       <c r="H4">
-        <v>-0.006299060789770534</v>
+        <v>-0.01621744424761703</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2230,25 +2230,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.127976786071643</v>
+        <v>0.113013013013013</v>
       </c>
       <c r="C5">
-        <v>0.07234927650723494</v>
+        <v>0.05089050890508905</v>
       </c>
       <c r="D5">
-        <v>-0.01712960041829554</v>
+        <v>0.08168014046944201</v>
       </c>
       <c r="E5">
-        <v>0.2280984713002073</v>
+        <v>0.206915402782865</v>
       </c>
       <c r="F5">
-        <v>0.01697542874230966</v>
+        <v>0.002091381184650771</v>
       </c>
       <c r="G5">
-        <v>-0.03138350047308036</v>
+        <v>-0.01415321432951497</v>
       </c>
       <c r="H5">
-        <v>-0.01869495057920122</v>
+        <v>-0.001299111370143697</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2256,25 +2256,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0006006006006006007</v>
       </c>
       <c r="C6">
-        <v>0.01005989940100599</v>
+        <v>0.01344013440134401</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.181038961</v>
       </c>
       <c r="E6">
-        <v>-0.06531687001988069</v>
+        <v>0.07778024638095238</v>
       </c>
       <c r="F6">
-        <v>-0.0001181750274760897</v>
+        <v>0.00122578670236912</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0.0001554469713999714</v>
       </c>
       <c r="H6">
-        <v>0.0006570811415885839</v>
+        <v>-0.00115410907383836</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2285,22 +2285,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01159988400115999</v>
+        <v>0.01768017680176802</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.2116247230120689</v>
+        <v>-0.1178597473421946</v>
       </c>
       <c r="F7">
-        <v>0.001560888683931309</v>
+        <v>0.005146871214885549</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.002454822238717613</v>
+        <v>0.002083781170821708</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2308,25 +2308,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.09065439263558135</v>
+        <v>0.05835835835835836</v>
       </c>
       <c r="C8">
-        <v>0.02130978690213097</v>
+        <v>0.02310023100231003</v>
       </c>
       <c r="D8">
-        <v>-0.176281080714128</v>
+        <v>0.04978148575814751</v>
       </c>
       <c r="E8">
-        <v>-0.01623198824683243</v>
+        <v>0.1628564961904762</v>
       </c>
       <c r="F8">
-        <v>0.004218372433654876</v>
+        <v>-0.0003664543106999314</v>
       </c>
       <c r="G8">
-        <v>-0.01450915326949868</v>
+        <v>-0.006598871980184947</v>
       </c>
       <c r="H8">
-        <v>-0.01563475409474528</v>
+        <v>-0.000856856896741337</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2334,25 +2334,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.000100060036021613</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05616943830561696</v>
+        <v>0.04768047680476805</v>
       </c>
       <c r="D9">
-        <v>0.073926091</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.000313003442763044</v>
+        <v>0.5646672683684982</v>
       </c>
       <c r="F9">
-        <v>-0.004338480930344346</v>
+        <v>-0.01866296356804574</v>
       </c>
       <c r="G9">
-        <v>7.365728192639281E-06</v>
+        <v>-0</v>
       </c>
       <c r="H9">
-        <v>-1.018418023932747E-05</v>
+        <v>-0.02692360459185592</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2360,25 +2360,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.08845307184310587</v>
+        <v>0.01781781781781782</v>
       </c>
       <c r="C10">
-        <v>0.01218987810121899</v>
+        <v>0.004370043700437006</v>
       </c>
       <c r="D10">
-        <v>-0.1916698985429864</v>
+        <v>0.173674589</v>
       </c>
       <c r="E10">
-        <v>0.01501498052994257</v>
+        <v>0.372757758</v>
       </c>
       <c r="F10">
-        <v>0.007022237750506388</v>
+        <v>0.002682935710609146</v>
       </c>
       <c r="G10">
-        <v>-0.01828191245752144</v>
+        <v>-0.003547227635835836</v>
       </c>
       <c r="H10">
-        <v>-0.01713682208833577</v>
+        <v>0.001465534494249465</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2386,25 +2386,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1264264264264264</v>
       </c>
       <c r="C11">
-        <v>0.03332966670333297</v>
+        <v>0.04562045620456205</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1992262039049882</v>
       </c>
       <c r="E11">
-        <v>-0.1702583589783978</v>
+        <v>0.06904683561047785</v>
       </c>
       <c r="F11">
-        <v>0.003106136652945427</v>
+        <v>-0.008420235116562674</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.01645811232792458</v>
       </c>
       <c r="H11">
-        <v>0.005674654358206418</v>
+        <v>0.02203750887017882</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2415,22 +2415,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04714952850471496</v>
+        <v>0.05636056360563606</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.126927441450771</v>
+        <v>0.1686297052212562</v>
       </c>
       <c r="F12">
-        <v>0.002351037371457266</v>
+        <v>0.0002604005470278437</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12">
-        <v>0.005984569018713664</v>
+        <v>-0.00950406522692227</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2438,25 +2438,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.3341004602761657</v>
+        <v>0.114014014014014</v>
       </c>
       <c r="C13">
-        <v>0.02951970480295197</v>
+        <v>0.02399023990239902</v>
       </c>
       <c r="D13">
-        <v>-0.03992944020305481</v>
+        <v>0.02802166474275681</v>
       </c>
       <c r="E13">
-        <v>-0.1695934072835366</v>
+        <v>0.08603578244018339</v>
       </c>
       <c r="F13">
-        <v>-0.02818267430255442</v>
+        <v>-0.007851350032846673</v>
       </c>
       <c r="G13">
-        <v>0.04332079108282257</v>
+        <v>-0.006614422428165054</v>
       </c>
       <c r="H13">
-        <v>-0.008334097030873441</v>
+        <v>0.001130843415746068</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2464,25 +2464,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.002102102102102102</v>
       </c>
       <c r="C14">
-        <v>0.01737982620173798</v>
+        <v>0.02547025470254703</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.7895179627142858</v>
       </c>
       <c r="E14">
-        <v>-0.1103793954125432</v>
+        <v>0.05230462518138987</v>
       </c>
       <c r="F14">
-        <v>0.000579015641093091</v>
+        <v>0.002826269199440872</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.001549697706525607</v>
       </c>
       <c r="H14">
-        <v>0.001918374708522915</v>
+        <v>0.0003274352435778142</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2490,25 +2490,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.002402402402402403</v>
       </c>
       <c r="C15">
-        <v>0.03601963980360197</v>
+        <v>0.03569035690356903</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.728464183</v>
       </c>
       <c r="E15">
-        <v>-0.0955367961757357</v>
+        <v>0.26967472591174</v>
       </c>
       <c r="F15">
-        <v>0.0006653831721537016</v>
+        <v>-0.003209782993835093</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.003504599296308133</v>
       </c>
       <c r="H15">
-        <v>0.003441200986240138</v>
+        <v>-0.005472320709956451</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2519,22 +2519,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007479925200747993</v>
+        <v>0.004290042900429004</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4468882648770053</v>
+        <v>0.273255113027972</v>
       </c>
       <c r="F16">
-        <v>-0.003919123810734259</v>
+        <v>-0.0004290263675478505</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.003342690794372057</v>
+        <v>-0.001172276157651576</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2545,22 +2545,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01144988550114499</v>
+        <v>0.009760097600976011</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-0.1400031726628821</v>
+        <v>0.251634772262295</v>
       </c>
       <c r="F17">
-        <v>0.0007206462276229653</v>
+        <v>-0.0007650433516685628</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17">
-        <v>0.001603020296787032</v>
+        <v>-0.00245597993707937</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2568,25 +2568,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.000200120072043226</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03029969700302997</v>
+        <v>0.03225032250322503</v>
       </c>
       <c r="D18">
-        <v>0.292112779</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-0.06946762854521453</v>
+        <v>0.1632063515807752</v>
       </c>
       <c r="F18">
-        <v>-0.0002286478112262108</v>
+        <v>0.0003239098301725787</v>
       </c>
       <c r="G18">
-        <v>7.235949720736734E-05</v>
+        <v>-0</v>
       </c>
       <c r="H18">
-        <v>0.002163305726817263</v>
+        <v>-0.00526345747305473</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2594,25 +2594,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.09229229229229229</v>
       </c>
       <c r="C19">
-        <v>0.01536984630153699</v>
+        <v>0.01321013210132101</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.1156022915043384</v>
       </c>
       <c r="E19">
-        <v>-0.2325099096467144</v>
+        <v>0.04029329596593489</v>
       </c>
       <c r="F19">
-        <v>0.002389179614762399</v>
+        <v>-0.0105145007419813</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.006950439828469273</v>
       </c>
       <c r="H19">
-        <v>0.003573641574854252</v>
+        <v>0.01013692071466955</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2620,25 +2620,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.1117670602361417</v>
+        <v>0.08878878878878881</v>
       </c>
       <c r="C20">
-        <v>0.04827951720482797</v>
+        <v>0.04510045100451004</v>
       </c>
       <c r="D20">
-        <v>0.02748590383348256</v>
+        <v>0.2200444458184893</v>
       </c>
       <c r="E20">
-        <v>-0.1291780875300331</v>
+        <v>0.589264033878714</v>
       </c>
       <c r="F20">
-        <v>-0.003308594859465705</v>
+        <v>0.01817496308520199</v>
       </c>
       <c r="G20">
-        <v>0.01750987375956044</v>
+        <v>-0.0327825600209629</v>
       </c>
       <c r="H20">
-        <v>0.00930867436879465</v>
+        <v>-0.007038593864742961</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2646,25 +2646,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.001501501501501501</v>
       </c>
       <c r="C21">
-        <v>0.01580984190158099</v>
+        <v>0.01412014120141201</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-0.155364018</v>
       </c>
       <c r="E21">
-        <v>0.01946296918785578</v>
+        <v>0.006043006896600582</v>
       </c>
       <c r="F21">
-        <v>-0.001526076250379089</v>
+        <v>0.002109924382437873</v>
       </c>
       <c r="G21">
-        <v>-0</v>
+        <v>-0.000242352890235136</v>
       </c>
       <c r="H21">
-        <v>-0.000307706465795342</v>
+        <v>-0.0003186074169674131</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2675,22 +2675,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.002799972000279997</v>
+        <v>0.003200032000320003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1804363723428571</v>
+        <v>0.017382495471875</v>
       </c>
       <c r="F22">
-        <v>-0.0007209938553405142</v>
+        <v>0.0004987808960841914</v>
       </c>
       <c r="G22">
         <v>-0</v>
       </c>
       <c r="H22">
-        <v>-0.0005052167903920961</v>
+        <v>-5.562454175541755E-05</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2701,22 +2701,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.003069969300306997</v>
+        <v>0.006370063700637005</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.3881693468273616</v>
+        <v>0.1254370819795919</v>
       </c>
       <c r="F23">
-        <v>0.0009550838390117751</v>
+        <v>0.000304571122067445</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H23">
-        <v>0.001191667978080219</v>
+        <v>-0.0007990422026320265</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2727,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01822981770182298</v>
+        <v>0.01933019330193302</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02718201903071859</v>
+        <v>-0.06311869636937403</v>
       </c>
       <c r="F24">
-        <v>-0.001900386070986648</v>
+        <v>0.004569051949735906</v>
       </c>
       <c r="G24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-0.0004955232516974829</v>
+        <v>0.001220096601786018</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2750,25 +2750,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="C25">
-        <v>0.003459965400345997</v>
+        <v>0.0003200032000320004</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.310176298</v>
       </c>
       <c r="E25">
-        <v>-0.0287731464566474</v>
+        <v>0.083815029</v>
       </c>
       <c r="F25">
-        <v>-0.0001670847104871715</v>
+        <v>-0.0002399539205172782</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006797635705705706</v>
       </c>
       <c r="H25">
-        <v>9.955409119908802E-05</v>
+        <v>0.0009046392768635795</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2776,25 +2776,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.006103662197318392</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.01858981410185898</v>
+        <v>0.02550025500255003</v>
       </c>
       <c r="D26">
-        <v>-0.486454784</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.3074669339107046</v>
+        <v>0.1539101228610393</v>
       </c>
       <c r="F26">
-        <v>0.002876845930748839</v>
+        <v>0.0004931709523540778</v>
       </c>
       <c r="G26">
-        <v>-0.001092481374369324</v>
+        <v>-0</v>
       </c>
       <c r="H26">
-        <v>0.002746597468063077</v>
+        <v>-0.003924747380430306</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2805,22 +2805,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.01120988790112099</v>
+        <v>0.01136011360113601</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.1425820823835861</v>
+        <v>0.1175327676628521</v>
       </c>
       <c r="F27">
-        <v>0.0007344502680599094</v>
+        <v>0.0006329537118246867</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H27">
-        <v>0.001598329160228398</v>
+        <v>-0.001335185592505925</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2828,25 +2828,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.0001001001001001001</v>
       </c>
       <c r="C28">
-        <v>0.1668183318166819</v>
+        <v>0.1720817208172082</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-0.018720749</v>
       </c>
       <c r="E28">
-        <v>-0.1155223599559405</v>
+        <v>0.1012866366311018</v>
       </c>
       <c r="F28">
-        <v>0.006415558098699422</v>
+        <v>0.01237637015600348</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>-1.201275131442461E-05</v>
       </c>
       <c r="H28">
-        <v>0.01927124737537625</v>
+        <v>-0.01743145267611612</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2854,25 +2854,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.1794794794794795</v>
       </c>
       <c r="C29">
-        <v>0.1528184718152818</v>
+        <v>0.1719817198171982</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.04962613912493029</v>
       </c>
       <c r="E29">
-        <v>-0.1841628263649392</v>
+        <v>0.1332537763412025</v>
       </c>
       <c r="F29">
-        <v>0.01636667773833837</v>
+        <v>-0.000299881823526008</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>-0.01500944479767528</v>
       </c>
       <c r="H29">
-        <v>0.0281434816902731</v>
+        <v>-0.01401034000857756</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2880,25 +2880,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03732239343606164</v>
+        <v>0.1113113113113113</v>
       </c>
       <c r="C30">
-        <v>0.08521914780852193</v>
+        <v>0.05623056230562306</v>
       </c>
       <c r="D30">
-        <v>0.33441911</v>
+        <v>0.1449187744784173</v>
       </c>
       <c r="E30">
-        <v>0.03571739605761558</v>
+        <v>0.4093781089379335</v>
       </c>
       <c r="F30">
-        <v>-0.005401863213386774</v>
+        <v>0.01300611492984471</v>
       </c>
       <c r="G30">
-        <v>0.01114826288778361</v>
+        <v>-0.02943731530720541</v>
       </c>
       <c r="H30">
-        <v>0.009437515541988116</v>
+        <v>-0.006888462440371793</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2912,13 +2912,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-0.01660452954347656</v>
+        <v>0.004491324665362751</v>
       </c>
       <c r="G31">
-        <v>0.05035456533113351</v>
+        <v>-0.0891874809586327</v>
       </c>
       <c r="H31">
-        <v>0.03375003578765694</v>
+        <v>-0.08469615629326994</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +3049,7 @@
         <v>0.06671999999999999</v>
       </c>
       <c r="D5">
-        <v>-0.3444210275095541</v>
+        <v>-0.3444210275095542</v>
       </c>
       <c r="E5">
         <v>-0.2923862644856116</v>
@@ -3058,7 +3058,7 @@
         <v>0.009794176620719899</v>
       </c>
       <c r="G5">
-        <v>-0.0008168640930665906</v>
+        <v>-0.0008168640930665925</v>
       </c>
       <c r="H5">
         <v>0.0141011421215245</v>
@@ -3433,7 +3433,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.3058694130586941</v>
+        <v>0.3058694130586942</v>
       </c>
       <c r="C20">
         <v>0.03930000000000001</v>
@@ -3445,10 +3445,10 @@
         <v>-0.3137276449735368</v>
       </c>
       <c r="F20">
-        <v>-0.05686002125885112</v>
+        <v>-0.05686002125885113</v>
       </c>
       <c r="G20">
-        <v>0.04529325192771214</v>
+        <v>0.04529325192771216</v>
       </c>
       <c r="H20">
         <v>-0.03833694225316994</v>
@@ -3595,7 +3595,7 @@
         <v>0.02124</v>
       </c>
       <c r="D26">
-        <v>0.3055454022039391</v>
+        <v>0.3055454022039389</v>
       </c>
       <c r="E26">
         <v>0.04751023908945388</v>
@@ -3604,10 +3604,10 @@
         <v>0.02014050304663132</v>
       </c>
       <c r="G26">
-        <v>0.04061067360685928</v>
+        <v>0.04061067360685926</v>
       </c>
       <c r="H26">
-        <v>0.0470789200248897</v>
+        <v>0.04707892002488968</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3725,13 +3725,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.01337923035439803</v>
+        <v>0.01337923035439801</v>
       </c>
       <c r="G31">
         <v>0.07460525207813633</v>
       </c>
       <c r="H31">
-        <v>0.08798448243253434</v>
+        <v>0.08798448243253433</v>
       </c>
     </row>
   </sheetData>
@@ -3781,22 +3781,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03169031690316904</v>
+        <v>0.03341100233006991</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3339815072391921</v>
+        <v>0.127252648536965</v>
       </c>
       <c r="F2">
-        <v>0.0006086239509243415</v>
+        <v>0.001018997977338261</v>
       </c>
       <c r="G2">
         <v>-0</v>
       </c>
       <c r="H2">
-        <v>-0.01058397980420804</v>
+        <v>-0.004251638536776105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3807,22 +3807,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01982019820198202</v>
+        <v>0.02499074972249168</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1117360142850656</v>
+        <v>0.04472417987795122</v>
       </c>
       <c r="F3">
-        <v>0.004785603765519191</v>
+        <v>0.002824638052429864</v>
       </c>
       <c r="G3">
         <v>-0</v>
       </c>
       <c r="H3">
-        <v>-0.002214629949429494</v>
+        <v>-0.001117690785873577</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3830,25 +3830,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.3995399539953996</v>
+        <v>0.0928092809280928</v>
       </c>
       <c r="C4">
-        <v>0.01964019640196402</v>
+        <v>0.004710141304239128</v>
       </c>
       <c r="D4">
-        <v>0.9466220115979976</v>
+        <v>-0.02082805359267241</v>
       </c>
       <c r="E4">
-        <v>0.6664495342861508</v>
+        <v>0.3072868837070064</v>
       </c>
       <c r="F4">
-        <v>0.1190084111988702</v>
+        <v>0.0131739365910709</v>
       </c>
       <c r="G4">
-        <v>0.1119400986959524</v>
+        <v>-0.03045211139254945</v>
       </c>
       <c r="H4">
-        <v>0.3651241152195191</v>
+        <v>-0.003380401320267003</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3856,25 +3856,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001800180018001801</v>
+        <v>0.0014001400140014</v>
       </c>
       <c r="C5">
-        <v>0.06231062310623105</v>
+        <v>0.05369161074832245</v>
       </c>
       <c r="D5">
-        <v>0.2111109105555556</v>
+        <v>0.05072624585714285</v>
       </c>
       <c r="E5">
-        <v>0.3209212646353716</v>
+        <v>0.1638702741233005</v>
       </c>
       <c r="F5">
-        <v>0.001952405922066469</v>
+        <v>-0.0003199584771562984</v>
       </c>
       <c r="G5">
-        <v>-0.0001976784051841873</v>
+        <v>-0.0001584174813207528</v>
       </c>
       <c r="H5">
-        <v>-0.0196167663247054</v>
+        <v>-0.008727435124864491</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3885,22 +3885,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007890078900789008</v>
+        <v>0.01088032640979229</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2305038758479087</v>
+        <v>0.1269521015891544</v>
       </c>
       <c r="F6">
-        <v>0.0009679784834268226</v>
+        <v>0.0003351077619568093</v>
       </c>
       <c r="G6">
         <v>-0</v>
       </c>
       <c r="H6">
-        <v>-0.001818693767377674</v>
+        <v>-0.001381280303699111</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3911,22 +3911,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01389013890138902</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1983588393729301</v>
+        <v>-0.05976910255055402</v>
       </c>
       <c r="F7">
-        <v>0.002150582815645232</v>
+        <v>0.003141092070720931</v>
       </c>
       <c r="G7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.002755231831208312</v>
+        <v>0.0008630917335820076</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3934,25 +3934,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0009000900090009003</v>
+        <v>0.0259025902590259</v>
       </c>
       <c r="C8">
-        <v>0.01334013340133402</v>
+        <v>0.0223406702201066</v>
       </c>
       <c r="D8">
-        <v>0.117266851</v>
+        <v>0.1431274195366795</v>
       </c>
       <c r="E8">
-        <v>0.43041454738006</v>
+        <v>0.08972521673455684</v>
       </c>
       <c r="F8">
-        <v>-0.0009607156895744816</v>
+        <v>-0.0002423042646960681</v>
       </c>
       <c r="G8">
-        <v>-0.0002818611128533394</v>
+        <v>0.001383255378112789</v>
       </c>
       <c r="H8">
-        <v>-0.005636236758952703</v>
+        <v>0.001702849425595984</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3960,25 +3960,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0002000200020002</v>
       </c>
       <c r="C9">
-        <v>0.04904049040490405</v>
+        <v>0.05073152194565837</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.08799791650000001</v>
       </c>
       <c r="E9">
-        <v>0.465960470060155</v>
+        <v>0.198318952668835</v>
       </c>
       <c r="F9">
-        <v>-0.005530472777342068</v>
+        <v>-0.002049933133632069</v>
       </c>
       <c r="G9">
-        <v>-0</v>
+        <v>-2.206641387515452E-05</v>
       </c>
       <c r="H9">
-        <v>-0.02285092996104961</v>
+        <v>-0.01004342095612464</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3986,25 +3986,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0003000300030003001</v>
+        <v>0.04830483048304831</v>
       </c>
       <c r="C10">
-        <v>0.01280012800128001</v>
+        <v>0.005000150004500136</v>
       </c>
       <c r="D10">
-        <v>-0.02556524</v>
+        <v>0.290109034</v>
       </c>
       <c r="E10">
-        <v>0.3971183164859375</v>
+        <v>0.290365156</v>
       </c>
       <c r="F10">
-        <v>-0.0005491474183117216</v>
+        <v>0.00574279098914334</v>
       </c>
       <c r="G10">
-        <v>-0.0001268177487206533</v>
+        <v>-1.237192979298052E-05</v>
       </c>
       <c r="H10">
-        <v>-0.005090835621706731</v>
+        <v>0.01256179837289082</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4015,22 +4015,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03034030340303404</v>
+        <v>0.03747112413372401</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02635345057251154</v>
+        <v>-0.03563286298452096</v>
       </c>
       <c r="F11">
-        <v>0.009916225029934488</v>
+        <v>0.007246330345747607</v>
       </c>
       <c r="G11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.0007995716860868609</v>
+        <v>0.001335203432132964</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4041,22 +4041,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04591045910459104</v>
+        <v>0.05031150934528036</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2340765406024831</v>
+        <v>0.1566460418246869</v>
       </c>
       <c r="F12">
-        <v>0.005468409789094174</v>
+        <v>5.561844393436903E-05</v>
       </c>
       <c r="G12">
         <v>-0</v>
       </c>
       <c r="H12">
-        <v>-0.01074656144467445</v>
+        <v>-0.007881098797163914</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4064,25 +4064,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0001000100010001</v>
+        <v>0.5138513851385138</v>
       </c>
       <c r="C13">
-        <v>0.02273022730227302</v>
+        <v>0.03354100623018691</v>
       </c>
       <c r="D13">
-        <v>0.9390681</v>
+        <v>0.3322144132296614</v>
       </c>
       <c r="E13">
-        <v>0.1682145040536736</v>
+        <v>0.2946988356979726</v>
       </c>
       <c r="F13">
-        <v>0.004185964778106337</v>
+        <v>0.06577721548583486</v>
       </c>
       <c r="G13">
-        <v>7.709306890152281E-05</v>
+        <v>0.01927743147892964</v>
       </c>
       <c r="H13">
-        <v>-0.003729637711058966</v>
+        <v>0.1608243409168656</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4090,25 +4090,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.008200820082008203</v>
+        <v>0.0003000300030003001</v>
       </c>
       <c r="C14">
-        <v>0.01990019900199002</v>
+        <v>0.0220706621198636</v>
       </c>
       <c r="D14">
-        <v>0.5716975678902438</v>
+        <v>0.1649205296666667</v>
       </c>
       <c r="E14">
-        <v>0.2868672366492462</v>
+        <v>0.1158965186311735</v>
       </c>
       <c r="F14">
-        <v>0.0007758984904252412</v>
+        <v>0.0009112099099150153</v>
       </c>
       <c r="G14">
-        <v>0.002335842300406222</v>
+        <v>1.470867417806575E-05</v>
       </c>
       <c r="H14">
-        <v>-0.001020326200881405</v>
+        <v>-0.002508431796566407</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4116,25 +4116,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0001000100010001</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02655026550265503</v>
+        <v>0.03534106023180696</v>
       </c>
       <c r="D15">
-        <v>-0.069215876</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1450044460414313</v>
+        <v>0.1202594440537635</v>
       </c>
       <c r="F15">
-        <v>0.005506478236879591</v>
+        <v>0.001325009832513376</v>
       </c>
       <c r="G15">
-        <v>-2.142417462160529E-05</v>
+        <v>-0</v>
       </c>
       <c r="H15">
-        <v>-0.003856828821293398</v>
+        <v>-0.004250096255747673</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4145,22 +4145,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.008340083400834008</v>
+        <v>0.004760142804284129</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.418199281880096</v>
+        <v>0.3078220471932773</v>
       </c>
       <c r="F16">
-        <v>-0.000542208958540716</v>
+        <v>-0.0007143571242226236</v>
       </c>
       <c r="G16">
         <v>-0</v>
       </c>
       <c r="H16">
-        <v>-0.003487816889048891</v>
+        <v>-0.001465276902947089</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4171,22 +4171,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009890098900989011</v>
+        <v>0.01192035761072832</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1730059254327604</v>
+        <v>0.1118189550713087</v>
       </c>
       <c r="F17">
-        <v>0.001782007336500382</v>
+        <v>0.0005475326398238904</v>
       </c>
       <c r="G17">
         <v>-0</v>
       </c>
       <c r="H17">
-        <v>-0.00171104571298713</v>
+        <v>-0.001332921932107963</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4194,25 +4194,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0002000200020002001</v>
+        <v>0.005400540054005401</v>
       </c>
       <c r="C18">
-        <v>0.02388023880238803</v>
+        <v>0.03043091292738782</v>
       </c>
       <c r="D18">
-        <v>0.3876992535</v>
+        <v>0.3701443114074074</v>
       </c>
       <c r="E18">
-        <v>0.03873520808123952</v>
+        <v>-0.03522001545678607</v>
       </c>
       <c r="F18">
-        <v>0.007446284095701607</v>
+        <v>0.004830149570205907</v>
       </c>
       <c r="G18">
-        <v>6.979978906265837E-05</v>
+        <v>0.002189186283695015</v>
       </c>
       <c r="H18">
-        <v>-0.0008474584135796441</v>
+        <v>0.003070756403184662</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4220,25 +4220,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007700770077007702</v>
+        <v>0.04160416041604161</v>
       </c>
       <c r="C19">
-        <v>0.01778017780177802</v>
+        <v>0.01763052891586748</v>
       </c>
       <c r="D19">
-        <v>0.1368862631688312</v>
+        <v>-0.08857839898076925</v>
       </c>
       <c r="E19">
-        <v>0.330038590291901</v>
+        <v>0.3776797872819059</v>
       </c>
       <c r="F19">
-        <v>0.00023332092347662</v>
+        <v>0.005272479156051575</v>
       </c>
       <c r="G19">
-        <v>-0.001487421661013739</v>
+        <v>-0.01939828037656494</v>
       </c>
       <c r="H19">
-        <v>-0.004814015177474232</v>
+        <v>-0.01034392433120438</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4246,25 +4246,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.2781278127812781</v>
+        <v>0.09810981098109813</v>
       </c>
       <c r="C20">
-        <v>0.04033040330403304</v>
+        <v>0.04934148024440733</v>
       </c>
       <c r="D20">
-        <v>0.4564255934893924</v>
+        <v>0.02299688522528032</v>
       </c>
       <c r="E20">
-        <v>0.277578640852963</v>
+        <v>0.2155516662829348</v>
       </c>
       <c r="F20">
-        <v>-0.01797944041697488</v>
+        <v>0.002818816487333989</v>
       </c>
       <c r="G20">
-        <v>0.04974231175936696</v>
+        <v>-0.01889151317307321</v>
       </c>
       <c r="H20">
-        <v>0.1157497934804162</v>
+        <v>-0.008379418220942248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4275,22 +4275,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01685016850168502</v>
+        <v>0.01231036931107933</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1082906784219584</v>
+        <v>0.04978191737774169</v>
       </c>
       <c r="F21">
-        <v>0.004126542050332621</v>
+        <v>0.00132914572385169</v>
       </c>
       <c r="G21">
         <v>-0</v>
       </c>
       <c r="H21">
-        <v>-0.001824716178571785</v>
+        <v>-0.0006128337879336383</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4301,22 +4301,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.001320013200132001</v>
+        <v>0.002720081602448074</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.116890836</v>
+        <v>-0.1318392107058823</v>
       </c>
       <c r="F22">
-        <v>0.0003119138806363253</v>
+        <v>0.0007877104279363256</v>
       </c>
       <c r="G22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-0.000154297446494465</v>
+        <v>0.0003586134115223456</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4324,25 +4324,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.04690469046904691</v>
       </c>
       <c r="C23">
-        <v>0.001760017600176001</v>
+        <v>0.003780113403402101</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.392318244</v>
       </c>
       <c r="E23">
-        <v>0.1437919333181819</v>
+        <v>-0.08370185025925928</v>
       </c>
       <c r="F23">
-        <v>0.0003685387694377194</v>
+        <v>-0.01041257461783747</v>
       </c>
       <c r="G23">
-        <v>-0</v>
+        <v>0.02232757517827709</v>
       </c>
       <c r="H23">
-        <v>-0.0002530763334033339</v>
+        <v>0.0187179682862346</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4350,25 +4350,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.1497149714971497</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02257022570225702</v>
+        <v>0.01558046741402242</v>
       </c>
       <c r="D24">
-        <v>0.7689667304201738</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4687862628741692</v>
+        <v>0.1349425418055199</v>
       </c>
       <c r="F24">
-        <v>0.01469785574683676</v>
+        <v>0.0003553745936520508</v>
       </c>
       <c r="G24">
-        <v>0.04494151014265116</v>
+        <v>-0</v>
       </c>
       <c r="H24">
-        <v>0.1045452203679252</v>
+        <v>-0.002102467875366261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4379,22 +4379,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.001090010900109001</v>
+        <v>0.002370071102133064</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.359072895</v>
+        <v>-0.0841430854556962</v>
       </c>
       <c r="F25">
-        <v>-6.415834201451351E-06</v>
+        <v>0.0005733074220847455</v>
       </c>
       <c r="G25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-0.0003913933694836949</v>
+        <v>0.0001994250952828585</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4402,25 +4402,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.1511151115111511</v>
+        <v>0.002700270027002701</v>
       </c>
       <c r="C26">
-        <v>0.02046020460204602</v>
+        <v>0.02515075452263568</v>
       </c>
       <c r="D26">
-        <v>0.4941209422991397</v>
+        <v>0.208924103</v>
       </c>
       <c r="E26">
-        <v>0.3002424503343109</v>
+        <v>0.1789227502894632</v>
       </c>
       <c r="F26">
-        <v>-0.006917447887975883</v>
+        <v>-0.0004753043022282062</v>
       </c>
       <c r="G26">
-        <v>0.02929796993287892</v>
+        <v>8.101175349379877E-05</v>
       </c>
       <c r="H26">
-        <v>0.06852611933146993</v>
+        <v>-0.003935890677795807</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4428,25 +4428,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.0578057805780578</v>
       </c>
       <c r="C27">
-        <v>0.01008010080100801</v>
+        <v>0.01260037801134034</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.2976730022698962</v>
       </c>
       <c r="E27">
-        <v>0.09173822373511904</v>
+        <v>0.169332502647619</v>
       </c>
       <c r="F27">
-        <v>0.002635428682806973</v>
+        <v>0.0005235228314071631</v>
       </c>
       <c r="G27">
-        <v>-0</v>
+        <v>0.007418822760443667</v>
       </c>
       <c r="H27">
-        <v>-0.0009247305425554255</v>
+        <v>0.01507356671025904</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4454,25 +4454,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.0004000400040004001</v>
       </c>
       <c r="C28">
-        <v>0.1699916999169992</v>
+        <v>0.1684250527515825</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.221946999</v>
       </c>
       <c r="E28">
-        <v>0.2192055672857815</v>
+        <v>0.1004135725492816</v>
       </c>
       <c r="F28">
-        <v>0.02277570896988277</v>
+        <v>0.009634209913685103</v>
       </c>
       <c r="G28">
-        <v>-0</v>
+        <v>4.861823240352771E-05</v>
       </c>
       <c r="H28">
-        <v>-0.03726312701418014</v>
+        <v>-0.01682337357521977</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4480,25 +4480,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002200220022002201</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.1813818138181382</v>
+        <v>0.1723151694550837</v>
       </c>
       <c r="D29">
-        <v>0.4849759730909091</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.4901297068274342</v>
+        <v>0.1640107053395044</v>
       </c>
       <c r="F29">
-        <v>-0.0245376362208541</v>
+        <v>-0.001078552005710927</v>
       </c>
       <c r="G29">
-        <v>-1.133934815517077E-05</v>
+        <v>-0</v>
       </c>
       <c r="H29">
-        <v>-0.08783356138432769</v>
+        <v>-0.02826153248302449</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4506,25 +4506,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.06430643064306429</v>
       </c>
       <c r="C30">
-        <v>0.09842098420984211</v>
+        <v>0.07173215196455894</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.2022266755147745</v>
       </c>
       <c r="E30">
-        <v>0.7569694182089006</v>
+        <v>0.4487996443642828</v>
       </c>
       <c r="F30">
-        <v>-0.03974067605368038</v>
+        <v>-0.002161242237819953</v>
       </c>
       <c r="G30">
-        <v>-0</v>
+        <v>-0.01585622751977536</v>
       </c>
       <c r="H30">
-        <v>-0.07450167515687157</v>
+        <v>-0.01918888860801043</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4538,13 +4538,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.1129400216590482</v>
+        <v>0.1107699700633342</v>
       </c>
       <c r="G31">
-        <v>0.2362780832386711</v>
+        <v>-0.03205037854741825</v>
       </c>
       <c r="H31">
-        <v>0.3492181048977194</v>
+        <v>0.0787195915159159</v>
       </c>
     </row>
   </sheetData>

--- a/brinson_result_test/161810.OF_res.xlsx
+++ b/brinson_result_test/161810.OF_res.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="2018-06-29" sheetId="1" r:id="rId1"/>
     <sheet name="2019-06-28" sheetId="2" r:id="rId2"/>
-    <sheet name="2017-06-30" sheetId="3" r:id="rId3"/>
-    <sheet name="2018-12-28" sheetId="4" r:id="rId4"/>
-    <sheet name="2017-12-29" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-12-29" sheetId="3" r:id="rId3"/>
+    <sheet name="2017-06-30" sheetId="4" r:id="rId4"/>
+    <sheet name="2018-12-28" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
   <si>
     <t>组合权重</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>选股效应(SR)</t>
+  </si>
+  <si>
+    <t>交互效应(IR)</t>
   </si>
   <si>
     <t>超额收益</t>
@@ -489,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -520,10 +523,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -538,18 +544,21 @@
         <v>-0.09690783383018869</v>
       </c>
       <c r="F2">
-        <v>0.0006625787148779707</v>
+        <v>0.003235720214387857</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.003235720214387857</v>
       </c>
       <c r="H2">
+        <v>-0.003235720214387857</v>
+      </c>
+      <c r="I2">
         <v>0.003235720214387857</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -564,18 +573,21 @@
         <v>-0.08414098868734282</v>
       </c>
       <c r="F3">
-        <v>0.0001688550679304087</v>
+        <v>0.002007583914240857</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.002007583914240857</v>
       </c>
       <c r="H3">
+        <v>-0.002007583914240857</v>
+      </c>
+      <c r="I3">
         <v>0.002007583914240857</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.2033219931959176</v>
@@ -590,18 +602,21 @@
         <v>-0.2511282206666666</v>
       </c>
       <c r="F4">
-        <v>-0.03456080464919911</v>
+        <v>-0.04986202073980722</v>
       </c>
       <c r="G4">
-        <v>0.04356295995003669</v>
+        <v>0.001021990969904759</v>
       </c>
       <c r="H4">
+        <v>0.04254096898013193</v>
+      </c>
+      <c r="I4">
         <v>-0.006299060789770532</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.127976786071643</v>
@@ -616,18 +631,21 @@
         <v>0.2280984713002073</v>
       </c>
       <c r="F5">
-        <v>0.01697542874230966</v>
+        <v>0.01268854989387913</v>
       </c>
       <c r="G5">
-        <v>-0.03138350047308035</v>
+        <v>-0.017742073568098</v>
       </c>
       <c r="H5">
+        <v>-0.01364142690498236</v>
+      </c>
+      <c r="I5">
         <v>-0.01869495057920122</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -642,18 +660,21 @@
         <v>-0.06531687001988069</v>
       </c>
       <c r="F6">
-        <v>-0.0001181750274760897</v>
+        <v>0.0006570811415885839</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006570811415885839</v>
       </c>
       <c r="H6">
+        <v>-0.0006570811415885839</v>
+      </c>
+      <c r="I6">
         <v>0.0006570811415885839</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -668,18 +689,21 @@
         <v>-0.2116247230120689</v>
       </c>
       <c r="F7">
-        <v>0.001560888683931309</v>
+        <v>0.002454822238717613</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.002454822238717613</v>
       </c>
       <c r="H7">
+        <v>-0.002454822238717613</v>
+      </c>
+      <c r="I7">
         <v>0.002454822238717613</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.09065439263558134</v>
@@ -694,18 +718,21 @@
         <v>-0.01623198824683243</v>
       </c>
       <c r="F8">
-        <v>0.004218372433654875</v>
+        <v>-0.001125600825246595</v>
       </c>
       <c r="G8">
-        <v>-0.01450915326949868</v>
+        <v>-0.003410612054357525</v>
       </c>
       <c r="H8">
+        <v>-0.01109854121514115</v>
+      </c>
+      <c r="I8">
         <v>-0.01563475409474527</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.000100060036021613</v>
@@ -720,18 +747,21 @@
         <v>0.000313003442763044</v>
       </c>
       <c r="F9">
-        <v>-0.004338480930344346</v>
+        <v>-1.754990843196675E-05</v>
       </c>
       <c r="G9">
-        <v>7.36572819263928E-06</v>
+        <v>0.0041348057800322</v>
       </c>
       <c r="H9">
+        <v>-0.004127440051839561</v>
+      </c>
+      <c r="I9">
         <v>-1.018418023932747E-05</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0.08845307184310587</v>
@@ -746,18 +776,21 @@
         <v>0.01501498052994257</v>
       </c>
       <c r="F10">
-        <v>0.007022237750506388</v>
+        <v>0.00114509036918567</v>
       </c>
       <c r="G10">
-        <v>-0.01828191245752144</v>
+        <v>-0.002519463481264192</v>
       </c>
       <c r="H10">
+        <v>-0.01576244897625724</v>
+      </c>
+      <c r="I10">
         <v>-0.01713682208833577</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -772,18 +805,21 @@
         <v>-0.1702583589783978</v>
       </c>
       <c r="F11">
-        <v>0.003106136652945427</v>
+        <v>0.005674654358206418</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.005674654358206418</v>
       </c>
       <c r="H11">
+        <v>-0.005674654358206418</v>
+      </c>
+      <c r="I11">
         <v>0.005674654358206418</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -798,18 +834,21 @@
         <v>-0.126927441450771</v>
       </c>
       <c r="F12">
-        <v>0.002351037371457266</v>
+        <v>0.005984569018713664</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.005984569018713664</v>
       </c>
       <c r="H12">
+        <v>-0.005984569018713664</v>
+      </c>
+      <c r="I12">
         <v>0.005984569018713664</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.3341004602761657</v>
@@ -824,18 +863,21 @@
         <v>-0.1695934072835366</v>
       </c>
       <c r="F13">
-        <v>-0.02818267430255441</v>
+        <v>-0.051654888113696</v>
       </c>
       <c r="G13">
-        <v>0.04332079108282256</v>
+        <v>0.003827642031795505</v>
       </c>
       <c r="H13">
+        <v>0.03949314905102706</v>
+      </c>
+      <c r="I13">
         <v>-0.008334097030873438</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -850,18 +892,21 @@
         <v>-0.1103793954125432</v>
       </c>
       <c r="F14">
-        <v>0.000579015641093091</v>
+        <v>0.001918374708522915</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.001918374708522915</v>
       </c>
       <c r="H14">
+        <v>-0.001918374708522915</v>
+      </c>
+      <c r="I14">
         <v>0.001918374708522915</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -876,18 +921,21 @@
         <v>-0.0955367961757357</v>
       </c>
       <c r="F15">
-        <v>0.0006653831721537016</v>
+        <v>0.003441200986240138</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.003441200986240138</v>
       </c>
       <c r="H15">
+        <v>-0.003441200986240138</v>
+      </c>
+      <c r="I15">
         <v>0.003441200986240138</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -902,18 +950,21 @@
         <v>0.4468882648770053</v>
       </c>
       <c r="F16">
-        <v>-0.003919123810734259</v>
+        <v>-0.003342690794372057</v>
       </c>
       <c r="G16">
-        <v>-0</v>
+        <v>-0.003342690794372057</v>
       </c>
       <c r="H16">
+        <v>0.003342690794372057</v>
+      </c>
+      <c r="I16">
         <v>-0.003342690794372057</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -928,18 +979,21 @@
         <v>-0.1400031726628821</v>
       </c>
       <c r="F17">
-        <v>0.0007206462276229653</v>
+        <v>0.001603020296787032</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.001603020296787032</v>
       </c>
       <c r="H17">
+        <v>-0.001603020296787032</v>
+      </c>
+      <c r="I17">
         <v>0.001603020296787032</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0.0002001200720432259</v>
@@ -954,18 +1008,21 @@
         <v>-0.06946762854521453</v>
       </c>
       <c r="F18">
-        <v>-0.0002286478112262108</v>
+        <v>0.002090946229609896</v>
       </c>
       <c r="G18">
-        <v>7.235949720736732E-05</v>
+        <v>0.01095577679085209</v>
       </c>
       <c r="H18">
+        <v>-0.01088341729364472</v>
+      </c>
+      <c r="I18">
         <v>0.002163305726817263</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -980,18 +1037,21 @@
         <v>-0.2325099096467144</v>
       </c>
       <c r="F19">
-        <v>0.002389179614762399</v>
+        <v>0.003573641574854252</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.003573641574854252</v>
       </c>
       <c r="H19">
+        <v>-0.003573641574854252</v>
+      </c>
+      <c r="I19">
         <v>0.003573641574854252</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>0.1117670602361417</v>
@@ -1006,18 +1066,21 @@
         <v>-0.1291780875300331</v>
       </c>
       <c r="F20">
-        <v>-0.003308594859465704</v>
+        <v>-0.008201199390765787</v>
       </c>
       <c r="G20">
-        <v>0.01750987375956044</v>
+        <v>0.007563661866411875</v>
       </c>
       <c r="H20">
+        <v>0.009946211893148562</v>
+      </c>
+      <c r="I20">
         <v>0.00930867436879465</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1032,18 +1095,21 @@
         <v>0.01946296918785578</v>
       </c>
       <c r="F21">
-        <v>-0.001526076250379089</v>
+        <v>-0.000307706465795342</v>
       </c>
       <c r="G21">
-        <v>-0</v>
+        <v>-0.000307706465795342</v>
       </c>
       <c r="H21">
+        <v>0.000307706465795342</v>
+      </c>
+      <c r="I21">
         <v>-0.000307706465795342</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1058,18 +1124,21 @@
         <v>0.1804363723428571</v>
       </c>
       <c r="F22">
-        <v>-0.0007209938553405142</v>
+        <v>-0.0005052167903920961</v>
       </c>
       <c r="G22">
-        <v>-0</v>
+        <v>-0.0005052167903920961</v>
       </c>
       <c r="H22">
+        <v>0.0005052167903920961</v>
+      </c>
+      <c r="I22">
         <v>-0.0005052167903920961</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1084,18 +1153,21 @@
         <v>-0.3881693468273616</v>
       </c>
       <c r="F23">
-        <v>0.0009550838390117751</v>
+        <v>0.001191667978080219</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.001191667978080219</v>
       </c>
       <c r="H23">
+        <v>-0.001191667978080219</v>
+      </c>
+      <c r="I23">
         <v>0.001191667978080219</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1110,18 +1182,21 @@
         <v>0.02718201903071859</v>
       </c>
       <c r="F24">
-        <v>-0.001900386070986648</v>
+        <v>-0.0004955232516974829</v>
       </c>
       <c r="G24">
-        <v>-0</v>
+        <v>-0.0004955232516974829</v>
       </c>
       <c r="H24">
+        <v>0.0004955232516974829</v>
+      </c>
+      <c r="I24">
         <v>-0.0004955232516974829</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1136,18 +1211,21 @@
         <v>-0.0287731464566474</v>
       </c>
       <c r="F25">
-        <v>-0.0001670847104871715</v>
+        <v>9.955409119908802E-05</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9.955409119908802E-05</v>
       </c>
       <c r="H25">
+        <v>-9.955409119908802E-05</v>
+      </c>
+      <c r="I25">
         <v>9.955409119908802E-05</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0.006103662197318391</v>
@@ -1162,18 +1240,21 @@
         <v>-0.3074669339107046</v>
       </c>
       <c r="F26">
-        <v>0.002876845930748839</v>
+        <v>0.003839078842432401</v>
       </c>
       <c r="G26">
-        <v>-0.001092481374369323</v>
+        <v>-0.003327350859651405</v>
       </c>
       <c r="H26">
+        <v>0.002234869485282082</v>
+      </c>
+      <c r="I26">
         <v>0.002746597468063077</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1188,18 +1269,21 @@
         <v>-0.1425820823835861</v>
       </c>
       <c r="F27">
-        <v>0.0007344502680599094</v>
+        <v>0.001598329160228398</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.001598329160228398</v>
       </c>
       <c r="H27">
+        <v>-0.001598329160228398</v>
+      </c>
+      <c r="I27">
         <v>0.001598329160228398</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1214,18 +1298,21 @@
         <v>-0.1155223599559405</v>
       </c>
       <c r="F28">
-        <v>0.006415558098699422</v>
+        <v>0.01927124737537625</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.01927124737537625</v>
       </c>
       <c r="H28">
+        <v>-0.01927124737537625</v>
+      </c>
+      <c r="I28">
         <v>0.01927124737537625</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1240,18 +1327,21 @@
         <v>-0.1841628263649392</v>
       </c>
       <c r="F29">
-        <v>0.01636667773833837</v>
+        <v>0.0281434816902731</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0281434816902731</v>
       </c>
       <c r="H29">
+        <v>-0.0281434816902731</v>
+      </c>
+      <c r="I29">
         <v>0.0281434816902731</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>0.03732239343606164</v>
@@ -1266,18 +1356,21 @@
         <v>0.03571739605761558</v>
       </c>
       <c r="F30">
-        <v>-0.005401863213386774</v>
+        <v>-0.001710747345795495</v>
       </c>
       <c r="G30">
-        <v>0.01114826288778361</v>
+        <v>0.02545510551111489</v>
       </c>
       <c r="H30">
+        <v>-0.01430684262333128</v>
+      </c>
+      <c r="I30">
         <v>0.009437515541988116</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1286,12 +1379,15 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-0.01660452954347655</v>
+        <v>-0.01660452954347656</v>
       </c>
       <c r="G31">
-        <v>0.0503545653311335</v>
+        <v>0.1021632944318996</v>
       </c>
       <c r="H31">
+        <v>-0.05180872910076611</v>
+      </c>
+      <c r="I31">
         <v>0.03375003578765695</v>
       </c>
     </row>
@@ -1302,15 +1398,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1333,10 +1429,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1351,18 +1450,21 @@
         <v>0.3339815072391921</v>
       </c>
       <c r="F2">
-        <v>0.0006086239509243415</v>
+        <v>-0.01058397980420804</v>
       </c>
       <c r="G2">
-        <v>-0</v>
+        <v>-0.01058397980420804</v>
       </c>
       <c r="H2">
+        <v>0.01058397980420804</v>
+      </c>
+      <c r="I2">
         <v>-0.01058397980420804</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1377,18 +1479,21 @@
         <v>0.1117360142850656</v>
       </c>
       <c r="F3">
-        <v>0.004785603765519191</v>
+        <v>-0.002214629949429494</v>
       </c>
       <c r="G3">
-        <v>-0</v>
+        <v>-0.002214629949429494</v>
       </c>
       <c r="H3">
+        <v>0.002214629949429494</v>
+      </c>
+      <c r="I3">
         <v>-0.002214629949429494</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.3995399539953995</v>
@@ -1403,18 +1508,21 @@
         <v>0.6664495342861508</v>
       </c>
       <c r="F4">
-        <v>0.1190084111988701</v>
+        <v>0.2531840165235666</v>
       </c>
       <c r="G4">
-        <v>0.1119400986959524</v>
+        <v>0.005502642480829479</v>
       </c>
       <c r="H4">
+        <v>0.1064374562151229</v>
+      </c>
+      <c r="I4">
         <v>0.365124115219519</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.0018001800180018</v>
@@ -1429,18 +1537,21 @@
         <v>0.3209212646353716</v>
       </c>
       <c r="F5">
-        <v>0.001952405922066469</v>
+        <v>-0.01941908791952121</v>
       </c>
       <c r="G5">
-        <v>-0.0001976784051841873</v>
+        <v>-0.006842351586229199</v>
       </c>
       <c r="H5">
+        <v>0.006644673181045012</v>
+      </c>
+      <c r="I5">
         <v>-0.0196167663247054</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1455,18 +1566,21 @@
         <v>0.2305038758479087</v>
       </c>
       <c r="F6">
-        <v>0.0009679784834268226</v>
+        <v>-0.001818693767377674</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>-0.001818693767377674</v>
       </c>
       <c r="H6">
+        <v>0.001818693767377674</v>
+      </c>
+      <c r="I6">
         <v>-0.001818693767377674</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1481,18 +1595,21 @@
         <v>0.1983588393729301</v>
       </c>
       <c r="F7">
-        <v>0.002150582815645232</v>
+        <v>-0.002755231831208312</v>
       </c>
       <c r="G7">
-        <v>-0</v>
+        <v>-0.002755231831208312</v>
       </c>
       <c r="H7">
+        <v>0.002755231831208312</v>
+      </c>
+      <c r="I7">
         <v>-0.002755231831208312</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.0009000900090008999</v>
@@ -1507,18 +1624,21 @@
         <v>0.43041454738006</v>
       </c>
       <c r="F8">
-        <v>-0.0009607156895744816</v>
+        <v>-0.005354375646099364</v>
       </c>
       <c r="G8">
-        <v>-0.0002818611128533393</v>
+        <v>-0.004177432044030442</v>
       </c>
       <c r="H8">
+        <v>0.003895570931177102</v>
+      </c>
+      <c r="I8">
         <v>-0.005636236758952703</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1533,18 +1653,21 @@
         <v>0.465960470060155</v>
       </c>
       <c r="F9">
-        <v>-0.005530472777342068</v>
+        <v>-0.02285092996104961</v>
       </c>
       <c r="G9">
-        <v>-0</v>
+        <v>-0.02285092996104961</v>
       </c>
       <c r="H9">
+        <v>0.02285092996104961</v>
+      </c>
+      <c r="I9">
         <v>-0.02285092996104961</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0.0003000300030003</v>
@@ -1559,18 +1682,21 @@
         <v>0.3971183164859375</v>
       </c>
       <c r="F10">
-        <v>-0.0005491474183117216</v>
+        <v>-0.004964017872986077</v>
       </c>
       <c r="G10">
-        <v>-0.0001268177487206533</v>
+        <v>-0.005410403627056271</v>
       </c>
       <c r="H10">
+        <v>0.005283585878335617</v>
+      </c>
+      <c r="I10">
         <v>-0.005090835621706731</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1585,18 +1711,21 @@
         <v>0.02635345057251154</v>
       </c>
       <c r="F11">
-        <v>0.009916225029934488</v>
+        <v>-0.0007995716860868609</v>
       </c>
       <c r="G11">
-        <v>-0</v>
+        <v>-0.0007995716860868609</v>
       </c>
       <c r="H11">
+        <v>0.0007995716860868609</v>
+      </c>
+      <c r="I11">
         <v>-0.0007995716860868609</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1611,18 +1740,21 @@
         <v>0.2340765406024831</v>
       </c>
       <c r="F12">
-        <v>0.005468409789094174</v>
+        <v>-0.01074656144467445</v>
       </c>
       <c r="G12">
-        <v>-0</v>
+        <v>-0.01074656144467445</v>
       </c>
       <c r="H12">
+        <v>0.01074656144467445</v>
+      </c>
+      <c r="I12">
         <v>-0.01074656144467445</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.0001000100010001</v>
@@ -1637,18 +1769,21 @@
         <v>0.1682145040536736</v>
       </c>
       <c r="F13">
-        <v>0.004185964778106337</v>
+        <v>-0.003806730779960488</v>
       </c>
       <c r="G13">
-        <v>7.709306890152278E-05</v>
+        <v>0.01752167745263453</v>
       </c>
       <c r="H13">
+        <v>-0.017444584383733</v>
+      </c>
+      <c r="I13">
         <v>-0.003729637711058966</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0.0082008200820082</v>
@@ -1663,18 +1798,21 @@
         <v>0.2868672366492462</v>
       </c>
       <c r="F14">
-        <v>0.0007758984904252415</v>
+        <v>-0.003356168501287627</v>
       </c>
       <c r="G14">
-        <v>0.002335842300406221</v>
+        <v>0.005668180273498588</v>
       </c>
       <c r="H14">
+        <v>-0.003332337973092367</v>
+      </c>
+      <c r="I14">
         <v>-0.001020326200881406</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0.0001000100010001</v>
@@ -1689,18 +1827,21 @@
         <v>0.1450044460414313</v>
       </c>
       <c r="F15">
-        <v>0.005506478236879591</v>
+        <v>-0.003835404646671793</v>
       </c>
       <c r="G15">
-        <v>-2.142417462160529E-05</v>
+        <v>-0.005687606426264262</v>
       </c>
       <c r="H15">
+        <v>0.005666182251642657</v>
+      </c>
+      <c r="I15">
         <v>-0.003856828821293398</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1715,18 +1856,21 @@
         <v>0.418199281880096</v>
       </c>
       <c r="F16">
-        <v>-0.000542208958540716</v>
+        <v>-0.003487816889048891</v>
       </c>
       <c r="G16">
-        <v>-0</v>
+        <v>-0.003487816889048891</v>
       </c>
       <c r="H16">
+        <v>0.003487816889048891</v>
+      </c>
+      <c r="I16">
         <v>-0.003487816889048891</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1741,18 +1885,21 @@
         <v>0.1730059254327604</v>
       </c>
       <c r="F17">
-        <v>0.001782007336500382</v>
+        <v>-0.00171104571298713</v>
       </c>
       <c r="G17">
-        <v>-0</v>
+        <v>-0.00171104571298713</v>
       </c>
       <c r="H17">
+        <v>0.00171104571298713</v>
+      </c>
+      <c r="I17">
         <v>-0.00171104571298713</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0.0002000200020002</v>
@@ -1767,18 +1914,21 @@
         <v>0.03873520808123952</v>
       </c>
       <c r="F18">
-        <v>0.007446284095701607</v>
+        <v>-0.0009172582026423024</v>
       </c>
       <c r="G18">
-        <v>6.979978906265835E-05</v>
+        <v>0.008333344738047381</v>
       </c>
       <c r="H18">
+        <v>-0.008263544948984722</v>
+      </c>
+      <c r="I18">
         <v>-0.0008474584135796441</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0.007700770077007701</v>
@@ -1793,18 +1943,21 @@
         <v>0.330038590291901</v>
       </c>
       <c r="F19">
-        <v>0.00023332092347662</v>
+        <v>-0.003326593516460493</v>
       </c>
       <c r="G19">
-        <v>-0.001487421661013739</v>
+        <v>-0.003434282719075372</v>
       </c>
       <c r="H19">
+        <v>0.001946861058061633</v>
+      </c>
+      <c r="I19">
         <v>-0.004814015177474233</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>0.2781278127812782</v>
@@ -1819,18 +1972,21 @@
         <v>0.277578640852963</v>
       </c>
       <c r="F20">
-        <v>-0.01797944041697489</v>
+        <v>0.06600748172104921</v>
       </c>
       <c r="G20">
-        <v>0.04974231175936691</v>
+        <v>0.007212969729524485</v>
       </c>
       <c r="H20">
+        <v>0.04252934202984242</v>
+      </c>
+      <c r="I20">
         <v>0.1157497934804161</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1845,18 +2001,21 @@
         <v>0.1082906784219584</v>
       </c>
       <c r="F21">
-        <v>0.004126542050332621</v>
+        <v>-0.001824716178571785</v>
       </c>
       <c r="G21">
-        <v>-0</v>
+        <v>-0.001824716178571785</v>
       </c>
       <c r="H21">
+        <v>0.001824716178571785</v>
+      </c>
+      <c r="I21">
         <v>-0.001824716178571785</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1871,18 +2030,21 @@
         <v>0.116890836</v>
       </c>
       <c r="F22">
-        <v>0.0003119138806363253</v>
+        <v>-0.000154297446494465</v>
       </c>
       <c r="G22">
-        <v>-0</v>
+        <v>-0.000154297446494465</v>
       </c>
       <c r="H22">
+        <v>0.000154297446494465</v>
+      </c>
+      <c r="I22">
         <v>-0.000154297446494465</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1897,18 +2059,21 @@
         <v>0.1437919333181819</v>
       </c>
       <c r="F23">
-        <v>0.0003685387694377194</v>
+        <v>-0.0002530763334033339</v>
       </c>
       <c r="G23">
-        <v>-0</v>
+        <v>-0.0002530763334033339</v>
       </c>
       <c r="H23">
+        <v>0.0002530763334033339</v>
+      </c>
+      <c r="I23">
         <v>-0.0002530763334033339</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>0.1497149714971497</v>
@@ -1923,18 +2088,21 @@
         <v>0.4687862628741692</v>
       </c>
       <c r="F24">
-        <v>0.01469785574683676</v>
+        <v>0.05960371022527398</v>
       </c>
       <c r="G24">
-        <v>0.04494151014265112</v>
+        <v>0.006775140903922358</v>
       </c>
       <c r="H24">
+        <v>0.03816636923872876</v>
+      </c>
+      <c r="I24">
         <v>0.1045452203679251</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1949,18 +2117,21 @@
         <v>0.359072895</v>
       </c>
       <c r="F25">
-        <v>-6.415834201451351E-06</v>
+        <v>-0.0003913933694836949</v>
       </c>
       <c r="G25">
-        <v>-0</v>
+        <v>-0.0003913933694836949</v>
       </c>
       <c r="H25">
+        <v>0.0003913933694836949</v>
+      </c>
+      <c r="I25">
         <v>-0.0003913933694836949</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0.1511151115111511</v>
@@ -1975,18 +2146,21 @@
         <v>0.3002424503343109</v>
       </c>
       <c r="F26">
-        <v>-0.006917447887975881</v>
+        <v>0.039228149398591</v>
       </c>
       <c r="G26">
-        <v>0.0292979699328789</v>
+        <v>0.003966793613536529</v>
       </c>
       <c r="H26">
+        <v>0.02533117631934237</v>
+      </c>
+      <c r="I26">
         <v>0.0685261193314699</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2001,18 +2175,21 @@
         <v>0.09173822373511904</v>
       </c>
       <c r="F27">
-        <v>0.002635428682806973</v>
+        <v>-0.0009247305425554255</v>
       </c>
       <c r="G27">
-        <v>-0</v>
+        <v>-0.0009247305425554255</v>
       </c>
       <c r="H27">
+        <v>0.0009247305425554255</v>
+      </c>
+      <c r="I27">
         <v>-0.0009247305425554255</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2027,18 +2204,21 @@
         <v>0.2192055672857815</v>
       </c>
       <c r="F28">
-        <v>0.02277570896988277</v>
+        <v>-0.03726312701418014</v>
       </c>
       <c r="G28">
-        <v>-0</v>
+        <v>-0.03726312701418014</v>
       </c>
       <c r="H28">
+        <v>0.03726312701418014</v>
+      </c>
+      <c r="I28">
         <v>-0.03726312701418014</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>0.0022002200220022</v>
@@ -2053,18 +2233,21 @@
         <v>0.4901297068274342</v>
       </c>
       <c r="F29">
-        <v>-0.0245376362208541</v>
+        <v>-0.08782222203617251</v>
       </c>
       <c r="G29">
-        <v>-1.133934815517076E-05</v>
+        <v>-0.0009347935730666555</v>
       </c>
       <c r="H29">
+        <v>0.0009234542249114847</v>
+      </c>
+      <c r="I29">
         <v>-0.08783356138432769</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2079,18 +2262,21 @@
         <v>0.7569694182089006</v>
       </c>
       <c r="F30">
-        <v>-0.03974067605368038</v>
+        <v>-0.07450167515687157</v>
       </c>
       <c r="G30">
-        <v>-0</v>
+        <v>-0.07450167515687157</v>
       </c>
       <c r="H30">
+        <v>0.07450167515687157</v>
+      </c>
+      <c r="I30">
         <v>-0.07450167515687157</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2099,12 +2285,15 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.1129400216590481</v>
+        <v>0.112940021659048</v>
       </c>
       <c r="G31">
-        <v>0.236278083238671</v>
+        <v>-0.1437875978713598</v>
       </c>
       <c r="H31">
+        <v>0.3800656811100308</v>
+      </c>
+      <c r="I31">
         <v>0.3492181048977193</v>
       </c>
     </row>
@@ -2115,15 +2304,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2146,779 +2335,872 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03217032170321703</v>
+        <v>0.03341100233006991</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1408332351824681</v>
+        <v>0.127252648536965</v>
       </c>
       <c r="F2">
-        <v>0.001042856684956497</v>
+        <v>-0.004251638536776105</v>
       </c>
       <c r="G2">
-        <v>-0</v>
+        <v>-0.004251638536776105</v>
       </c>
       <c r="H2">
-        <v>-0.004530650482324823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.004251638536776105</v>
+      </c>
+      <c r="I2">
+        <v>-0.004251638536776105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03220032200322003</v>
+        <v>0.02499074972249168</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.08226676148944098</v>
+        <v>0.04472417987795122</v>
       </c>
       <c r="F3">
-        <v>0.008227720928383166</v>
+        <v>-0.001117690785873577</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-0.001117690785873577</v>
       </c>
       <c r="H3">
-        <v>0.002649016210122101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.001117690785873577</v>
+      </c>
+      <c r="I3">
+        <v>-0.001117690785873577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.08878878878878879</v>
+        <v>0.0928092809280928</v>
       </c>
       <c r="C4">
-        <v>0.006230062300623006</v>
+        <v>0.004710141304239128</v>
       </c>
       <c r="D4">
-        <v>-0.1881255230045096</v>
+        <v>-0.02082805359267241</v>
       </c>
       <c r="E4">
-        <v>-0.0780077400128411</v>
+        <v>0.3072868837070064</v>
       </c>
       <c r="F4">
-        <v>-0.02074351629545604</v>
+        <v>0.02707171007228245</v>
       </c>
       <c r="G4">
-        <v>-0.009777224575936931</v>
+        <v>-0.001545467718713049</v>
       </c>
       <c r="H4">
-        <v>-0.01621744424761703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.0289066436738364</v>
+      </c>
+      <c r="I4">
+        <v>-0.003380401320267003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.113013013013013</v>
+        <v>0.0014001400140014</v>
       </c>
       <c r="C5">
-        <v>0.05089050890508905</v>
+        <v>0.05369161074832245</v>
       </c>
       <c r="D5">
-        <v>0.08168014046944201</v>
+        <v>0.05072624585714286</v>
       </c>
       <c r="E5">
-        <v>0.206915402782865</v>
+        <v>0.1638702741233005</v>
       </c>
       <c r="F5">
-        <v>0.002091381184650771</v>
+        <v>-0.008569017643543737</v>
       </c>
       <c r="G5">
-        <v>-0.01415321432951497</v>
+        <v>-0.00607488512416373</v>
       </c>
       <c r="H5">
-        <v>-0.001299111370143697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.005916467642842978</v>
+      </c>
+      <c r="I5">
+        <v>-0.008727435124864491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.0006006006006006007</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01344013440134401</v>
+        <v>0.01088032640979229</v>
       </c>
       <c r="D6">
-        <v>-0.181038961</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07778024638095238</v>
+        <v>0.1269521015891544</v>
       </c>
       <c r="F6">
-        <v>0.00122578670236912</v>
+        <v>-0.001381280303699111</v>
       </c>
       <c r="G6">
-        <v>-0.0001554469713999714</v>
+        <v>-0.001381280303699111</v>
       </c>
       <c r="H6">
-        <v>-0.00115410907383836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.001381280303699111</v>
+      </c>
+      <c r="I6">
+        <v>-0.001381280303699111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01768017680176802</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.1178597473421946</v>
+        <v>-0.05976910255055402</v>
       </c>
       <c r="F7">
-        <v>0.005146871214885549</v>
+        <v>0.0008630917335820076</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008630917335820076</v>
       </c>
       <c r="H7">
-        <v>0.002083781170821708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.0008630917335820076</v>
+      </c>
+      <c r="I7">
+        <v>0.0008630917335820076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.05835835835835836</v>
+        <v>0.0259025902590259</v>
       </c>
       <c r="C8">
-        <v>0.02310023100231003</v>
+        <v>0.0223406702201066</v>
       </c>
       <c r="D8">
-        <v>0.04978148575814751</v>
+        <v>0.1431274195366795</v>
       </c>
       <c r="E8">
-        <v>0.1628564961904762</v>
+        <v>0.08972521673455684</v>
       </c>
       <c r="F8">
-        <v>-0.0003664543106999314</v>
+        <v>0.0003195940474831949</v>
       </c>
       <c r="G8">
-        <v>-0.006598871980184947</v>
+        <v>0.001193041001829476</v>
       </c>
       <c r="H8">
-        <v>-0.000856856896741337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.0001902143762833129</v>
+      </c>
+      <c r="I8">
+        <v>0.001702849425595984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0002000200020002</v>
       </c>
       <c r="C9">
-        <v>0.04768047680476805</v>
+        <v>0.05073152194565837</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.08799791650000001</v>
       </c>
       <c r="E9">
-        <v>0.5646672683684982</v>
+        <v>0.198318952668835</v>
       </c>
       <c r="F9">
-        <v>-0.01866296356804574</v>
+        <v>-0.01002135454224949</v>
       </c>
       <c r="G9">
-        <v>-0</v>
+        <v>-0.005596754067467024</v>
       </c>
       <c r="H9">
-        <v>-0.02692360459185592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.005574687653591869</v>
+      </c>
+      <c r="I9">
+        <v>-0.01004342095612464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01781781781781782</v>
+        <v>0.04830483048304831</v>
       </c>
       <c r="C10">
-        <v>0.004370043700437006</v>
+        <v>0.005000150004500136</v>
       </c>
       <c r="D10">
-        <v>0.173674589</v>
+        <v>0.290109034</v>
       </c>
       <c r="E10">
-        <v>0.372757758</v>
+        <v>0.290365156</v>
       </c>
       <c r="F10">
-        <v>0.002682935710609146</v>
+        <v>0.0125741703026838</v>
       </c>
       <c r="G10">
-        <v>-0.003547227635835836</v>
+        <v>-1.28064841945271E-06</v>
       </c>
       <c r="H10">
-        <v>0.001465534494249465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-1.109128137352781E-05</v>
+      </c>
+      <c r="I10">
+        <v>0.01256179837289082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1264264264264264</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04562045620456205</v>
+        <v>0.03747112413372401</v>
       </c>
       <c r="D11">
-        <v>0.1992262039049882</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06904683561047785</v>
+        <v>-0.03563286298452096</v>
       </c>
       <c r="F11">
-        <v>-0.008420235116562674</v>
+        <v>0.001335203432132964</v>
       </c>
       <c r="G11">
-        <v>0.01645811232792458</v>
+        <v>0.001335203432132964</v>
       </c>
       <c r="H11">
-        <v>0.02203750887017882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.001335203432132964</v>
+      </c>
+      <c r="I11">
+        <v>0.001335203432132964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05636056360563606</v>
+        <v>0.05031150934528036</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1686297052212562</v>
+        <v>0.1566460418246869</v>
       </c>
       <c r="F12">
-        <v>0.0002604005470278437</v>
+        <v>-0.007881098797163914</v>
       </c>
       <c r="G12">
-        <v>-0</v>
+        <v>-0.007881098797163914</v>
       </c>
       <c r="H12">
-        <v>-0.00950406522692227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.007881098797163914</v>
+      </c>
+      <c r="I12">
+        <v>-0.007881098797163914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.114014014014014</v>
+        <v>0.5138513851385138</v>
       </c>
       <c r="C13">
-        <v>0.02399023990239902</v>
+        <v>0.03354100623018691</v>
       </c>
       <c r="D13">
-        <v>0.02802166474275681</v>
+        <v>0.3322144132296614</v>
       </c>
       <c r="E13">
-        <v>0.08603578244018339</v>
+        <v>0.2946988356979726</v>
       </c>
       <c r="F13">
-        <v>-0.007851350032846673</v>
+        <v>0.141546909437936</v>
       </c>
       <c r="G13">
-        <v>-0.006614422428165054</v>
+        <v>0.001258310219719437</v>
       </c>
       <c r="H13">
-        <v>0.001130843415746068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.0180191212592102</v>
+      </c>
+      <c r="I13">
+        <v>0.1608243409168656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.002102102102102102</v>
+        <v>0.0003000300030003001</v>
       </c>
       <c r="C14">
-        <v>0.02547025470254703</v>
+        <v>0.0220706621198636</v>
       </c>
       <c r="D14">
-        <v>0.7895179627142858</v>
+        <v>0.1649205296666667</v>
       </c>
       <c r="E14">
-        <v>0.05230462518138987</v>
+        <v>0.1158965186311735</v>
       </c>
       <c r="F14">
-        <v>0.002826269199440872</v>
+        <v>-0.002523140470744473</v>
       </c>
       <c r="G14">
-        <v>0.001549697706525607</v>
+        <v>0.001081992383324833</v>
       </c>
       <c r="H14">
-        <v>0.0003274352435778142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.001067283709146767</v>
+      </c>
+      <c r="I14">
+        <v>-0.002508431796566407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.002402402402402403</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03569035690356903</v>
+        <v>0.03534106023180696</v>
       </c>
       <c r="D15">
-        <v>1.728464183</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.26967472591174</v>
+        <v>0.1202594440537635</v>
       </c>
       <c r="F15">
-        <v>-0.003209782993835093</v>
+        <v>-0.004250096255747673</v>
       </c>
       <c r="G15">
-        <v>0.003504599296308133</v>
+        <v>-0.004250096255747673</v>
       </c>
       <c r="H15">
-        <v>-0.005472320709956451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.004250096255747673</v>
+      </c>
+      <c r="I15">
+        <v>-0.004250096255747673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004290042900429004</v>
+        <v>0.004760142804284129</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.273255113027972</v>
+        <v>0.3078220471932773</v>
       </c>
       <c r="F16">
-        <v>-0.0004290263675478505</v>
+        <v>-0.001465276902947089</v>
       </c>
       <c r="G16">
-        <v>-0</v>
+        <v>-0.001465276902947089</v>
       </c>
       <c r="H16">
-        <v>-0.001172276157651576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.001465276902947089</v>
+      </c>
+      <c r="I16">
+        <v>-0.001465276902947089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009760097600976011</v>
+        <v>0.01192035761072832</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.251634772262295</v>
+        <v>0.1118189550713087</v>
       </c>
       <c r="F17">
-        <v>-0.0007650433516685628</v>
+        <v>-0.001332921932107963</v>
       </c>
       <c r="G17">
-        <v>-0</v>
+        <v>-0.001332921932107963</v>
       </c>
       <c r="H17">
-        <v>-0.00245597993707937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.001332921932107963</v>
+      </c>
+      <c r="I17">
+        <v>-0.001332921932107963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.005400540054005401</v>
       </c>
       <c r="C18">
-        <v>0.03225032250322503</v>
+        <v>0.03043091292738782</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3701443114074074</v>
       </c>
       <c r="E18">
-        <v>0.1632063515807752</v>
+        <v>-0.03522001545678607</v>
       </c>
       <c r="F18">
-        <v>0.0003239098301725787</v>
+        <v>0.0008815701194896477</v>
       </c>
       <c r="G18">
-        <v>-0</v>
+        <v>0.01233560653467345</v>
       </c>
       <c r="H18">
-        <v>-0.00526345747305473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>-0.01014642025097843</v>
+      </c>
+      <c r="I18">
+        <v>0.003070756403184662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.09229229229229229</v>
+        <v>0.04160416041604161</v>
       </c>
       <c r="C19">
-        <v>0.01321013210132101</v>
+        <v>0.01763052891586748</v>
       </c>
       <c r="D19">
-        <v>0.1156022915043384</v>
+        <v>-0.08857839898076925</v>
       </c>
       <c r="E19">
-        <v>0.04029329596593489</v>
+        <v>0.3776797872819059</v>
       </c>
       <c r="F19">
-        <v>-0.0105145007419813</v>
+        <v>0.009054356045360562</v>
       </c>
       <c r="G19">
-        <v>0.006950439828469273</v>
+        <v>-0.008220378435164018</v>
       </c>
       <c r="H19">
-        <v>0.01013692071466955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>-0.01117790194140092</v>
+      </c>
+      <c r="I19">
+        <v>-0.01034392433120438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.08878878878878881</v>
+        <v>0.0981098109810981</v>
       </c>
       <c r="C20">
-        <v>0.04510045100451004</v>
+        <v>0.04934148024440733</v>
       </c>
       <c r="D20">
-        <v>0.2200444458184893</v>
+        <v>0.02299688522528032</v>
       </c>
       <c r="E20">
-        <v>0.589264033878714</v>
+        <v>0.2155516662829348</v>
       </c>
       <c r="F20">
-        <v>0.01817496308520199</v>
+        <v>0.01051209495213096</v>
       </c>
       <c r="G20">
-        <v>-0.0327825600209629</v>
+        <v>-0.009500937925522437</v>
       </c>
       <c r="H20">
-        <v>-0.007038593864742961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.009390575247550772</v>
+      </c>
+      <c r="I20">
+        <v>-0.008379418220942248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.001501501501501501</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01412014120141201</v>
+        <v>0.01231036931107933</v>
       </c>
       <c r="D21">
-        <v>-0.155364018</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.006043006896600582</v>
+        <v>0.04978191737774169</v>
       </c>
       <c r="F21">
-        <v>0.002109924382437873</v>
+        <v>-0.0006128337879336383</v>
       </c>
       <c r="G21">
-        <v>-0.000242352890235136</v>
+        <v>-0.0006128337879336383</v>
       </c>
       <c r="H21">
-        <v>-0.0003186074169674131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.0006128337879336383</v>
+      </c>
+      <c r="I21">
+        <v>-0.0006128337879336383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.003200032000320003</v>
+        <v>0.002720081602448074</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.017382495471875</v>
+        <v>-0.1318392107058823</v>
       </c>
       <c r="F22">
-        <v>0.0004987808960841914</v>
+        <v>0.0003586134115223456</v>
       </c>
       <c r="G22">
-        <v>-0</v>
+        <v>0.0003586134115223456</v>
       </c>
       <c r="H22">
-        <v>-5.562454175541755E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.0003586134115223456</v>
+      </c>
+      <c r="I22">
+        <v>0.0003586134115223456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.04690469046904691</v>
       </c>
       <c r="C23">
-        <v>0.006370063700637005</v>
+        <v>0.003780113403402101</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.392318244</v>
       </c>
       <c r="E23">
-        <v>0.1254370819795919</v>
+        <v>-0.08370185025925928</v>
       </c>
       <c r="F23">
-        <v>0.000304571122067445</v>
+        <v>-0.003609606892042489</v>
       </c>
       <c r="G23">
-        <v>-0</v>
+        <v>0.001799409938598158</v>
       </c>
       <c r="H23">
-        <v>-0.0007990422026320265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.02052816523967893</v>
+      </c>
+      <c r="I23">
+        <v>0.0187179682862346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01933019330193302</v>
+        <v>0.01558046741402242</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-0.06311869636937403</v>
+        <v>0.1349425418055199</v>
       </c>
       <c r="F24">
-        <v>0.004569051949735906</v>
+        <v>-0.002102467875366261</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>-0.002102467875366261</v>
       </c>
       <c r="H24">
-        <v>0.001220096601786018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.002102467875366261</v>
+      </c>
+      <c r="I24">
+        <v>-0.002102467875366261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.003003003003003003</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0003200032000320004</v>
+        <v>0.002370071102133064</v>
       </c>
       <c r="D25">
-        <v>0.310176298</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.083815029</v>
+        <v>-0.0841430854556962</v>
       </c>
       <c r="F25">
-        <v>-0.0002399539205172782</v>
+        <v>0.0001994250952828585</v>
       </c>
       <c r="G25">
-        <v>0.0006797635705705706</v>
+        <v>0.0001994250952828585</v>
       </c>
       <c r="H25">
-        <v>0.0009046392768635795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.0001994250952828585</v>
+      </c>
+      <c r="I25">
+        <v>0.0001994250952828585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.002700270027002701</v>
       </c>
       <c r="C26">
-        <v>0.02550025500255003</v>
+        <v>0.02515075452263568</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.208924103</v>
       </c>
       <c r="E26">
-        <v>0.1539101228610393</v>
+        <v>0.1789227502894632</v>
       </c>
       <c r="F26">
-        <v>0.0004931709523540778</v>
+        <v>-0.004016902431289605</v>
       </c>
       <c r="G26">
-        <v>-0</v>
+        <v>0.0007545566573697218</v>
       </c>
       <c r="H26">
-        <v>-0.003924747380430306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.0006735449038759231</v>
+      </c>
+      <c r="I26">
+        <v>-0.003935890677795807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.0578057805780578</v>
       </c>
       <c r="C27">
-        <v>0.01136011360113601</v>
+        <v>0.01260037801134034</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.2976730022698962</v>
       </c>
       <c r="E27">
-        <v>0.1175327676628521</v>
+        <v>0.169332502647619</v>
       </c>
       <c r="F27">
-        <v>0.0006329537118246867</v>
+        <v>0.007654743949815369</v>
       </c>
       <c r="G27">
-        <v>-0</v>
+        <v>0.001617138809404975</v>
       </c>
       <c r="H27">
-        <v>-0.001335185592505925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.005801683951038692</v>
+      </c>
+      <c r="I27">
+        <v>0.01507356671025904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.0001001001001001001</v>
+        <v>0.0004000400040004001</v>
       </c>
       <c r="C28">
-        <v>0.1720817208172082</v>
+        <v>0.1684250527515825</v>
       </c>
       <c r="D28">
-        <v>-0.018720749</v>
+        <v>0.221946999</v>
       </c>
       <c r="E28">
-        <v>0.1012866366311018</v>
+        <v>0.1004135725492816</v>
       </c>
       <c r="F28">
-        <v>0.01237637015600348</v>
+        <v>-0.0168719918076233</v>
       </c>
       <c r="G28">
-        <v>-1.201275131442461E-05</v>
+        <v>0.02046927376104282</v>
       </c>
       <c r="H28">
-        <v>-0.01743145267611612</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02042065552863929</v>
+      </c>
+      <c r="I28">
+        <v>-0.01682337357521977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.1794794794794795</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.1719817198171982</v>
+        <v>0.1723151694550837</v>
       </c>
       <c r="D29">
-        <v>0.04962613912493029</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.1332537763412025</v>
+        <v>0.1640107053395044</v>
       </c>
       <c r="F29">
-        <v>-0.000299881823526008</v>
+        <v>-0.02826153248302449</v>
       </c>
       <c r="G29">
-        <v>-0.01500944479767528</v>
+        <v>-0.02826153248302449</v>
       </c>
       <c r="H29">
-        <v>-0.01401034000857756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.02826153248302449</v>
+      </c>
+      <c r="I29">
+        <v>-0.02826153248302449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1113113113113113</v>
+        <v>0.06430643064306429</v>
       </c>
       <c r="C30">
-        <v>0.05623056230562306</v>
+        <v>0.07173215196455894</v>
       </c>
       <c r="D30">
-        <v>0.1449187744784173</v>
+        <v>0.2022266755147745</v>
       </c>
       <c r="E30">
-        <v>0.4093781089379335</v>
+        <v>0.4487996443642828</v>
       </c>
       <c r="F30">
-        <v>0.01300611492984471</v>
+        <v>-0.00333266108823507</v>
       </c>
       <c r="G30">
-        <v>-0.02943731530720541</v>
+        <v>-0.01768720967186539</v>
       </c>
       <c r="H30">
-        <v>-0.006888462440371793</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.001830982152090029</v>
+      </c>
+      <c r="I30">
+        <v>-0.01918888860801043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.004491324665362751</v>
+        <v>0.1107699700633341</v>
       </c>
       <c r="G31">
-        <v>-0.0891874809586327</v>
+        <v>-0.05801808827347188</v>
       </c>
       <c r="H31">
-        <v>-0.08469615629326994</v>
+        <v>0.02596770972605362</v>
+      </c>
+      <c r="I31">
+        <v>0.0787195915159159</v>
       </c>
     </row>
   </sheetData>
@@ -2928,15 +3210,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2959,764 +3241,854 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03316999999999999</v>
+        <v>0.03217032170321703</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.159787996059994</v>
+        <v>0.1408332351824681</v>
       </c>
       <c r="F2">
-        <v>0.001969078093113403</v>
+        <v>-0.004530650482324823</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.004530650482324823</v>
       </c>
       <c r="H2">
-        <v>0.00530016782931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.004530650482324823</v>
+      </c>
+      <c r="I2">
+        <v>-0.004530650482324823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01694</v>
+        <v>0.03220032200322003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.1875310775129871</v>
+        <v>-0.08226676148944098</v>
       </c>
       <c r="F3">
-        <v>0.001475580790387747</v>
+        <v>0.002649016210122101</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.002649016210122101</v>
       </c>
       <c r="H3">
-        <v>0.00317677645307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-0.002649016210122101</v>
+      </c>
+      <c r="I3">
+        <v>0.002649016210122101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.2722727727227278</v>
+        <v>0.08878878878878879</v>
       </c>
       <c r="C4">
-        <v>0.0072</v>
+        <v>0.006230062300623006</v>
       </c>
       <c r="D4">
-        <v>0.009109680315828129</v>
+        <v>-0.1881255230045096</v>
       </c>
       <c r="E4">
-        <v>0.1622904051055556</v>
+        <v>-0.0780077400128411</v>
       </c>
       <c r="F4">
-        <v>0.06963864082294095</v>
+        <v>-0.006440219671680094</v>
       </c>
       <c r="G4">
-        <v>-0.04170694066617617</v>
+        <v>-0.0006860406484445791</v>
       </c>
       <c r="H4">
-        <v>0.001311827001448179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.009091183927492353</v>
+      </c>
+      <c r="I4">
+        <v>-0.01621744424761703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.0156984301569843</v>
+        <v>0.113013013013013</v>
       </c>
       <c r="C5">
-        <v>0.06671999999999999</v>
+        <v>0.05089050890508905</v>
       </c>
       <c r="D5">
-        <v>-0.3444210275095542</v>
+        <v>0.081680140469442</v>
       </c>
       <c r="E5">
-        <v>-0.2923862644856116</v>
+        <v>0.206915402782865</v>
       </c>
       <c r="F5">
-        <v>0.009794176620719899</v>
+        <v>0.01285410295937127</v>
       </c>
       <c r="G5">
-        <v>-0.0008168640930665925</v>
+        <v>-0.006373286231992415</v>
       </c>
       <c r="H5">
-        <v>0.0141011421215245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-0.007779928097522554</v>
+      </c>
+      <c r="I5">
+        <v>-0.001299111370143699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0006006006006006007</v>
       </c>
       <c r="C6">
-        <v>0.008489999999999999</v>
+        <v>0.01344013440134401</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.181038961</v>
       </c>
       <c r="E6">
-        <v>-0.1570119258162544</v>
+        <v>0.07778024638095238</v>
       </c>
       <c r="F6">
-        <v>0.0004804249233693544</v>
+        <v>-0.0009986621024383885</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0.003478564932849328</v>
       </c>
       <c r="H6">
-        <v>0.00133303125018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.003323117961449357</v>
+      </c>
+      <c r="I6">
+        <v>-0.00115410907383836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01546</v>
+        <v>0.01768017680176802</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.01965528767011646</v>
+        <v>-0.1178597473421946</v>
       </c>
       <c r="F7">
-        <v>-0.001248696250557877</v>
+        <v>0.002083781170821708</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.002083781170821708</v>
       </c>
       <c r="H7">
-        <v>0.0003038707473800004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.002083781170821708</v>
+      </c>
+      <c r="I7">
+        <v>0.002083781170821708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.004399560043995601</v>
+        <v>0.05835835835835836</v>
       </c>
       <c r="C8">
-        <v>0.01494</v>
+        <v>0.02310023100231003</v>
       </c>
       <c r="D8">
-        <v>-0.187022901</v>
+        <v>0.04978148575814751</v>
       </c>
       <c r="E8">
-        <v>-0.3253300934698795</v>
+        <v>0.1628564961904762</v>
       </c>
       <c r="F8">
-        <v>0.002370601021182181</v>
+        <v>0.00574201508344361</v>
       </c>
       <c r="G8">
-        <v>0.0006084907977876912</v>
+        <v>-0.002612058861575409</v>
       </c>
       <c r="H8">
-        <v>0.004037613113888255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.003986813118609538</v>
+      </c>
+      <c r="I8">
+        <v>-0.000856856896741337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04807999999999999</v>
+        <v>0.04768047680476805</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.2606544336108569</v>
+        <v>0.5646672683684982</v>
       </c>
       <c r="F9">
-        <v>0.007703842059287287</v>
+        <v>-0.02692360459185592</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.02692360459185592</v>
       </c>
       <c r="H9">
-        <v>0.01253226516801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.02692360459185592</v>
+      </c>
+      <c r="I9">
+        <v>-0.02692360459185592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.06579342065793421</v>
+        <v>0.01781781781781782</v>
       </c>
       <c r="C10">
-        <v>0.01278</v>
+        <v>0.004370043700437006</v>
       </c>
       <c r="D10">
-        <v>-0.2580962802765958</v>
+        <v>0.173674589</v>
       </c>
       <c r="E10">
-        <v>-0.1655586962018779</v>
+        <v>0.372757758</v>
       </c>
       <c r="F10">
-        <v>-0.00345297204457206</v>
+        <v>0.005012762130085302</v>
       </c>
       <c r="G10">
-        <v>-0.006088364195696864</v>
+        <v>-0.0008700021485514858</v>
       </c>
       <c r="H10">
-        <v>-0.01486519700102615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.002677225487284351</v>
+      </c>
+      <c r="I10">
+        <v>0.001465534494249465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1264264264264264</v>
       </c>
       <c r="C11">
-        <v>0.0393</v>
+        <v>0.04562045620456205</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1992262039049882</v>
       </c>
       <c r="E11">
-        <v>0.002063344310941478</v>
+        <v>0.06904683561047785</v>
       </c>
       <c r="F11">
-        <v>-0.004027783029024049</v>
+        <v>0.005579396542254238</v>
       </c>
       <c r="G11">
-        <v>-0</v>
+        <v>0.005938842170017262</v>
       </c>
       <c r="H11">
-        <v>-8.108943142000008E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.01051927015790732</v>
+      </c>
+      <c r="I11">
+        <v>0.02203750887017882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04780999999999999</v>
+        <v>0.05636056360563606</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.04985624039866136</v>
+        <v>0.1686297052212562</v>
       </c>
       <c r="F12">
-        <v>-0.002417681566424212</v>
+        <v>-0.00950406522692227</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-0.00950406522692227</v>
       </c>
       <c r="H12">
-        <v>0.00238362685346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.00950406522692227</v>
+      </c>
+      <c r="I12">
+        <v>-0.00950406522692227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0001999800019998</v>
+        <v>0.114014014014014</v>
       </c>
       <c r="C13">
-        <v>0.02725</v>
+        <v>0.02399023990239902</v>
       </c>
       <c r="D13">
-        <v>-0.48697033</v>
+        <v>0.02802166474275681</v>
       </c>
       <c r="E13">
-        <v>-0.1712151430752294</v>
+        <v>0.08603578244018339</v>
       </c>
       <c r="F13">
-        <v>0.001914880913326874</v>
+        <v>0.007745265843911121</v>
       </c>
       <c r="G13">
-        <v>-6.314472291266287E-05</v>
+        <v>-0.001391772601287277</v>
       </c>
       <c r="H13">
-        <v>0.004568228321232757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.005222649826877777</v>
+      </c>
+      <c r="I13">
+        <v>0.001130843415746068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.04679532046795321</v>
+        <v>0.002102102102102102</v>
       </c>
       <c r="C14">
-        <v>0.02119</v>
+        <v>0.02547025470254703</v>
       </c>
       <c r="D14">
-        <v>0.258263712</v>
+        <v>0.7895179627142858</v>
       </c>
       <c r="E14">
-        <v>-0.008187446495044833</v>
+        <v>0.05230462518138987</v>
       </c>
       <c r="F14">
-        <v>0.002361766316452951</v>
+        <v>-0.001222262462947793</v>
       </c>
       <c r="G14">
-        <v>0.01246866735083301</v>
+        <v>0.01877701147707763</v>
       </c>
       <c r="H14">
-        <v>0.01225902515951317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.01722731377055202</v>
+      </c>
+      <c r="I14">
+        <v>0.0003274352435778142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.08509149085091491</v>
+        <v>0.002402402402402403</v>
       </c>
       <c r="C15">
-        <v>0.03271999999999999</v>
+        <v>0.03569035690356903</v>
       </c>
       <c r="D15">
-        <v>0.07318572700000001</v>
+        <v>1.728464183</v>
       </c>
       <c r="E15">
-        <v>-0.1434707250155868</v>
+        <v>0.26967472591174</v>
       </c>
       <c r="F15">
-        <v>-0.002254380657228066</v>
+        <v>-0.008976920006264584</v>
       </c>
       <c r="G15">
-        <v>0.01843562050447599</v>
+        <v>0.0520647163706437</v>
       </c>
       <c r="H15">
-        <v>0.01092184474194806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04856011707433557</v>
+      </c>
+      <c r="I15">
+        <v>-0.005472320709956451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.00791</v>
+        <v>0.004290042900429004</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-0.07081249415423516</v>
+        <v>0.273255113027972</v>
       </c>
       <c r="F16">
-        <v>-0.0002342331294346061</v>
+        <v>-0.001172276157651576</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-0.001172276157651576</v>
       </c>
       <c r="H16">
-        <v>0.0005601268287600001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.001172276157651576</v>
+      </c>
+      <c r="I16">
+        <v>-0.001172276157651576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0105</v>
+        <v>0.009760097600976011</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-0.1053272519180953</v>
+        <v>0.251634772262295</v>
       </c>
       <c r="F17">
-        <v>5.147602364273556E-05</v>
+        <v>-0.00245597993707937</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-0.00245597993707937</v>
       </c>
       <c r="H17">
-        <v>0.00110593614514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.00245597993707937</v>
+      </c>
+      <c r="I17">
+        <v>-0.00245597993707937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0.0020997900209979</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03305999999999999</v>
+        <v>0.03225032250322503</v>
       </c>
       <c r="D18">
-        <v>0.1522443704285714</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.009417544568965515</v>
+        <v>0.1632063515807752</v>
       </c>
       <c r="F18">
-        <v>-0.003400741231250295</v>
+        <v>-0.00526345747305473</v>
       </c>
       <c r="G18">
-        <v>0.0002999063436708053</v>
+        <v>-0.00526345747305473</v>
       </c>
       <c r="H18">
-        <v>8.337186329022224E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.00526345747305473</v>
+      </c>
+      <c r="I18">
+        <v>-0.00526345747305473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.09229229229229229</v>
       </c>
       <c r="C19">
-        <v>0.01647</v>
+        <v>0.01321013210132101</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.1156022915043384</v>
       </c>
       <c r="E19">
-        <v>0.009662638171220405</v>
+        <v>0.04029329596593489</v>
       </c>
       <c r="F19">
-        <v>-0.001813139669828567</v>
+        <v>0.00318648088620028</v>
       </c>
       <c r="G19">
-        <v>-0</v>
+        <v>0.0009948417794801052</v>
       </c>
       <c r="H19">
-        <v>-0.0001591436506800001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.005955598048989168</v>
+      </c>
+      <c r="I19">
+        <v>0.01013692071466955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.3058694130586942</v>
+        <v>0.08878878878878881</v>
       </c>
       <c r="C20">
-        <v>0.03930000000000001</v>
+        <v>0.04510045100451004</v>
       </c>
       <c r="D20">
-        <v>-0.1656472878211834</v>
+        <v>0.2200444458184893</v>
       </c>
       <c r="E20">
-        <v>-0.3137276449735368</v>
+        <v>0.589264033878714</v>
       </c>
       <c r="F20">
-        <v>-0.05686002125885113</v>
+        <v>0.02574396615621994</v>
       </c>
       <c r="G20">
-        <v>0.04529325192771216</v>
+        <v>-0.01665196994121555</v>
       </c>
       <c r="H20">
-        <v>-0.03833694225316994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01613059007974735</v>
+      </c>
+      <c r="I20">
+        <v>-0.007038593864742961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.001501501501501501</v>
       </c>
       <c r="C21">
-        <v>0.02043</v>
+        <v>0.01412014120141201</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-0.155364018</v>
       </c>
       <c r="E21">
-        <v>-0.1234694173303964</v>
+        <v>0.006043006896600582</v>
       </c>
       <c r="F21">
-        <v>0.0004708020739467497</v>
+        <v>-7.625452673227713E-05</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-0.002279089982439825</v>
       </c>
       <c r="H21">
-        <v>0.00252248019606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.002036737092204689</v>
+      </c>
+      <c r="I21">
+        <v>-0.0003186074169674131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.00162</v>
+        <v>0.003200032000320003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.334379906</v>
+        <v>0.017382495471875</v>
       </c>
       <c r="F22">
-        <v>0.0003790073146889934</v>
+        <v>-5.562454175541755E-05</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-5.562454175541755E-05</v>
       </c>
       <c r="H22">
-        <v>0.0005416954477200001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>5.562454175541755E-05</v>
+      </c>
+      <c r="I22">
+        <v>-5.562454175541755E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.00306</v>
+        <v>0.006370063700637005</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.08984490620261437</v>
+        <v>0.1254370819795919</v>
       </c>
       <c r="F23">
-        <v>-3.237439385634578E-05</v>
+        <v>-0.0007990422026320265</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-0.0007990422026320265</v>
       </c>
       <c r="H23">
-        <v>0.00027492541298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.0007990422026320265</v>
+      </c>
+      <c r="I23">
+        <v>-0.0007990422026320265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0174982501749825</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0183</v>
+        <v>0.01933019330193302</v>
       </c>
       <c r="D24">
-        <v>-0.1468649653028571</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-0.1129641487076503</v>
+        <v>-0.06311869636937403</v>
       </c>
       <c r="F24">
-        <v>1.005344189786044E-05</v>
+        <v>0.001220096601786018</v>
       </c>
       <c r="G24">
-        <v>-0.0005932049699191279</v>
+        <v>0.001220096601786018</v>
       </c>
       <c r="H24">
-        <v>-0.0005026359834595195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.001220096601786018</v>
+      </c>
+      <c r="I24">
+        <v>0.001220096601786018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.025997400259974</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="C25">
-        <v>0.00222</v>
+        <v>0.0003200032000320004</v>
       </c>
       <c r="D25">
-        <v>-0.183146067</v>
+        <v>0.310176298</v>
       </c>
       <c r="E25">
-        <v>-0.4264995896396397</v>
+        <v>0.083815029</v>
       </c>
       <c r="F25">
-        <v>-0.007753211418621967</v>
+        <v>0.0002248757062930089</v>
       </c>
       <c r="G25">
-        <v>0.006326558932737359</v>
+        <v>7.243633044330446E-05</v>
       </c>
       <c r="H25">
-        <v>-0.003814492520839017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.0006073272401272662</v>
+      </c>
+      <c r="I25">
+        <v>0.0009046392768635795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.1573842615738426</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.02124</v>
+        <v>0.02550025500255003</v>
       </c>
       <c r="D26">
-        <v>0.3055454022039389</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.04751023908945388</v>
+        <v>0.1539101228610393</v>
       </c>
       <c r="F26">
-        <v>0.02014050304663132</v>
+        <v>-0.003924747380430306</v>
       </c>
       <c r="G26">
-        <v>0.04061067360685926</v>
+        <v>-0.003924747380430306</v>
       </c>
       <c r="H26">
-        <v>0.04707892002488968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.003924747380430306</v>
+      </c>
+      <c r="I26">
+        <v>-0.003924747380430306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.01195</v>
+        <v>0.01136011360113601</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.1117532613213389</v>
+        <v>0.1175327676628521</v>
       </c>
       <c r="F27">
-        <v>0.0001353754297526368</v>
+        <v>-0.001335185592505925</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-0.001335185592505925</v>
       </c>
       <c r="H27">
-        <v>0.00133545147279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.001335185592505925</v>
+      </c>
+      <c r="I27">
+        <v>-0.001335185592505925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>9.999000099990002E-05</v>
+        <v>0.0001001001001001001</v>
       </c>
       <c r="C28">
-        <v>0.18481</v>
+        <v>0.1720817208172082</v>
       </c>
       <c r="D28">
-        <v>0.020288248</v>
+        <v>-0.018720749</v>
       </c>
       <c r="E28">
-        <v>0.01624338496634382</v>
+        <v>0.1012866366311018</v>
       </c>
       <c r="F28">
-        <v>-0.02154977671243732</v>
+        <v>-0.0174194399248017</v>
       </c>
       <c r="G28">
-        <v>4.044458587797402E-07</v>
+        <v>-0.02065107743017431</v>
       </c>
       <c r="H28">
-        <v>-0.002999911353692195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.02063906467885988</v>
+      </c>
+      <c r="I28">
+        <v>-0.01743145267611612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.1794794794794795</v>
       </c>
       <c r="C29">
-        <v>0.1613</v>
+        <v>0.1719817198171982</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.04962613912493029</v>
       </c>
       <c r="E29">
-        <v>-0.04665811275592065</v>
+        <v>0.1332537763412025</v>
       </c>
       <c r="F29">
-        <v>-0.008672562374137504</v>
+        <v>0.0009991047890977192</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>-0.01438242487270322</v>
       </c>
       <c r="H29">
-        <v>0.007525953587530001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.0006270199249720582</v>
+      </c>
+      <c r="I29">
+        <v>-0.01401034000857756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.0007999200079992001</v>
+        <v>0.1113113113113113</v>
       </c>
       <c r="C30">
-        <v>0.07578</v>
+        <v>0.05623056230562306</v>
       </c>
       <c r="D30">
-        <v>-0.422070297</v>
+        <v>0.1449187744784173</v>
       </c>
       <c r="E30">
-        <v>-0.2097950915678279</v>
+        <v>0.4093781089379335</v>
       </c>
       <c r="F30">
-        <v>0.008200595199281078</v>
+        <v>0.02254885286683363</v>
       </c>
       <c r="G30">
-        <v>-0.000169803184027335</v>
+        <v>-0.01487069708362943</v>
       </c>
       <c r="H30">
-        <v>0.01556064956365753</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.01456661822357598</v>
+      </c>
+      <c r="I30">
+        <v>-0.006888462440371793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3725,13 +4097,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.01337923035439801</v>
+        <v>0.004491324665362745</v>
       </c>
       <c r="G31">
-        <v>0.07460525207813633</v>
+        <v>-0.05641087621068335</v>
       </c>
       <c r="H31">
-        <v>0.08798448243253433</v>
+        <v>-0.03277660474794936</v>
+      </c>
+      <c r="I31">
+        <v>-0.08469615629326996</v>
       </c>
     </row>
   </sheetData>
@@ -3741,15 +4116,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3772,764 +4147,854 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03341100233006991</v>
+        <v>0.03316999999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.127252648536965</v>
+        <v>-0.159787996059994</v>
       </c>
       <c r="F2">
-        <v>0.001018997977338261</v>
+        <v>0.00530016782931</v>
       </c>
       <c r="G2">
-        <v>-0</v>
+        <v>0.00530016782931</v>
       </c>
       <c r="H2">
-        <v>-0.004251638536776105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.00530016782931</v>
+      </c>
+      <c r="I2">
+        <v>0.00530016782931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02499074972249168</v>
+        <v>0.01694</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04472417987795122</v>
+        <v>-0.1875310775129871</v>
       </c>
       <c r="F3">
-        <v>0.002824638052429864</v>
+        <v>0.00317677645307</v>
       </c>
       <c r="G3">
-        <v>-0</v>
+        <v>0.00317677645307</v>
       </c>
       <c r="H3">
-        <v>-0.001117690785873577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-0.00317677645307</v>
+      </c>
+      <c r="I3">
+        <v>0.00317677645307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0928092809280928</v>
+        <v>0.2722727727227278</v>
       </c>
       <c r="C4">
-        <v>0.004710141304239128</v>
+        <v>0.0072</v>
       </c>
       <c r="D4">
-        <v>-0.02082805359267241</v>
+        <v>0.009109680315828129</v>
       </c>
       <c r="E4">
-        <v>0.3072868837070064</v>
+        <v>0.1622904051055556</v>
       </c>
       <c r="F4">
-        <v>0.0131739365910709</v>
+        <v>0.04301876766762435</v>
       </c>
       <c r="G4">
-        <v>-0.03045211139254945</v>
+        <v>-0.001102901218486038</v>
       </c>
       <c r="H4">
-        <v>-0.003380401320267003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.04060403944769014</v>
+      </c>
+      <c r="I4">
+        <v>0.001311827001448179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.0014001400140014</v>
+        <v>0.0156984301569843</v>
       </c>
       <c r="C5">
-        <v>0.05369161074832245</v>
+        <v>0.06671999999999999</v>
       </c>
       <c r="D5">
-        <v>0.05072624585714285</v>
+        <v>-0.3444210275095542</v>
       </c>
       <c r="E5">
-        <v>0.1638702741233005</v>
+        <v>-0.2923862644856116</v>
       </c>
       <c r="F5">
-        <v>-0.0003199584771562984</v>
+        <v>0.01491800621459109</v>
       </c>
       <c r="G5">
-        <v>-0.0001584174813207528</v>
+        <v>-0.00347175938895745</v>
       </c>
       <c r="H5">
-        <v>-0.008727435124864491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.002654895295890858</v>
+      </c>
+      <c r="I5">
+        <v>0.0141011421215245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01088032640979229</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1269521015891544</v>
+        <v>-0.1570119258162544</v>
       </c>
       <c r="F6">
-        <v>0.0003351077619568093</v>
+        <v>0.00133303125018</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0.00133303125018</v>
       </c>
       <c r="H6">
-        <v>-0.001381280303699111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.00133303125018</v>
+      </c>
+      <c r="I6">
+        <v>0.00133303125018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01444043321299639</v>
+        <v>0.01546</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.05976910255055402</v>
+        <v>-0.01965528767011646</v>
       </c>
       <c r="F7">
-        <v>0.003141092070720931</v>
+        <v>0.0003038707473800004</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0003038707473800004</v>
       </c>
       <c r="H7">
-        <v>0.0008630917335820076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.0003038707473800004</v>
+      </c>
+      <c r="I7">
+        <v>0.0003038707473800004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0259025902590259</v>
+        <v>0.004399560043995601</v>
       </c>
       <c r="C8">
-        <v>0.0223406702201066</v>
+        <v>0.01494</v>
       </c>
       <c r="D8">
-        <v>0.1431274195366795</v>
+        <v>-0.187022901</v>
       </c>
       <c r="E8">
-        <v>0.08972521673455684</v>
+        <v>-0.3253300934698795</v>
       </c>
       <c r="F8">
-        <v>-0.0002423042646960681</v>
+        <v>0.003429122316100564</v>
       </c>
       <c r="G8">
-        <v>0.001383255378112789</v>
+        <v>0.0020663094555</v>
       </c>
       <c r="H8">
-        <v>0.001702849425595984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.001457818657712309</v>
+      </c>
+      <c r="I8">
+        <v>0.004037613113888255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0002000200020002</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05073152194565837</v>
+        <v>0.04807999999999999</v>
       </c>
       <c r="D9">
-        <v>0.08799791650000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.198318952668835</v>
+        <v>-0.2606544336108569</v>
       </c>
       <c r="F9">
-        <v>-0.002049933133632069</v>
+        <v>0.01253226516801</v>
       </c>
       <c r="G9">
-        <v>-2.206641387515452E-05</v>
+        <v>0.01253226516801</v>
       </c>
       <c r="H9">
-        <v>-0.01004342095612464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.01253226516801</v>
+      </c>
+      <c r="I9">
+        <v>0.01253226516801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.04830483048304831</v>
+        <v>0.06579342065793421</v>
       </c>
       <c r="C10">
-        <v>0.005000150004500136</v>
+        <v>0.01278</v>
       </c>
       <c r="D10">
-        <v>0.290109034</v>
+        <v>-0.2580962802765958</v>
       </c>
       <c r="E10">
-        <v>0.290365156</v>
+        <v>-0.1655586962018779</v>
       </c>
       <c r="F10">
-        <v>0.00574279098914334</v>
+        <v>-0.008776832805329289</v>
       </c>
       <c r="G10">
-        <v>-1.237192979298052E-05</v>
+        <v>-0.001182630324474894</v>
       </c>
       <c r="H10">
-        <v>0.01256179837289082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.004905733871221969</v>
+      </c>
+      <c r="I10">
+        <v>-0.01486519700102615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03747112413372401</v>
+        <v>0.0393</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.03563286298452096</v>
+        <v>0.002063344310941478</v>
       </c>
       <c r="F11">
-        <v>0.007246330345747607</v>
+        <v>-8.108943142000008E-05</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-8.108943142000008E-05</v>
       </c>
       <c r="H11">
-        <v>0.001335203432132964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>8.108943142000008E-05</v>
+      </c>
+      <c r="I11">
+        <v>-8.108943142000008E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05031150934528036</v>
+        <v>0.04780999999999999</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1566460418246869</v>
+        <v>-0.04985624039866136</v>
       </c>
       <c r="F12">
-        <v>5.561844393436903E-05</v>
+        <v>0.00238362685346</v>
       </c>
       <c r="G12">
-        <v>-0</v>
+        <v>0.00238362685346</v>
       </c>
       <c r="H12">
-        <v>-0.007881098797163914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.00238362685346</v>
+      </c>
+      <c r="I12">
+        <v>0.00238362685346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.5138513851385138</v>
+        <v>0.0001999800019998</v>
       </c>
       <c r="C13">
-        <v>0.03354100623018691</v>
+        <v>0.02725</v>
       </c>
       <c r="D13">
-        <v>0.3322144132296614</v>
+        <v>-0.48697033</v>
       </c>
       <c r="E13">
-        <v>0.2946988356979726</v>
+        <v>-0.1712151430752294</v>
       </c>
       <c r="F13">
-        <v>0.06577721548583486</v>
+        <v>0.00463137304414542</v>
       </c>
       <c r="G13">
-        <v>0.01927743147892964</v>
+        <v>-0.0086043288437</v>
       </c>
       <c r="H13">
-        <v>0.1608243409168656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.008541184120787339</v>
+      </c>
+      <c r="I13">
+        <v>0.004568228321232757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0003000300030003001</v>
+        <v>0.04679532046795321</v>
       </c>
       <c r="C14">
-        <v>0.0220706621198636</v>
+        <v>0.02119</v>
       </c>
       <c r="D14">
-        <v>0.1649205296666667</v>
+        <v>0.258263712</v>
       </c>
       <c r="E14">
-        <v>0.1158965186311735</v>
+        <v>-0.008187446495044833</v>
       </c>
       <c r="F14">
-        <v>0.0009112099099150153</v>
+        <v>-0.0002096421913198432</v>
       </c>
       <c r="G14">
-        <v>1.470867417806575E-05</v>
+        <v>0.005646100048509999</v>
       </c>
       <c r="H14">
-        <v>-0.002508431796566407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.006822567302323015</v>
+      </c>
+      <c r="I14">
+        <v>0.01225902515951317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.08509149085091491</v>
       </c>
       <c r="C15">
-        <v>0.03534106023180696</v>
+        <v>0.03271999999999999</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.07318572700000001</v>
       </c>
       <c r="E15">
-        <v>0.1202594440537635</v>
+        <v>-0.1434707250155868</v>
       </c>
       <c r="F15">
-        <v>0.001325009832513376</v>
+        <v>-0.007513775762527936</v>
       </c>
       <c r="G15">
-        <v>-0</v>
+        <v>0.00708899910995</v>
       </c>
       <c r="H15">
-        <v>-0.004250096255747673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.01134662139452599</v>
+      </c>
+      <c r="I15">
+        <v>0.01092184474194806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004760142804284129</v>
+        <v>0.00791</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3078220471932773</v>
+        <v>-0.07081249415423516</v>
       </c>
       <c r="F16">
-        <v>-0.0007143571242226236</v>
+        <v>0.0005601268287600001</v>
       </c>
       <c r="G16">
-        <v>-0</v>
+        <v>0.0005601268287600001</v>
       </c>
       <c r="H16">
-        <v>-0.001465276902947089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.0005601268287600001</v>
+      </c>
+      <c r="I16">
+        <v>0.0005601268287600001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01192035761072832</v>
+        <v>0.0105</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1118189550713087</v>
+        <v>-0.1053272519180953</v>
       </c>
       <c r="F17">
-        <v>0.0005475326398238904</v>
+        <v>0.00110593614514</v>
       </c>
       <c r="G17">
-        <v>-0</v>
+        <v>0.00110593614514</v>
       </c>
       <c r="H17">
-        <v>-0.001332921932107963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>-0.00110593614514</v>
+      </c>
+      <c r="I17">
+        <v>0.00110593614514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0.005400540054005401</v>
+        <v>0.0020997900209979</v>
       </c>
       <c r="C18">
-        <v>0.03043091292738782</v>
+        <v>0.03305999999999999</v>
       </c>
       <c r="D18">
-        <v>0.3701443114074074</v>
+        <v>0.1522443704285714</v>
       </c>
       <c r="E18">
-        <v>-0.03522001545678607</v>
+        <v>0.009417544568965515</v>
       </c>
       <c r="F18">
-        <v>0.004830149570205907</v>
+        <v>-0.0002915691573417831</v>
       </c>
       <c r="G18">
-        <v>0.002189186283695015</v>
+        <v>0.00472185486291857</v>
       </c>
       <c r="H18">
-        <v>0.003070756403184662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>-0.004421948519247765</v>
+      </c>
+      <c r="I18">
+        <v>8.337186329022224E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.04160416041604161</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01763052891586748</v>
+        <v>0.01647</v>
       </c>
       <c r="D19">
-        <v>-0.08857839898076925</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3776797872819059</v>
+        <v>0.009662638171220405</v>
       </c>
       <c r="F19">
-        <v>0.005272479156051575</v>
+        <v>-0.0001591436506800001</v>
       </c>
       <c r="G19">
-        <v>-0.01939828037656494</v>
+        <v>-0.0001591436506800001</v>
       </c>
       <c r="H19">
-        <v>-0.01034392433120438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.0001591436506800001</v>
+      </c>
+      <c r="I19">
+        <v>-0.0001591436506800001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.09810981098109813</v>
+        <v>0.3058694130586942</v>
       </c>
       <c r="C20">
-        <v>0.04934148024440733</v>
+        <v>0.03930000000000001</v>
       </c>
       <c r="D20">
-        <v>0.02299688522528032</v>
+        <v>-0.1656472878211834</v>
       </c>
       <c r="E20">
-        <v>0.2155516662829348</v>
+        <v>-0.3137276449735368</v>
       </c>
       <c r="F20">
-        <v>0.002818816487333989</v>
+        <v>-0.08363019418088211</v>
       </c>
       <c r="G20">
-        <v>-0.01889151317307321</v>
+        <v>0.005819558036087492</v>
       </c>
       <c r="H20">
-        <v>-0.008379418220942248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.03947369389162467</v>
+      </c>
+      <c r="I20">
+        <v>-0.03833694225316994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01231036931107933</v>
+        <v>0.02043</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04978191737774169</v>
+        <v>-0.1234694173303964</v>
       </c>
       <c r="F21">
-        <v>0.00132914572385169</v>
+        <v>0.00252248019606</v>
       </c>
       <c r="G21">
-        <v>-0</v>
+        <v>0.00252248019606</v>
       </c>
       <c r="H21">
-        <v>-0.0006128337879336383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.00252248019606</v>
+      </c>
+      <c r="I21">
+        <v>0.00252248019606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.002720081602448074</v>
+        <v>0.00162</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.1318392107058823</v>
+        <v>-0.334379906</v>
       </c>
       <c r="F22">
-        <v>0.0007877104279363256</v>
+        <v>0.0005416954477200001</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005416954477200001</v>
       </c>
       <c r="H22">
-        <v>0.0003586134115223456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.0005416954477200001</v>
+      </c>
+      <c r="I22">
+        <v>0.0005416954477200001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04690469046904691</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.003780113403402101</v>
+        <v>0.00306</v>
       </c>
       <c r="D23">
-        <v>0.392318244</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.08370185025925928</v>
+        <v>-0.08984490620261437</v>
       </c>
       <c r="F23">
-        <v>-0.01041257461783747</v>
+        <v>0.00027492541298</v>
       </c>
       <c r="G23">
-        <v>0.02232757517827709</v>
+        <v>0.00027492541298</v>
       </c>
       <c r="H23">
-        <v>0.0187179682862346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.00027492541298</v>
+      </c>
+      <c r="I23">
+        <v>0.00027492541298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0174982501749825</v>
       </c>
       <c r="C24">
-        <v>0.01558046741402242</v>
+        <v>0.0183</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-0.1468649653028571</v>
       </c>
       <c r="E24">
-        <v>0.1349425418055199</v>
+        <v>-0.1129641487076503</v>
       </c>
       <c r="F24">
-        <v>0.0003553745936520508</v>
+        <v>9.056898645960865E-05</v>
       </c>
       <c r="G24">
-        <v>-0</v>
+        <v>-0.0006203849436922851</v>
       </c>
       <c r="H24">
-        <v>-0.002102467875366261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2.71799737731572E-05</v>
+      </c>
+      <c r="I24">
+        <v>-0.0005026359834595195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.025997400259974</v>
       </c>
       <c r="C25">
-        <v>0.002370071102133064</v>
+        <v>0.00222</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-0.183146067</v>
       </c>
       <c r="E25">
-        <v>-0.0841430854556962</v>
+        <v>-0.4264995896396397</v>
       </c>
       <c r="F25">
-        <v>0.0005733074220847455</v>
+        <v>-0.01014105145357637</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005402448202600001</v>
       </c>
       <c r="H25">
-        <v>0.0001994250952828585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.005786314112477359</v>
+      </c>
+      <c r="I25">
+        <v>-0.003814492520839017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002700270027002701</v>
+        <v>0.1573842615738426</v>
       </c>
       <c r="C26">
-        <v>0.02515075452263568</v>
+        <v>0.02124</v>
       </c>
       <c r="D26">
-        <v>0.208924103</v>
+        <v>0.3055454022039389</v>
       </c>
       <c r="E26">
-        <v>0.1789227502894632</v>
+        <v>0.04751023908945388</v>
       </c>
       <c r="F26">
-        <v>-0.0004753043022282062</v>
+        <v>0.006468246418030413</v>
       </c>
       <c r="G26">
-        <v>8.101175349379877E-05</v>
+        <v>0.005480666864551663</v>
       </c>
       <c r="H26">
-        <v>-0.003935890677795807</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.0351300067423076</v>
+      </c>
+      <c r="I26">
+        <v>0.04707892002488968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.0578057805780578</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.01260037801134034</v>
+        <v>0.01195</v>
       </c>
       <c r="D27">
-        <v>0.2976730022698962</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.169332502647619</v>
+        <v>-0.1117532613213389</v>
       </c>
       <c r="F27">
-        <v>0.0005235228314071631</v>
+        <v>0.00133545147279</v>
       </c>
       <c r="G27">
-        <v>0.007418822760443667</v>
+        <v>0.00133545147279</v>
       </c>
       <c r="H27">
-        <v>0.01507356671025904</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>-0.00133545147279</v>
+      </c>
+      <c r="I27">
+        <v>0.00133545147279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.0004000400040004001</v>
+        <v>9.999000099990002E-05</v>
       </c>
       <c r="C28">
-        <v>0.1684250527515825</v>
+        <v>0.18481</v>
       </c>
       <c r="D28">
-        <v>0.221946999</v>
+        <v>0.020288248</v>
       </c>
       <c r="E28">
-        <v>0.1004135725492816</v>
+        <v>0.01624338496634382</v>
       </c>
       <c r="F28">
-        <v>0.009634209913685103</v>
+        <v>-0.003000315799550974</v>
       </c>
       <c r="G28">
-        <v>4.861823240352771E-05</v>
+        <v>0.0007475311372499989</v>
       </c>
       <c r="H28">
-        <v>-0.01682337357521977</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.0007471266913912192</v>
+      </c>
+      <c r="I28">
+        <v>-0.002999911353692195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.1723151694550837</v>
+        <v>0.1613</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.1640107053395044</v>
+        <v>-0.04665811275592065</v>
       </c>
       <c r="F29">
-        <v>-0.001078552005710927</v>
+        <v>0.007525953587530001</v>
       </c>
       <c r="G29">
-        <v>-0</v>
+        <v>0.007525953587530001</v>
       </c>
       <c r="H29">
-        <v>-0.02826153248302449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.007525953587530001</v>
+      </c>
+      <c r="I29">
+        <v>0.007525953587530001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.06430643064306429</v>
+        <v>0.0007999200079992001</v>
       </c>
       <c r="C30">
-        <v>0.07173215196455894</v>
+        <v>0.07578</v>
       </c>
       <c r="D30">
-        <v>0.2022266755147745</v>
+        <v>-0.422070297</v>
       </c>
       <c r="E30">
-        <v>0.4487996443642828</v>
+        <v>-0.2097950915678279</v>
       </c>
       <c r="F30">
-        <v>-0.002161242237819953</v>
+        <v>0.01573045274768487</v>
       </c>
       <c r="G30">
-        <v>-0.01585622751977536</v>
+        <v>-0.01608621506765</v>
       </c>
       <c r="H30">
-        <v>-0.01918888860801043</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.01591641188362267</v>
+      </c>
+      <c r="I30">
+        <v>0.01556064956365753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4538,13 +5003,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.1107699700633342</v>
+        <v>0.013379230354398</v>
       </c>
       <c r="G31">
-        <v>-0.03205037854741825</v>
+        <v>0.03969911885835705</v>
       </c>
       <c r="H31">
-        <v>0.0787195915159159</v>
+        <v>0.03490613321977927</v>
+      </c>
+      <c r="I31">
+        <v>0.08798448243253433</v>
       </c>
     </row>
   </sheetData>
